--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,16 +119,8 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -961,6 +953,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +968,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1191,6 +1189,12 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1234,7 +1238,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1456,6 +1460,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1475,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1684,6 +1694,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>723.89175466506435</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>719.80874077677595</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1742,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1948,6 +1964,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,7 +1979,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2179,6 +2201,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>241.66560072275183</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,11 +2228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469072128"/>
-        <c:axId val="469164416"/>
+        <c:axId val="538417792"/>
+        <c:axId val="548725120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469072128"/>
+        <c:axId val="538417792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,14 +2275,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469164416"/>
+        <c:crossAx val="548725120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469164416"/>
+        <c:axId val="548725120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469072128"/>
+        <c:crossAx val="538417792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2516,7 +2544,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2702,6 +2730,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,7 +2745,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2896,6 +2930,12 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2939,7 +2979,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3125,6 +3165,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3180,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3320,6 +3366,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1094.4167426984752</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1125.1977572215014</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1133.1773505742453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,7 +3414,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3548,6 +3600,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,7 +3615,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3743,6 +3801,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>294.30864731714132</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>325.08966184016754</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>333.06925519291144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,11 +3828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480470912"/>
-        <c:axId val="480472448"/>
+        <c:axId val="552102144"/>
+        <c:axId val="562729728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480470912"/>
+        <c:axId val="552102144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +3875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480472448"/>
+        <c:crossAx val="562729728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480472448"/>
+        <c:axId val="562729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,7 +3931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480470912"/>
+        <c:crossAx val="552102144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4080,7 +4144,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4266,6 +4330,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,7 +4345,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4460,6 +4530,12 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4503,7 +4579,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4689,6 +4765,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,7 +4780,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4884,6 +4966,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>246.69628114626209</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>254.93539772849959</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>257.11280601379377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,7 +5014,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5112,6 +5200,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,7 +5215,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5307,6 +5401,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>72.706062194377807</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80.945178776615307</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83.122587061909485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,11 +5428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484662656"/>
-        <c:axId val="489675392"/>
+        <c:axId val="585251840"/>
+        <c:axId val="610067200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484662656"/>
+        <c:axId val="585251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,14 +5475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489675392"/>
+        <c:crossAx val="610067200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489675392"/>
+        <c:axId val="610067200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5431,7 +5531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484662656"/>
+        <c:crossAx val="585251840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5935,8 +6035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF77"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9114,6 +9216,76 @@
         <v>708.17280377094357</v>
       </c>
     </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.0354160636182892</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-12.301938366029718</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-9.4723561399144671</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I78" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J78" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K78" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I79" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J79" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K79" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9130,7 +9302,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9172,13 +9344,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9228,7 +9400,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -11784,6 +11956,76 @@
       </c>
       <c r="K65" s="21">
         <v>556.63113538471544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-89.008200778208106</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-68.535327690501489</v>
+      </c>
+      <c r="F66" s="22">
+        <v>369.25466694790083</v>
+      </c>
+      <c r="G66" s="22">
+        <v>479.55842105857778</v>
+      </c>
+      <c r="H66" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I66" s="22">
+        <v>1125.1977572215014</v>
+      </c>
+      <c r="J66" s="22">
+        <v>325.08966184016754</v>
+      </c>
+      <c r="K66" s="21">
+        <v>645.63933616292354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-80.515726690503115</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-60.981517265004292</v>
+      </c>
+      <c r="F67" s="22">
+        <v>308.27314968289653</v>
+      </c>
+      <c r="G67" s="22">
+        <v>407.02228772081878</v>
+      </c>
+      <c r="H67" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I67" s="22">
+        <v>1133.1773505742453</v>
+      </c>
+      <c r="J67" s="22">
+        <v>333.06925519291144</v>
+      </c>
+      <c r="K67" s="21">
+        <v>726.15506285342667</v>
       </c>
     </row>
   </sheetData>
@@ -11802,7 +12044,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11850,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11900,7 +12142,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -14456,6 +14698,76 @@
       </c>
       <c r="K65" s="21">
         <v>102.74786412469552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-21.329426788565446</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-16.42342212991672</v>
+      </c>
+      <c r="F66" s="22">
+        <v>100.7592913139388</v>
+      </c>
+      <c r="G66" s="22">
+        <v>130.85810681523861</v>
+      </c>
+      <c r="H66" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I66" s="22">
+        <v>254.93539772849959</v>
+      </c>
+      <c r="J66" s="22">
+        <v>80.945178776615307</v>
+      </c>
+      <c r="K66" s="21">
+        <v>124.07729091326097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-18.350809481876375</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-13.898653731927908</v>
+      </c>
+      <c r="F67" s="22">
+        <v>86.860637582010895</v>
+      </c>
+      <c r="G67" s="22">
+        <v>114.68470561865645</v>
+      </c>
+      <c r="H67" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I67" s="22">
+        <v>257.11280601379377</v>
+      </c>
+      <c r="J67" s="22">
+        <v>83.122587061909485</v>
+      </c>
+      <c r="K67" s="21">
+        <v>142.42810039513733</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -959,6 +963,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +975,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1195,6 +1202,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1238,7 +1248,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1466,6 +1476,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1488,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1699,6 +1712,9 @@
                   <c:v>719.80874077677595</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1742,7 +1758,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1970,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,7 +1998,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2206,6 +2225,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2228,11 +2250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538417792"/>
-        <c:axId val="548725120"/>
+        <c:axId val="511429248"/>
+        <c:axId val="511476096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538417792"/>
+        <c:axId val="511429248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548725120"/>
+        <c:crossAx val="511476096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548725120"/>
+        <c:axId val="511476096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538417792"/>
+        <c:crossAx val="511429248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2544,7 +2566,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2736,6 +2758,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +2770,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2936,6 +2961,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2979,7 +3007,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3171,6 +3199,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,7 +3211,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3371,6 +3402,9 @@
                   <c:v>1125.1977572215014</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>1133.1773505742453</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1133.1773505742453</c:v>
                 </c:pt>
               </c:numCache>
@@ -3414,7 +3448,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3606,6 +3640,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,7 +3652,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3806,6 +3843,9 @@
                   <c:v>325.08966184016754</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>333.06925519291144</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>333.06925519291144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3828,11 +3868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552102144"/>
-        <c:axId val="562729728"/>
+        <c:axId val="513878272"/>
+        <c:axId val="513889024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552102144"/>
+        <c:axId val="513878272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,14 +3915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562729728"/>
+        <c:crossAx val="513889024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562729728"/>
+        <c:axId val="513889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,7 +3971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552102144"/>
+        <c:crossAx val="513878272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4144,7 +4184,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4336,6 +4376,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,7 +4388,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4536,6 +4579,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4579,7 +4625,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4771,6 +4817,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4829,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4971,6 +5020,9 @@
                   <c:v>254.93539772849959</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>257.11280601379377</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>257.11280601379377</c:v>
                 </c:pt>
               </c:numCache>
@@ -5014,7 +5066,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5206,6 +5258,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,7 +5270,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5406,6 +5461,9 @@
                   <c:v>80.945178776615307</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>83.122587061909485</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>83.122587061909485</c:v>
                 </c:pt>
               </c:numCache>
@@ -5428,11 +5486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585251840"/>
-        <c:axId val="610067200"/>
+        <c:axId val="292569472"/>
+        <c:axId val="292571008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585251840"/>
+        <c:axId val="292569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,14 +5533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610067200"/>
+        <c:crossAx val="292571008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610067200"/>
+        <c:axId val="292571008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5531,7 +5589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585251840"/>
+        <c:crossAx val="292569472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5639,7 +5697,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5682,7 +5740,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5725,7 +5783,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6038,7 +6096,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9286,6 +9344,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I80" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J80" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K80" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9302,7 +9395,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12028,6 +12121,41 @@
         <v>726.15506285342667</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-80.515726690503115</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-60.981517265004292</v>
+      </c>
+      <c r="F68" s="22">
+        <v>247.29163241789223</v>
+      </c>
+      <c r="G68" s="22">
+        <v>326.50656103031565</v>
+      </c>
+      <c r="H68" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I68" s="22">
+        <v>1133.1773505742453</v>
+      </c>
+      <c r="J68" s="22">
+        <v>333.06925519291144</v>
+      </c>
+      <c r="K68" s="21">
+        <v>806.6707895439298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12044,7 +12172,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12086,7 +12214,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -14770,6 +14898,41 @@
         <v>142.42810039513733</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-18.350809481876375</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-13.898653731927908</v>
+      </c>
+      <c r="F68" s="22">
+        <v>72.961983850082987</v>
+      </c>
+      <c r="G68" s="22">
+        <v>96.333896136780069</v>
+      </c>
+      <c r="H68" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I68" s="22">
+        <v>257.11280601379377</v>
+      </c>
+      <c r="J68" s="22">
+        <v>83.122587061909485</v>
+      </c>
+      <c r="K68" s="21">
+        <v>160.77890987701372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,12 +119,16 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2250,11 +2254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511429248"/>
-        <c:axId val="511476096"/>
+        <c:axId val="345803008"/>
+        <c:axId val="345810432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511429248"/>
+        <c:axId val="345803008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,14 +2301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511476096"/>
+        <c:crossAx val="345810432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511476096"/>
+        <c:axId val="345810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511429248"/>
+        <c:crossAx val="345803008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3405,7 +3409,7 @@
                   <c:v>1133.1773505742453</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1133.1773505742453</c:v>
+                  <c:v>1114.2339655262315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,7 +3850,7 @@
                   <c:v>333.06925519291144</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>333.06925519291144</c:v>
+                  <c:v>314.12587014489759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,11 +3872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513878272"/>
-        <c:axId val="513889024"/>
+        <c:axId val="549091200"/>
+        <c:axId val="549092736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513878272"/>
+        <c:axId val="549091200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,14 +3919,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513889024"/>
+        <c:crossAx val="549092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513889024"/>
+        <c:axId val="549092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,7 +3975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513878272"/>
+        <c:crossAx val="549091200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5023,7 +5027,7 @@
                   <c:v>257.11280601379377</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>257.11280601379377</c:v>
+                  <c:v>251.77521983437924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,7 +5468,7 @@
                   <c:v>83.122587061909485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83.122587061909485</c:v>
+                  <c:v>77.785000882494955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5486,11 +5490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292569472"/>
-        <c:axId val="292571008"/>
+        <c:axId val="555733376"/>
+        <c:axId val="555735296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="292569472"/>
+        <c:axId val="555733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,14 +5537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292571008"/>
+        <c:crossAx val="555735296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="292571008"/>
+        <c:axId val="555735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5589,7 +5593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292569472"/>
+        <c:crossAx val="555733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9349,10 +9353,10 @@
         <v>45138</v>
       </c>
       <c r="B80" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0426825419354826</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -9437,13 +9441,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12126,34 +12130,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-80.515726690503115</v>
+        <v>-30.373594497679139</v>
       </c>
       <c r="E68" s="22">
-        <v>-60.981517265004292</v>
+        <v>-24.127474022686147</v>
       </c>
       <c r="F68" s="22">
-        <v>247.29163241789223</v>
+        <v>284.14567566021037</v>
       </c>
       <c r="G68" s="22">
-        <v>326.50656103031565</v>
+        <v>357.70530817512565</v>
       </c>
       <c r="H68" s="22">
         <v>800.1080953813339</v>
       </c>
       <c r="I68" s="22">
-        <v>1133.1773505742453</v>
+        <v>1114.2339655262315</v>
       </c>
       <c r="J68" s="22">
-        <v>333.06925519291144</v>
+        <v>314.12587014489759</v>
       </c>
       <c r="K68" s="21">
-        <v>806.6707895439298</v>
+        <v>756.52865735110584</v>
       </c>
     </row>
   </sheetData>
@@ -12214,13 +12218,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12270,7 +12274,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -14903,34 +14907,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-18.350809481876375</v>
+        <v>-4.2518549154202834</v>
       </c>
       <c r="E68" s="22">
-        <v>-13.898653731927908</v>
+        <v>-3.3774902416594776</v>
       </c>
       <c r="F68" s="22">
-        <v>72.961983850082987</v>
+        <v>83.483147340351422</v>
       </c>
       <c r="G68" s="22">
-        <v>96.333896136780069</v>
+        <v>105.0952645238216</v>
       </c>
       <c r="H68" s="22">
         <v>173.99021895188429</v>
       </c>
       <c r="I68" s="22">
-        <v>257.11280601379377</v>
+        <v>251.77521983437924</v>
       </c>
       <c r="J68" s="22">
-        <v>83.122587061909485</v>
+        <v>77.785000882494955</v>
       </c>
       <c r="K68" s="21">
-        <v>160.77890987701372</v>
+        <v>146.67995531055763</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -119,16 +119,16 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -970,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +982,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1209,6 +1212,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1252,7 +1258,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1483,6 +1489,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,7 +1501,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1719,6 +1728,9 @@
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1762,7 +1774,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1993,6 +2005,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,7 +2017,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2232,6 +2247,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2254,11 +2272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345803008"/>
-        <c:axId val="345810432"/>
+        <c:axId val="501968896"/>
+        <c:axId val="501971584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345803008"/>
+        <c:axId val="501968896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,14 +2319,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345810432"/>
+        <c:crossAx val="501971584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345810432"/>
+        <c:axId val="501971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345803008"/>
+        <c:crossAx val="501968896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2570,7 +2588,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2765,6 +2783,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,7 +2795,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2968,6 +2989,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -3011,7 +3035,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3206,6 +3230,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3242,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3410,6 +3437,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1114.2339655262315</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1112.5773962371325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3482,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3647,6 +3677,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3689,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3851,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>314.12587014489759</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>312.46930085579856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,11 +3908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549091200"/>
-        <c:axId val="549092736"/>
+        <c:axId val="503860608"/>
+        <c:axId val="508564608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549091200"/>
+        <c:axId val="503860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,14 +3955,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549092736"/>
+        <c:crossAx val="508564608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549092736"/>
+        <c:axId val="508564608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +4011,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549091200"/>
+        <c:crossAx val="503860608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4188,7 +4224,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4383,6 +4419,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,7 +4431,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4586,6 +4625,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4629,7 +4671,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4824,6 +4866,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4833,7 +4878,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5028,6 +5073,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>251.77521983437924</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>251.28851308538498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,7 +5118,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5265,6 +5313,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,7 +5325,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5469,6 +5520,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>77.785000882494955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77.29829413350069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5490,11 +5544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555733376"/>
-        <c:axId val="555735296"/>
+        <c:axId val="607399936"/>
+        <c:axId val="607401472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555733376"/>
+        <c:axId val="607399936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,14 +5591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555735296"/>
+        <c:crossAx val="607401472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555735296"/>
+        <c:axId val="607401472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,7 +5647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555733376"/>
+        <c:crossAx val="607399936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6100,7 +6154,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9383,6 +9437,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.0455482644628087</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I81" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J81" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K81" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9399,7 +9488,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9441,13 +9530,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9555,7 +9644,7 @@
         <v>13</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>15</v>
@@ -12158,6 +12247,41 @@
       </c>
       <c r="K68" s="21">
         <v>756.52865735110584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-20.293608105328275</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-16.195369781994554</v>
+      </c>
+      <c r="F69" s="22">
+        <v>267.95030587821583</v>
+      </c>
+      <c r="G69" s="22">
+        <v>335.75513078069832</v>
+      </c>
+      <c r="H69" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I69" s="22">
+        <v>1112.5773962371325</v>
+      </c>
+      <c r="J69" s="22">
+        <v>312.46930085579856</v>
+      </c>
+      <c r="K69" s="21">
+        <v>776.82226545643414</v>
       </c>
     </row>
   </sheetData>
@@ -12176,7 +12300,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12218,13 +12342,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12274,7 +12398,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -14935,6 +15059,41 @@
       </c>
       <c r="K68" s="21">
         <v>146.67995531055763</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-2.3220579554689471</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-1.8531247400095345</v>
+      </c>
+      <c r="F69" s="22">
+        <v>81.630022600341889</v>
+      </c>
+      <c r="G69" s="22">
+        <v>102.2864998193584</v>
+      </c>
+      <c r="H69" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I69" s="22">
+        <v>251.28851308538498</v>
+      </c>
+      <c r="J69" s="22">
+        <v>77.29829413350069</v>
+      </c>
+      <c r="K69" s="21">
+        <v>149.00201326602658</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,15 +119,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
+    <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -973,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +981,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1215,6 +1214,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,7 +1260,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1492,6 +1494,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1506,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1731,6 +1736,9 @@
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,7 +1782,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2008,6 +2016,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2028,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2250,6 +2261,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2272,11 +2286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501968896"/>
-        <c:axId val="501971584"/>
+        <c:axId val="477095040"/>
+        <c:axId val="477096960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501968896"/>
+        <c:axId val="477095040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,14 +2333,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501971584"/>
+        <c:crossAx val="477096960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501971584"/>
+        <c:axId val="477096960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501968896"/>
+        <c:crossAx val="477095040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2588,7 +2602,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2786,6 +2800,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2812,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2992,6 +3009,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -3035,7 +3055,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3233,6 +3253,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,7 +3265,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3440,6 +3463,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1112.5773962371325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1106.8298621760446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,7 +3508,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3680,6 +3706,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,7 +3718,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3887,6 +3916,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>312.46930085579856</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>306.72176679471067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,11 +3940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503860608"/>
-        <c:axId val="508564608"/>
+        <c:axId val="482572544"/>
+        <c:axId val="517656960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503860608"/>
+        <c:axId val="482572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,14 +3987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508564608"/>
+        <c:crossAx val="517656960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508564608"/>
+        <c:axId val="517656960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,7 +4043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503860608"/>
+        <c:crossAx val="482572544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4224,7 +4256,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4422,6 +4454,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,7 +4466,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4628,6 +4663,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4671,7 +4709,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4869,6 +4907,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,7 +4919,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5076,6 +5117,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>251.28851308538498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>249.53754910060766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5118,7 +5162,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5316,6 +5360,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5325,7 +5372,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5523,6 +5570,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>77.29829413350069</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75.547330148723375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5544,11 +5594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607399936"/>
-        <c:axId val="607401472"/>
+        <c:axId val="90674688"/>
+        <c:axId val="90676224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607399936"/>
+        <c:axId val="90674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,14 +5641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607401472"/>
+        <c:crossAx val="90676224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607401472"/>
+        <c:axId val="90676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5647,7 +5697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607399936"/>
+        <c:crossAx val="90674688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5755,7 +5805,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5798,7 +5848,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5841,7 +5891,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6204,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9472,6 +9522,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0475409711779438</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I82" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J82" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K82" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9488,7 +9573,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9530,13 +9615,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9644,7 +9729,7 @@
         <v>13</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>15</v>
@@ -12282,6 +12367,41 @@
       </c>
       <c r="K69" s="21">
         <v>776.82226545643414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-8.0398432305919485</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-6.527966247638803</v>
+      </c>
+      <c r="F70" s="22">
+        <v>261.42233963057703</v>
+      </c>
+      <c r="G70" s="22">
+        <v>321.96775348901861</v>
+      </c>
+      <c r="H70" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I70" s="22">
+        <v>1106.8298621760446</v>
+      </c>
+      <c r="J70" s="22">
+        <v>306.72176679471067</v>
+      </c>
+      <c r="K70" s="21">
+        <v>784.86210868702608</v>
       </c>
     </row>
   </sheetData>
@@ -12300,7 +12420,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12342,13 +12462,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15096,6 +15216,41 @@
         <v>149.00201326602658</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-0.5790359413418148</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-0.47014935152794324</v>
+      </c>
+      <c r="F70" s="22">
+        <v>81.159873248813952</v>
+      </c>
+      <c r="G70" s="22">
+        <v>99.956499893239254</v>
+      </c>
+      <c r="H70" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I70" s="22">
+        <v>249.53754910060766</v>
+      </c>
+      <c r="J70" s="22">
+        <v>75.547330148723375</v>
+      </c>
+      <c r="K70" s="21">
+        <v>149.58104920736841</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,10 +117,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -735,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -972,6 +968,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +980,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1049,175 +1048,178 @@
                   <c:v>273.53000271347906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>325.03320494363652</c:v>
+                  <c:v>325.38695714961136</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>387.47014939532522</c:v>
+                  <c:v>387.6217777903621</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>411.14609660028157</c:v>
+                  <c:v>411.17943913804055</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>413.38597872647875</c:v>
+                  <c:v>413.38399657560086</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>413.74379588160713</c:v>
+                  <c:v>413.72808880469648</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>421.39124839514665</c:v>
+                  <c:v>421.31276487356826</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>464.78345852637074</c:v>
+                  <c:v>464.55935255264319</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>469.54723818955296</c:v>
+                  <c:v>469.27597018464593</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>471.00666055822069</c:v>
+                  <c:v>470.70980436236283</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,7 +1262,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1497,6 +1499,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,7 +1511,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1574,172 +1579,175 @@
                   <c:v>256.81815366368033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>309.79590940520603</c:v>
+                  <c:v>309.78371402441792</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>387.30485714265319</c:v>
+                  <c:v>387.84865603416119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>426.13827423863478</c:v>
+                  <c:v>426.7387908059535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>411.33334314574387</c:v>
+                  <c:v>411.9152166953026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>391.53453113167387</c:v>
+                  <c:v>392.09197566567309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>401.48531172885009</c:v>
+                  <c:v>402.05401033300228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.53685128271212</c:v>
+                  <c:v>404.10774833232256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>416.62627955681558</c:v>
+                  <c:v>417.21032433637623</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>431.04889375728624</c:v>
+                  <c:v>431.64547494630381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>436.57932102337048</c:v>
+                  <c:v>437.17958728329086</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>438.46356348935939</c:v>
+                  <c:v>439.06463646461111</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>461.89394834371285</c:v>
+                  <c:v>462.4989477732662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>493.58436391760927</c:v>
+                  <c:v>494.18044192296361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>511.22758584306769</c:v>
+                  <c:v>511.80074417233186</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>494.4146027656252</c:v>
+                  <c:v>495.06942687390398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>499.79048268794531</c:v>
+                  <c:v>500.39541038362876</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>562.02153925670427</c:v>
+                  <c:v>562.44118646486822</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>591.30745897412828</c:v>
+                  <c:v>591.59097309082517</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>602.06969442324657</c:v>
+                  <c:v>602.28677890016763</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>604.70320312796184</c:v>
+                  <c:v>604.89765392692493</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>606.62434809210959</c:v>
+                  <c:v>606.77911089699853</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>638.99273958437857</c:v>
+                  <c:v>639.04961786949764</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>661.72179571132949</c:v>
+                  <c:v>661.6591640311317</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>667.27633562275685</c:v>
+                  <c:v>667.17091762957727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>668.05173961811045</c:v>
+                  <c:v>667.91817463193593</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>689.98547117466865</c:v>
+                  <c:v>689.75401738685093</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>705.03246830434284</c:v>
+                  <c:v>704.7283116702439</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>723.89175466506435</c:v>
+                  <c:v>723.46658595462122</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>719.80874077677595</c:v>
+                  <c:v>719.46109753752114</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,7 +1790,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2019,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +2039,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2096,175 +2107,178 @@
                   <c:v>-16.71184904979873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-15.237295538430487</c:v>
+                  <c:v>-15.603243125193444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.267914741046411</c:v>
+                  <c:v>62.459558041206321</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101.101331837028</c:v>
+                  <c:v>101.34969281299863</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.296400744137088</c:v>
+                  <c:v>86.526118702347731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.491651452957342</c:v>
+                  <c:v>66.698865174537332</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.442432050133561</c:v>
+                  <c:v>76.660899841866524</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.49397160399559</c:v>
+                  <c:v>78.7146378411868</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91.583399878099044</c:v>
+                  <c:v>91.817213845240474</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>106.00601407856971</c:v>
+                  <c:v>106.25236445516805</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>111.53644134465395</c:v>
+                  <c:v>111.7864767921551</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.42068381064286</c:v>
+                  <c:v>113.67152597347535</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136.85106866499632</c:v>
+                  <c:v>137.10583728213044</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>168.54148423889274</c:v>
+                  <c:v>168.78733143182785</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>186.18470616435116</c:v>
+                  <c:v>186.4076336811961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>169.37172308690867</c:v>
+                  <c:v>169.67631638276822</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>174.74760300922878</c:v>
+                  <c:v>175.002299892493</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450612</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>180.16136237384671</c:v>
+                  <c:v>180.41153395278462</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>188.68371569676782</c:v>
+                  <c:v>188.90278232456677</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>190.95940724635471</c:v>
+                  <c:v>191.16956512222845</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185.23309969696294</c:v>
+                  <c:v>185.46634602343028</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>174.20928105800783</c:v>
+                  <c:v>174.49026531685445</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>192.17455752177653</c:v>
+                  <c:v>192.38319384648577</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>196.26967506453616</c:v>
+                  <c:v>196.46111326721444</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>189.90859956408633</c:v>
+                  <c:v>190.12749034095742</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>211.84233112064453</c:v>
+                  <c:v>211.96333309587243</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>226.88932825031873</c:v>
+                  <c:v>226.93762737926539</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>245.74861461104024</c:v>
+                  <c:v>245.67590166364272</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>241.66560072275183</c:v>
+                  <c:v>241.67041324654264</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,11 +2300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477095040"/>
-        <c:axId val="477096960"/>
+        <c:axId val="483508224"/>
+        <c:axId val="483510144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477095040"/>
+        <c:axId val="483508224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,14 +2347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477096960"/>
+        <c:crossAx val="483510144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477096960"/>
+        <c:axId val="483510144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477095040"/>
+        <c:crossAx val="483508224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,7 +2616,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2803,6 +2817,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,7 +2829,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2844,175 +2861,178 @@
                   <c:v>185.03707217220185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>209.14866921123638</c:v>
+                  <c:v>209.19113363809359</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>209.22253831117848</c:v>
+                  <c:v>209.26500273803569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>220.2192914171483</c:v>
+                  <c:v>220.26175584400551</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>228.92924822760713</c:v>
+                  <c:v>228.97171265446434</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>231.54125890759914</c:v>
+                  <c:v>231.58372333445635</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>234.48667653762507</c:v>
+                  <c:v>234.52914096448228</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>234.52221079453955</c:v>
+                  <c:v>234.56467522139675</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234.52221079453955</c:v>
+                  <c:v>234.56467522139675</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>258.65405290100887</c:v>
+                  <c:v>258.510591972295</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>267.61133928691748</c:v>
+                  <c:v>267.32609642104512</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>311.10731294066159</c:v>
+                  <c:v>310.83507438003988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>517.61497925690787</c:v>
+                  <c:v>517.18453863087416</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>628.13163606858564</c:v>
+                  <c:v>627.54367730117099</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>666.5000436490476</c:v>
+                  <c:v>665.65594637804895</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>684.47587167623954</c:v>
+                  <c:v>683.42686226068815</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>714.17304275173694</c:v>
+                  <c:v>712.97388590161097</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>783.02887270848282</c:v>
+                  <c:v>781.66787723058087</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>793.37919744907413</c:v>
+                  <c:v>791.96993467838092</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>795.66633228391186</c:v>
+                  <c:v>794.21786136695403</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,7 +3075,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3256,6 +3276,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,7 +3288,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3297,175 +3320,178 @@
                   <c:v>171.9813844465306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197.13303073129683</c:v>
+                  <c:v>196.91525748289962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248.95751656724673</c:v>
+                  <c:v>249.05707537096129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>274.38269269244358</c:v>
+                  <c:v>274.48364641468703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265.58456781765511</c:v>
+                  <c:v>265.70210089456555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.58947795469115</c:v>
+                  <c:v>254.74613552258083</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>259.95239430549697</c:v>
+                  <c:v>260.08400534442558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>260.99530380742254</c:v>
+                  <c:v>261.12110816488894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>267.28517398517306</c:v>
+                  <c:v>267.36856417233184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.62326650780085</c:v>
+                  <c:v>273.65872081695909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>275.77655232235537</c:v>
+                  <c:v>275.79407041892637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>276.42499673857697</c:v>
+                  <c:v>276.43745264844472</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>283.78575995833921</c:v>
+                  <c:v>283.73492233354239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>292.11173157417034</c:v>
+                  <c:v>291.99306209889534</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>294.17731393907212</c:v>
+                  <c:v>294.03190620509787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>294.25119804139393</c:v>
+                  <c:v>294.10579030741968</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>305.24245947398606</c:v>
+                  <c:v>305.09705174001181</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>312.42542349205377</c:v>
+                  <c:v>312.28001575807951</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>313.69907954345859</c:v>
+                  <c:v>313.55367180948434</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>314.83349500880718</c:v>
+                  <c:v>314.68808727483292</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>314.39624236642305</c:v>
+                  <c:v>314.2508346324488</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>315.61043479806125</c:v>
+                  <c:v>315.465027064087</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>318.09067799408388</c:v>
+                  <c:v>317.94527026010962</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>320.96365573289745</c:v>
+                  <c:v>320.8182479989232</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>321.50587447367957</c:v>
+                  <c:v>321.36046673970532</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>321.80638751270993</c:v>
+                  <c:v>321.66097977873568</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>343.98629931715521</c:v>
+                  <c:v>343.65496622760992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>354.38794492595275</c:v>
+                  <c:v>353.90796541112189</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>393.37270917334888</c:v>
+                  <c:v>392.93621163834564</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>581.69029424457608</c:v>
+                  <c:v>581.15541980601915</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>717.08355487892106</c:v>
+                  <c:v>716.35616321097018</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>793.75688203213667</c:v>
+                  <c:v>792.71927160514224</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>822.58961131345916</c:v>
+                  <c:v>821.3272754244133</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>824.08131654938677</c:v>
+                  <c:v>822.72968318312189</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>839.45929196710279</c:v>
+                  <c:v>838.07005806377356</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>918.7065132587428</c:v>
+                  <c:v>917.10871130036696</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>936.49842022788368</c:v>
+                  <c:v>934.82472464972864</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>916.97898329904501</c:v>
+                  <c:v>915.30849147938511</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>996.67820228590813</c:v>
+                  <c:v>994.80913936743536</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1051.9175519619439</c:v>
+                  <c:v>1049.9051071093913</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1128.8889399828101</c:v>
+                  <c:v>1126.6633509874846</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1094.4167426984752</c:v>
+                  <c:v>1092.3065196049665</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1125.1977572215014</c:v>
+                  <c:v>1122.9726095522383</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1133.1773505742453</c:v>
+                  <c:v>1130.9168804745734</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1114.2339655262315</c:v>
+                  <c:v>1112.0739379693</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1112.5773962371325</c:v>
+                  <c:v>1110.4268980540689</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1106.8298621760446</c:v>
+                  <c:v>1104.7144248968345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1100.1291702505141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,7 +3534,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3709,6 +3735,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,7 +3747,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3750,175 +3779,178 @@
                   <c:v>-13.055687725671248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.007082975381564</c:v>
+                  <c:v>-12.26732065063598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.817402860568336</c:v>
+                  <c:v>39.874497237425686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.242578985765192</c:v>
+                  <c:v>65.30106828115143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.444454110976721</c:v>
+                  <c:v>56.519522761029947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.449364248012756</c:v>
+                  <c:v>45.563557389045229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.812280598818575</c:v>
+                  <c:v>50.901427210889977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.855190100744153</c:v>
+                  <c:v>51.938530031353338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.145060278494668</c:v>
+                  <c:v>58.185986038796244</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64.483152801122458</c:v>
+                  <c:v>64.47614268342349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.63643861567698</c:v>
+                  <c:v>66.611492285390767</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.284883031898573</c:v>
+                  <c:v>67.254874514909119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.645646251660821</c:v>
+                  <c:v>74.552344200006786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82.971617867491943</c:v>
+                  <c:v>82.810483965359737</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85.028659730215452</c:v>
+                  <c:v>84.840787569383991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85.023168056837761</c:v>
+                  <c:v>84.835295896006301</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.242232275518688</c:v>
+                  <c:v>85.054360114687228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86.515888326923516</c:v>
+                  <c:v>86.328016166092056</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87.650303792272098</c:v>
+                  <c:v>87.462431631440637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>87.213051149887974</c:v>
+                  <c:v>87.025178989056514</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.681186570454116</c:v>
+                  <c:v>86.493314409622656</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.549419086484733</c:v>
+                  <c:v>86.361546925653272</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>86.476979195272378</c:v>
+                  <c:v>86.289107034440917</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>86.983663679140022</c:v>
+                  <c:v>86.795791518308562</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87.284176718170386</c:v>
+                  <c:v>87.096304557338925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>85.332246416146347</c:v>
+                  <c:v>85.144374255314915</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>86.776605639035267</c:v>
+                  <c:v>86.581868990076771</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>82.265396232687294</c:v>
+                  <c:v>82.101137258305755</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>64.075314987668207</c:v>
+                  <c:v>63.970881175144996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>88.951918810335428</c:v>
+                  <c:v>88.812485909799193</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>127.25683838308908</c:v>
+                  <c:v>127.06332522709329</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>138.11373963721962</c:v>
+                  <c:v>137.90041316372515</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109.90827379764983</c:v>
+                  <c:v>109.75579728151092</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.430419258619963</c:v>
+                  <c:v>56.402180833192688</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>125.32731580966868</c:v>
+                  <c:v>125.13877662198604</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>140.83208794397183</c:v>
+                  <c:v>140.60686328277461</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116.87088791771112</c:v>
+                  <c:v>116.70363936922752</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>196.57010690457423</c:v>
+                  <c:v>196.20428725727777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>251.80945658061</c:v>
+                  <c:v>251.30025499923374</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>328.78084460147625</c:v>
+                  <c:v>328.058498877327</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>294.30864731714132</c:v>
+                  <c:v>293.70166749480893</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>325.08966184016754</c:v>
+                  <c:v>324.36775744208069</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>333.06925519291144</c:v>
+                  <c:v>332.31202836441582</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>314.12587014489759</c:v>
+                  <c:v>313.46908585914241</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>312.46930085579856</c:v>
+                  <c:v>311.82204594391135</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>306.72176679471067</c:v>
+                  <c:v>306.10957278667695</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>301.52431814035651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,11 +3972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482572544"/>
-        <c:axId val="517656960"/>
+        <c:axId val="485436800"/>
+        <c:axId val="485459072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482572544"/>
+        <c:axId val="485436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,14 +4019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517656960"/>
+        <c:crossAx val="485459072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517656960"/>
+        <c:axId val="485459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482572544"/>
+        <c:crossAx val="485436800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4256,7 +4288,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4457,6 +4489,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4466,7 +4501,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4498,175 +4533,178 @@
                   <c:v>25.663806972387135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.669501419201968</c:v>
+                  <c:v>28.677447953948622</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.670011370101271</c:v>
+                  <c:v>28.677957904847926</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.596267004476857</c:v>
+                  <c:v>29.604213539223512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.121650997800039</c:v>
+                  <c:v>30.129597532546693</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.228876125822254</c:v>
+                  <c:v>30.236822660568908</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.357273006783753</c:v>
+                  <c:v>30.365219541530408</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30.357443146227229</c:v>
+                  <c:v>30.365389680973884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.357443146227229</c:v>
+                  <c:v>30.365389680973884</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.368506293619845</c:v>
+                  <c:v>33.341721541936707</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.049430605681692</c:v>
+                  <c:v>34.006542809939198</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.335742144558075</c:v>
+                  <c:v>41.296122254786006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>116.71266763039853</c:v>
+                  <c:v>116.58644683103796</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146.2231126755604</c:v>
+                  <c:v>146.03382300690384</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>152.25974622751653</c:v>
+                  <c:v>152.01010882894948</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>154.19557752842726</c:v>
+                  <c:v>153.91293391210289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>158.30619223914755</c:v>
+                  <c:v>157.99241346206267</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>172.81879229900457</c:v>
+                  <c:v>172.45387801215671</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>173.66458730175353</c:v>
+                  <c:v>173.29376354764605</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>173.75244337810571</c:v>
+                  <c:v>173.37937017080512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,7 +4747,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4910,6 +4948,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4960,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4951,175 +4992,178 @@
                   <c:v>24.232998752585281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.386426518384923</c:v>
+                  <c:v>27.357704321337661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.58606966258175</c:v>
+                  <c:v>34.601837938980289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.162079489278284</c:v>
+                  <c:v>38.178709265279807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.926711743404724</c:v>
+                  <c:v>36.94667629580718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.35127372036677</c:v>
+                  <c:v>35.378368760151886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.132891533045736</c:v>
+                  <c:v>36.155902092843739</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.288698573886833</c:v>
+                  <c:v>36.310782512884686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.253475091367719</c:v>
+                  <c:v>37.268966545298241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.256758933844644</c:v>
+                  <c:v>38.26479591588182</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.609173101553345</c:v>
+                  <c:v>38.614453698874527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.720176521530576</c:v>
+                  <c:v>38.724714594989976</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.052650673906498</c:v>
+                  <c:v>40.047918583279149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.675453476851665</c:v>
+                  <c:v>41.66246591697179</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.027519287815309</c:v>
+                  <c:v>42.015753590947895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.028029273961202</c:v>
+                  <c:v>42.016263577093788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.954249596891891</c:v>
+                  <c:v>42.942483900024477</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.439363663050706</c:v>
+                  <c:v>43.427597966183292</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.5378608270927</c:v>
+                  <c:v>43.526095130225286</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.626411610413939</c:v>
+                  <c:v>43.614645913546525</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43.591390241815077</c:v>
+                  <c:v>43.579624544947663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.604017099891436</c:v>
+                  <c:v>43.592251403024022</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.700937483289422</c:v>
+                  <c:v>43.689171786422008</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.824182934376665</c:v>
+                  <c:v>43.812417237509251</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.857904626765503</c:v>
+                  <c:v>43.846138929898089</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.877765592769855</c:v>
+                  <c:v>43.865999895902441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.757231213994338</c:v>
+                  <c:v>46.710734230697135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.586635453642039</c:v>
+                  <c:v>47.522753124027133</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.431047376239619</c:v>
+                  <c:v>54.375180495166894</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>127.40431668673457</c:v>
+                  <c:v>127.2709126299242</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>164.52343925219552</c:v>
+                  <c:v>164.31603540024796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>181.87707840212593</c:v>
+                  <c:v>181.59114734694097</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>186.9028505543275</c:v>
+                  <c:v>186.57782483832852</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>183.15927273195547</c:v>
+                  <c:v>182.82017818011477</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>183.20860498880955</c:v>
+                  <c:v>182.8520889446236</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>202.15815463475377</c:v>
+                  <c:v>201.75129868373025</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>206.27280346284675</c:v>
+                  <c:v>205.85371862411347</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>200.30674170877987</c:v>
+                  <c:v>199.89872415090301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>220.82303168082353</c:v>
+                  <c:v>220.36342079233245</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>235.19915748494455</c:v>
+                  <c:v>234.70275549347008</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>255.6827037041661</c:v>
+                  <c:v>255.13160996817459</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>246.69628114626209</c:v>
+                  <c:v>246.17478973640564</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>254.93539772849959</c:v>
+                  <c:v>254.3844172346171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>257.11280601379377</c:v>
+                  <c:v>256.55276195703544</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>251.77521983437924</c:v>
+                  <c:v>251.24094884280933</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>251.28851308538498</c:v>
+                  <c:v>250.75668728454005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>249.53754910060766</c:v>
+                  <c:v>249.01471975620359</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>247.5896506719719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,7 +5206,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5363,6 +5407,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,7 +5419,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5404,175 +5451,178 @@
                   <c:v>-1.4308082198018539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2830548005146376</c:v>
+                  <c:v>-1.3197235323085543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9165883436821893</c:v>
+                  <c:v>5.924410085334074</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4925981703787237</c:v>
+                  <c:v>9.5012814116335917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2572304245051633</c:v>
+                  <c:v>8.2692484421609649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6817924014672094</c:v>
+                  <c:v>6.7009409065056715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.463410214146176</c:v>
+                  <c:v>7.4784742391975243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.619217254987273</c:v>
+                  <c:v>7.6333546592384707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5839937724681583</c:v>
+                  <c:v>8.5915386916520262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5872776149450836</c:v>
+                  <c:v>9.5873680622356048</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9396917826537852</c:v>
+                  <c:v>9.9370258452283124</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.050695202631015</c:v>
+                  <c:v>10.047286741343761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.383169355006938</c:v>
+                  <c:v>11.370490729632934</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.005972157952105</c:v>
+                  <c:v>12.985038063325575</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.358017903859931</c:v>
+                  <c:v>13.338305672245863</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.357982592415034</c:v>
+                  <c:v>13.338270360800966</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.376315925924683</c:v>
+                  <c:v>13.356603694310614</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.474813089966677</c:v>
+                  <c:v>13.455100858352608</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.563363873287916</c:v>
+                  <c:v>13.543651641673847</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.528342504689054</c:v>
+                  <c:v>13.508630273074985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.482366102091397</c:v>
+                  <c:v>13.462653870477329</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.472061357467169</c:v>
+                  <c:v>13.4523491258531</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.466909927592912</c:v>
+                  <c:v>13.447197695978844</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.500461480538274</c:v>
+                  <c:v>13.480749248924205</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.520322446542625</c:v>
+                  <c:v>13.500610214928557</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.388724920374493</c:v>
+                  <c:v>13.369012688760428</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.537204847960346</c:v>
+                  <c:v>13.516210314087935</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.095305231681543</c:v>
+                  <c:v>13.079058240380888</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.691649056336047</c:v>
+                  <c:v>10.684465798886237</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.300326576635115</c:v>
+                  <c:v>18.282212393344111</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>29.617332174609402</c:v>
+                  <c:v>29.581038517991487</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.707273025900236</c:v>
+                  <c:v>32.664890926225638</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>24.853080492807919</c:v>
+                  <c:v>24.827764718052094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.389812689804984</c:v>
+                  <c:v>10.398210932466895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>28.493567333000243</c:v>
+                  <c:v>28.457535136084203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.520360084741043</c:v>
+                  <c:v>32.474348453308352</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.31652275689558</c:v>
+                  <c:v>26.285962913926141</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.832812728939246</c:v>
+                  <c:v>46.750659555355583</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61.208938533060262</c:v>
+                  <c:v>61.089994256493213</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.692484752281814</c:v>
+                  <c:v>81.518848731197721</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.706062194377807</c:v>
+                  <c:v>72.562028499428777</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>80.945178776615307</c:v>
+                  <c:v>80.771655997640238</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>83.122587061909485</c:v>
+                  <c:v>82.940000720058578</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77.785000882494955</c:v>
+                  <c:v>77.628187605832466</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.29829413350069</c:v>
+                  <c:v>77.143926047563184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>75.547330148723375</c:v>
+                  <c:v>75.401958519226724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.97688943499503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5594,11 +5644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90674688"/>
-        <c:axId val="90676224"/>
+        <c:axId val="505695616"/>
+        <c:axId val="511206528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90674688"/>
+        <c:axId val="505695616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5641,14 +5691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90676224"/>
+        <c:crossAx val="511206528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90676224"/>
+        <c:axId val="511206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5697,7 +5747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90674688"/>
+        <c:crossAx val="505695616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5805,7 +5855,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5848,7 +5898,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5891,7 +5941,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6254,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6574,22 +6624,22 @@
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(AA6,O:P,2,)</f>
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="3"/>
-        <v>-51.512876965237467</v>
+        <v>-51.863107777656694</v>
       </c>
       <c r="AD6" s="6">
         <v>43830</v>
       </c>
       <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>-51.512876965237467</v>
+        <v>-51.863107777656694</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
@@ -6631,25 +6681,25 @@
         <v>43830</v>
       </c>
       <c r="P7" s="10">
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="Q7" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R7" s="5">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="S7" s="5">
-        <v>136.85106866499632</v>
+        <v>137.10583728213044</v>
       </c>
       <c r="T7" s="5">
-        <v>116.59050896649936</v>
+        <v>117.2927175491765</v>
       </c>
       <c r="U7" s="9">
-        <v>0.421024662346902</v>
+        <v>0.42135445669144067</v>
       </c>
       <c r="V7" s="9">
-        <v>0.20122403369315078</v>
+        <v>0.20147159559258454</v>
       </c>
       <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
@@ -6659,7 +6709,7 @@
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="AD7" s="6">
         <v>44196</v>
@@ -6715,32 +6765,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R8" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="S8" s="5">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="T8" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U8" s="9">
-        <v>0.53701034778522638</v>
+        <v>0.5372560236774544</v>
       </c>
       <c r="V8" s="9">
-        <v>0.1590053261392681</v>
+        <v>0.15912234163115446</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.20122403369315078</v>
+        <v>0.20147159559258454</v>
       </c>
       <c r="AD8" s="6">
         <v>44196</v>
       </c>
       <c r="AF8" s="7">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -6785,26 +6835,26 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R9" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="S9" s="5">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="T9" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U9" s="9">
-        <v>0.53701034778522638</v>
+        <v>0.5372560236774544</v>
       </c>
       <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.1590053261392681</v>
+        <v>0.15912234163115446</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -6846,22 +6896,22 @@
         <v>44925</v>
       </c>
       <c r="P10" s="10">
-        <v>153.10026037530758</v>
+        <v>152.39757379984275</v>
       </c>
       <c r="Q10" s="5">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="R10" s="5">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
       <c r="S10" s="5">
-        <v>189.90859956408633</v>
+        <v>190.12749034095742</v>
       </c>
       <c r="T10" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U10" s="9">
-        <v>0.39717938762569943</v>
+        <v>0.39793050930471513</v>
       </c>
       <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
@@ -7543,31 +7593,31 @@
         <v>43496</v>
       </c>
       <c r="B26" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C26" s="20">
-        <v>0.86047514038876904</v>
+        <v>0.86008008620689669</v>
       </c>
       <c r="D26" s="21">
-        <v>51.503202230157484</v>
+        <v>51.856954436132327</v>
       </c>
       <c r="E26" s="22">
-        <v>75.942143396625539</v>
+        <v>76.578930602555246</v>
       </c>
       <c r="F26" s="22">
-        <v>434.71428728182707</v>
+        <v>435.35107448775682</v>
       </c>
       <c r="G26" s="22">
-        <v>294.81888249166235</v>
+        <v>294.80668711087424</v>
       </c>
       <c r="H26" s="22">
-        <v>325.03320494363652</v>
+        <v>325.38695714961136</v>
       </c>
       <c r="I26" s="22">
-        <v>309.79590940520603</v>
+        <v>309.78371402441792</v>
       </c>
       <c r="J26" s="22">
-        <v>-15.237295538430487</v>
+        <v>-15.603243125193444</v>
       </c>
       <c r="K26" s="21">
         <v>14.977026913543675</v>
@@ -7582,28 +7632,28 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C27" s="20">
-        <v>0.8580328242677826</v>
+        <v>0.85765524008350746</v>
       </c>
       <c r="D27" s="21">
-        <v>3.7374579702524938E-3</v>
+        <v>2.1408433435180091E-3</v>
       </c>
       <c r="E27" s="22">
-        <v>4.3637422593084414E-3</v>
+        <v>2.4995835787385685E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>434.7186510240864</v>
+        <v>435.35357407133557</v>
       </c>
       <c r="G27" s="22">
-        <v>372.32783022910951</v>
+        <v>372.87162912061751</v>
       </c>
       <c r="H27" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I27" s="22">
-        <v>387.30485714265319</v>
+        <v>387.84865603416119</v>
       </c>
       <c r="J27" s="22">
-        <v>62.267914741046411</v>
+        <v>62.459558041206321</v>
       </c>
       <c r="K27" s="21">
         <v>14.977026913543675</v>
@@ -7618,31 +7668,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C28" s="20">
-        <v>0.86124096192384803</v>
+        <v>0.86087282000000032</v>
       </c>
       <c r="D28" s="21">
-        <v>-11.085479411744728</v>
+        <v>-11.182203046846118</v>
       </c>
       <c r="E28" s="22">
-        <v>-11.720619798632631</v>
+        <v>-11.822885195595434</v>
       </c>
       <c r="F28" s="22">
-        <v>422.99803122545376</v>
+        <v>423.53068887574011</v>
       </c>
       <c r="G28" s="22">
-        <v>400.0757679133464</v>
+        <v>400.57956084556372</v>
       </c>
       <c r="H28" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I28" s="22">
-        <v>426.13827423863478</v>
+        <v>426.7387908059535</v>
       </c>
       <c r="J28" s="22">
-        <v>101.101331837028</v>
+        <v>101.34969281299863</v>
       </c>
       <c r="K28" s="21">
-        <v>26.062506325288403</v>
+        <v>26.159229960389794</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -7654,31 +7704,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C29" s="20">
-        <v>0.86549344230769254</v>
+        <v>0.86513197696737065</v>
       </c>
       <c r="D29" s="21">
-        <v>-3.1830651216743431</v>
+        <v>-3.2340467716625816</v>
       </c>
       <c r="E29" s="22">
-        <v>-3.4947630369389264</v>
+        <v>-3.5507370051520977</v>
       </c>
       <c r="F29" s="22">
-        <v>419.50326818851482</v>
+        <v>419.97995187058802</v>
       </c>
       <c r="G29" s="22">
-        <v>382.08777169878113</v>
+        <v>382.52193996325025</v>
       </c>
       <c r="H29" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I29" s="22">
-        <v>411.33334314574387</v>
+        <v>411.9152166953026</v>
       </c>
       <c r="J29" s="22">
-        <v>86.296400744137088</v>
+        <v>86.526118702347731</v>
       </c>
       <c r="K29" s="21">
-        <v>29.245571446962746</v>
+        <v>29.393276732052374</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -7690,31 +7740,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C30" s="20">
-        <v>0.86555716666666693</v>
+        <v>0.86520894639556412</v>
       </c>
       <c r="D30" s="21">
-        <v>5.937277109723629E-3</v>
+        <v>4.0124981808879077E-3</v>
       </c>
       <c r="E30" s="22">
-        <v>6.8750313915280558E-3</v>
+        <v>4.6462461566557523E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>419.51014321990635</v>
+        <v>419.98459811674468</v>
       </c>
       <c r="G30" s="22">
-        <v>362.28895968471113</v>
+        <v>362.69869893362073</v>
       </c>
       <c r="H30" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I30" s="22">
-        <v>391.53453113167387</v>
+        <v>392.09197566567309</v>
       </c>
       <c r="J30" s="22">
-        <v>66.491651452957342</v>
+        <v>66.698865174537332</v>
       </c>
       <c r="K30" s="21">
-        <v>29.245571446962746</v>
+        <v>29.393276732052374</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -7726,31 +7776,31 @@
         <v>0.88732</v>
       </c>
       <c r="C31" s="20">
-        <v>0.86554053667263009</v>
+        <v>0.86520416071428607</v>
       </c>
       <c r="D31" s="21">
-        <v>-0.73523478538378861</v>
+        <v>-0.75812103833286737</v>
       </c>
       <c r="E31" s="22">
-        <v>-0.82860161540795729</v>
+        <v>-0.85439417384130567</v>
       </c>
       <c r="F31" s="22">
-        <v>418.68154160449842</v>
+        <v>419.13020394290339</v>
       </c>
       <c r="G31" s="22">
-        <v>371.50450549650355</v>
+        <v>371.90261256261704</v>
       </c>
       <c r="H31" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I31" s="22">
-        <v>401.48531172885009</v>
+        <v>402.05401033300228</v>
       </c>
       <c r="J31" s="22">
-        <v>76.442432050133561</v>
+        <v>76.660899841866524</v>
       </c>
       <c r="K31" s="21">
-        <v>29.980806232346534</v>
+        <v>30.151397770385241</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -7762,31 +7812,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>0.86642510309278375</v>
+        <v>0.86610048027444275</v>
       </c>
       <c r="D32" s="21">
-        <v>-1.031333895003568</v>
+        <v>-1.057455431575351</v>
       </c>
       <c r="E32" s="22">
-        <v>-1.1559188260782856</v>
+        <v>-1.1851958391151858</v>
       </c>
       <c r="F32" s="22">
-        <v>417.52562277842014</v>
+        <v>417.94500810378821</v>
       </c>
       <c r="G32" s="22">
-        <v>372.52471115536201</v>
+        <v>372.89889513036195</v>
       </c>
       <c r="H32" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I32" s="22">
-        <v>403.53685128271212</v>
+        <v>404.10774833232256</v>
       </c>
       <c r="J32" s="22">
-        <v>78.49397160399559</v>
+        <v>78.7146378411868</v>
       </c>
       <c r="K32" s="21">
-        <v>31.012140127350101</v>
+        <v>31.208853201960594</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -7798,31 +7848,31 @@
         <v>0.92357</v>
       </c>
       <c r="C33" s="20">
-        <v>0.86719825870646772</v>
+        <v>0.86687626446280996</v>
       </c>
       <c r="D33" s="21">
-        <v>-4.9255484855206459</v>
+        <v>-4.9819784561993092</v>
       </c>
       <c r="E33" s="22">
-        <v>-5.3331620619126285</v>
+        <v>-5.3942618926549253</v>
       </c>
       <c r="F33" s="22">
-        <v>412.19246071650753</v>
+        <v>412.55074621113329</v>
       </c>
       <c r="G33" s="22">
-        <v>380.68859094394486</v>
+        <v>381.01949267821635</v>
       </c>
       <c r="H33" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I33" s="22">
-        <v>416.62627955681558</v>
+        <v>417.21032433637623</v>
       </c>
       <c r="J33" s="22">
-        <v>91.583399878099044</v>
+        <v>91.817213845240474</v>
       </c>
       <c r="K33" s="21">
-        <v>35.937688612870744</v>
+        <v>36.190831658159901</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -7834,31 +7884,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C34" s="20">
-        <v>0.87132205457463874</v>
+        <v>0.87099716799999982</v>
       </c>
       <c r="D34" s="21">
-        <v>-11.79621163915937</v>
+        <v>-11.884236799183387</v>
       </c>
       <c r="E34" s="22">
-        <v>-12.306179727048249</v>
+        <v>-12.398010348004703</v>
       </c>
       <c r="F34" s="22">
-        <v>399.88628098945929</v>
+        <v>400.15273586312856</v>
       </c>
       <c r="G34" s="22">
-        <v>383.3149935052561</v>
+        <v>383.57040648896049</v>
       </c>
       <c r="H34" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I34" s="22">
-        <v>431.04889375728624</v>
+        <v>431.64547494630381</v>
       </c>
       <c r="J34" s="22">
-        <v>106.00601407856971</v>
+        <v>106.25236445516805</v>
       </c>
       <c r="K34" s="21">
-        <v>47.733900252030111</v>
+        <v>48.075068457343292</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -7870,31 +7920,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C35" s="20">
-        <v>0.87426804992199714</v>
+        <v>0.87394309486780741</v>
       </c>
       <c r="D35" s="21">
-        <v>-14.923271485020626</v>
+        <v>-15.02227935166573</v>
       </c>
       <c r="E35" s="22">
-        <v>-15.347002216210189</v>
+        <v>-15.448821307979031</v>
       </c>
       <c r="F35" s="22">
-        <v>384.53927877324912</v>
+        <v>384.70391455514954</v>
       </c>
       <c r="G35" s="22">
-        <v>373.92214928631972</v>
+        <v>374.08223947428183</v>
       </c>
       <c r="H35" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I35" s="22">
-        <v>436.57932102337048</v>
+        <v>437.17958728329086</v>
       </c>
       <c r="J35" s="22">
-        <v>111.53644134465395</v>
+        <v>111.7864767921551</v>
       </c>
       <c r="K35" s="21">
-        <v>62.657171737050739</v>
+        <v>63.097347809009023</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -7906,31 +7956,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C36" s="20">
-        <v>0.87806616314199404</v>
+        <v>0.87774004518072291</v>
       </c>
       <c r="D36" s="21">
-        <v>-15.260323191277481</v>
+        <v>-15.360799932006168</v>
       </c>
       <c r="E36" s="22">
-        <v>-15.6149384433254</v>
+        <v>-15.717750035308013</v>
       </c>
       <c r="F36" s="22">
-        <v>368.92434032992372</v>
+        <v>368.98616451984151</v>
       </c>
       <c r="G36" s="22">
-        <v>360.54606856103118</v>
+        <v>360.60648872359593</v>
       </c>
       <c r="H36" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I36" s="22">
-        <v>438.46356348935939</v>
+        <v>439.06463646461111</v>
       </c>
       <c r="J36" s="22">
-        <v>113.42068381064286</v>
+        <v>113.67152597347535</v>
       </c>
       <c r="K36" s="21">
-        <v>77.917494928328225</v>
+        <v>78.458147741015196</v>
       </c>
       <c r="L36" s="7"/>
       <c r="O36" s="3"/>
@@ -7943,31 +7993,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C37" s="20">
-        <v>0.8828432602339179</v>
+        <v>0.88251367346938747</v>
       </c>
       <c r="D37" s="21">
-        <v>-38.673014038171132</v>
+        <v>-38.834569808161298</v>
       </c>
       <c r="E37" s="22">
-        <v>-37.157008107389636</v>
+        <v>-37.312230791853672</v>
       </c>
       <c r="F37" s="22">
-        <v>331.76733222253409</v>
+        <v>331.67393372798784</v>
       </c>
       <c r="G37" s="22">
-        <v>345.30343937721346</v>
+        <v>345.20623022408972</v>
       </c>
       <c r="H37" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I37" s="22">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="J37" s="22">
-        <v>136.85106866499632</v>
+        <v>137.10583728213044</v>
       </c>
       <c r="K37" s="21">
-        <v>116.59050896649936</v>
+        <v>117.2927175491765</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -7979,31 +8029,31 @@
         <v>1.13632</v>
       </c>
       <c r="C38" s="20">
-        <v>0.88820977142857116</v>
+        <v>0.88787240740740703</v>
       </c>
       <c r="D38" s="21">
-        <v>-95.415962558738329</v>
+        <v>-95.675619710835349</v>
       </c>
       <c r="E38" s="22">
-        <v>-83.969271471714237</v>
+        <v>-84.197778540231056</v>
       </c>
       <c r="F38" s="22">
-        <v>247.79806075081984</v>
+        <v>247.47615518775677</v>
       </c>
       <c r="G38" s="22">
-        <v>281.57789239237161</v>
+        <v>281.21210466295179</v>
       </c>
       <c r="H38" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I38" s="22">
-        <v>493.58436391760927</v>
+        <v>494.18044192296361</v>
       </c>
       <c r="J38" s="22">
-        <v>168.54148423889274</v>
+        <v>168.78733143182785</v>
       </c>
       <c r="K38" s="21">
-        <v>212.00647152523769</v>
+        <v>212.96833726001185</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -8015,31 +8065,31 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C39" s="20">
-        <v>0.89720491666666646</v>
+        <v>0.89685198060941806</v>
       </c>
       <c r="D39" s="21">
-        <v>-149.2579489634692</v>
+        <v>-149.59765832170376</v>
       </c>
       <c r="E39" s="22">
-        <v>-123.60702014332617</v>
+        <v>-123.88834828549736</v>
       </c>
       <c r="F39" s="22">
-        <v>124.19104060749368</v>
+        <v>123.58780690225942</v>
       </c>
       <c r="G39" s="22">
-        <v>149.96316535436077</v>
+        <v>149.23474859061628</v>
       </c>
       <c r="H39" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I39" s="22">
-        <v>511.22758584306769</v>
+        <v>511.80074417233186</v>
       </c>
       <c r="J39" s="22">
-        <v>186.18470616435116</v>
+        <v>186.4076336811961</v>
       </c>
       <c r="K39" s="21">
-        <v>361.26442048870689</v>
+        <v>362.56599558171558</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -8051,31 +8101,31 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C40" s="20">
-        <v>0.90529318059299169</v>
+        <v>0.90492893817204278</v>
       </c>
       <c r="D40" s="21">
-        <v>-43.148684776664062</v>
+        <v>-43.337285756331092</v>
       </c>
       <c r="E40" s="22">
-        <v>-40.245382857335848</v>
+        <v>-40.421293633602971</v>
       </c>
       <c r="F40" s="22">
-        <v>83.945657750157835</v>
+        <v>83.166513268656445</v>
       </c>
       <c r="G40" s="22">
-        <v>90.001497500254231</v>
+        <v>89.166145535857325</v>
       </c>
       <c r="H40" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I40" s="22">
-        <v>494.4146027656252</v>
+        <v>495.06942687390398</v>
       </c>
       <c r="J40" s="22">
-        <v>169.37172308690867</v>
+        <v>169.67631638276822</v>
       </c>
       <c r="K40" s="21">
-        <v>404.41310526537097</v>
+        <v>405.90328133804667</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -8087,31 +8137,31 @@
         <v>1.13618</v>
       </c>
       <c r="C41" s="20">
-        <v>0.91107858453473123</v>
+        <v>0.91070921568627439</v>
       </c>
       <c r="D41" s="21">
-        <v>-78.539503228924673</v>
+        <v>-78.797465597522176</v>
       </c>
       <c r="E41" s="22">
-        <v>-69.125933592322227</v>
+        <v>-69.352977166929691</v>
       </c>
       <c r="F41" s="22">
-        <v>14.819724157835608</v>
+        <v>13.813536101726754</v>
       </c>
       <c r="G41" s="22">
-        <v>16.837874193649661</v>
+        <v>15.694663448059902</v>
       </c>
       <c r="H41" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I41" s="22">
-        <v>499.79048268794531</v>
+        <v>500.39541038362876</v>
       </c>
       <c r="J41" s="22">
-        <v>174.74760300922878</v>
+        <v>175.002299892493</v>
       </c>
       <c r="K41" s="21">
-        <v>482.95260849429565</v>
+        <v>484.70074693556887</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -8123,13 +8173,13 @@
         <v>1.12294</v>
       </c>
       <c r="C42" s="20">
-        <v>0.91666642765685002</v>
+        <v>0.91629127713920799</v>
       </c>
       <c r="D42" s="21">
-        <v>-16.641661045799918</v>
+        <v>-15.511772230073042</v>
       </c>
       <c r="E42" s="22">
-        <v>-14.819724157835608</v>
+        <v>-13.813536101726754</v>
       </c>
       <c r="F42" s="22">
         <v>0</v>
@@ -8138,16 +8188,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I42" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J42" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K42" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -8159,7 +8209,7 @@
         <v>1.25214</v>
       </c>
       <c r="C43" s="20">
-        <v>0.92355369538077381</v>
+        <v>0.92317073474470712</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -8174,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I43" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J43" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K43" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -8195,7 +8245,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C44" s="20">
-        <v>0.93564675970873734</v>
+        <v>0.93524518159806236</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -8210,16 +8260,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I44" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J44" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K44" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -8231,7 +8281,7 @@
         <v>1.35833</v>
       </c>
       <c r="C45" s="20">
-        <v>0.9459795739644965</v>
+        <v>0.9455635537190078</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -8246,16 +8296,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I45" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J45" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K45" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -8267,7 +8317,7 @@
         <v>1.2336199999999999</v>
       </c>
       <c r="C46" s="20">
-        <v>0.95444417531718506</v>
+        <v>0.9540192059838889</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -8282,16 +8332,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I46" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J46" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K46" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -8303,7 +8353,7 @@
         <v>1.2367600000000001</v>
       </c>
       <c r="C47" s="20">
-        <v>0.96014630804076961</v>
+        <v>0.95971613559321989</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -8318,16 +8368,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I47" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J47" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K47" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -8339,7 +8389,7 @@
         <v>1.23942</v>
       </c>
       <c r="C48" s="20">
-        <v>0.96710720132743311</v>
+        <v>0.96667163355408336</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
@@ -8354,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I48" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J48" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K48" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -8375,7 +8425,7 @@
         <v>1.2531099999999999</v>
       </c>
       <c r="C49" s="20">
-        <v>0.97392800431499404</v>
+        <v>0.9734885360602793</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -8390,16 +8440,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I49" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J49" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K49" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -8410,7 +8460,7 @@
         <v>1.2375</v>
       </c>
       <c r="C50" s="20">
-        <v>0.98019564941921822</v>
+        <v>0.97975223393045274</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -8425,16 +8475,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I50" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J50" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K50" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -8445,7 +8495,7 @@
         <v>1.23967</v>
       </c>
       <c r="C51" s="20">
-        <v>0.984757931392931</v>
+        <v>0.98431195020746853</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -8460,16 +8510,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I51" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J51" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K51" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -8480,7 +8530,7 @@
         <v>1.15709</v>
       </c>
       <c r="C52" s="20">
-        <v>0.98919197969543116</v>
+        <v>0.98874740628166125</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -8495,16 +8545,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I52" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J52" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K52" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -8515,7 +8565,7 @@
         <v>1.17998</v>
       </c>
       <c r="C53" s="20">
-        <v>0.99311644135188804</v>
+        <v>0.99267334325396761</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -8530,16 +8580,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I53" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J53" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K53" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -8550,7 +8600,7 @@
         <v>1.2623</v>
       </c>
       <c r="C54" s="20">
-        <v>0.99678004882812443</v>
+        <v>0.99633758284600327</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -8565,16 +8615,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I54" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J54" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K54" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -8585,7 +8635,7 @@
         <v>1.33643</v>
       </c>
       <c r="C55" s="20">
-        <v>1.0025140478468895</v>
+        <v>1.0020695033428839</v>
       </c>
       <c r="D55" s="21">
         <v>0</v>
@@ -8600,16 +8650,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I55" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J55" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K55" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -8620,7 +8670,7 @@
         <v>1.28626</v>
       </c>
       <c r="C56" s="20">
-        <v>1.0086370852858479</v>
+        <v>1.0081902338634234</v>
       </c>
       <c r="D56" s="21">
         <v>0</v>
@@ -8635,16 +8685,16 @@
         <v>0</v>
       </c>
       <c r="H56" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I56" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J56" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K56" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -8655,7 +8705,7 @@
         <v>1.2177899999999999</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0138825528007342</v>
+        <v>1.0134350962419794</v>
       </c>
       <c r="D57" s="21">
         <v>0</v>
@@ -8670,16 +8720,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I57" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J57" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K57" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -8690,7 +8740,7 @@
         <v>1.20347</v>
       </c>
       <c r="C58" s="20">
-        <v>1.0177556176735794</v>
+        <v>1.0173092439243918</v>
       </c>
       <c r="D58" s="21">
         <v>0</v>
@@ -8705,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I58" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J58" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K58" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -8725,7 +8775,7 @@
         <v>1.1970999999999998</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0204018311111105</v>
+        <v>1.0199570984915698</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -8740,16 +8790,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I59" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J59" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K59" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -8760,7 +8810,7 @@
         <v>1.23373</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0245603661726232</v>
+        <v>1.0241169103568308</v>
       </c>
       <c r="D60" s="21">
         <v>0</v>
@@ -8775,16 +8825,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I60" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J60" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K60" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -8795,7 +8845,7 @@
         <v>1.2554100000000001</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0289409572649562</v>
+        <v>1.0284987286689407</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -8810,16 +8860,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I61" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J61" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K61" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -8830,7 +8880,7 @@
         <v>1.11076</v>
       </c>
       <c r="C62" s="20">
-        <v>1.0316563299663286</v>
+        <v>1.0313231318219969</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -8845,16 +8895,16 @@
         <v>0</v>
       </c>
       <c r="H62" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I62" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J62" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K62" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -8865,7 +8915,7 @@
         <v>1.15177</v>
       </c>
       <c r="C63" s="20">
-        <v>1.0331931727574739</v>
+        <v>1.0328605716652843</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
@@ -8880,16 +8930,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I63" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J63" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K63" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -8900,7 +8950,7 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C64" s="20">
-        <v>1.0340066340668286</v>
+        <v>1.0336782682926817</v>
       </c>
       <c r="D64" s="21">
         <v>0</v>
@@ -8915,16 +8965,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I64" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J64" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K64" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -8935,31 +8985,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C65" s="20">
-        <v>1.032387961476724</v>
+        <v>1.0320684787830248</v>
       </c>
       <c r="D65" s="21">
-        <v>62.427269716608713</v>
+        <v>62.228667299226338</v>
       </c>
       <c r="E65" s="22">
-        <v>75.059840948188906</v>
+        <v>74.821050017105136</v>
       </c>
       <c r="F65" s="22">
-        <v>75.059840948188906</v>
+        <v>74.821050017105136</v>
       </c>
       <c r="G65" s="22">
-        <v>62.427269716608713</v>
+        <v>62.228667299226345</v>
       </c>
       <c r="H65" s="22">
-        <v>387.47014939532522</v>
+        <v>387.6217777903621</v>
       </c>
       <c r="I65" s="22">
-        <v>562.02153925670427</v>
+        <v>562.44118646486822</v>
       </c>
       <c r="J65" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450612</v>
       </c>
       <c r="K65" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
@@ -8970,31 +9020,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C66" s="20">
-        <v>1.0300312806324092</v>
+        <v>1.0297221608832787</v>
       </c>
       <c r="D66" s="21">
-        <v>23.675947204956337</v>
+        <v>23.557661347678451</v>
       </c>
       <c r="E66" s="22">
-        <v>26.119706991037837</v>
+        <v>25.989212024710351</v>
       </c>
       <c r="F66" s="22">
-        <v>101.17954793922675</v>
+        <v>100.81026204181549</v>
       </c>
       <c r="G66" s="22">
-        <v>91.713189434032699</v>
+        <v>91.378453925183237</v>
       </c>
       <c r="H66" s="22">
-        <v>411.14609660028157</v>
+        <v>411.17943913804055</v>
       </c>
       <c r="I66" s="22">
-        <v>591.30745897412828</v>
+        <v>591.59097309082517</v>
       </c>
       <c r="J66" s="22">
-        <v>180.16136237384671</v>
+        <v>180.41153395278462</v>
       </c>
       <c r="K66" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
@@ -9005,31 +9055,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C67" s="20">
-        <v>1.0286842768273694</v>
+        <v>1.0283833281613628</v>
       </c>
       <c r="D67" s="21">
-        <v>2.2398821261972124</v>
+        <v>2.2045574375602994</v>
       </c>
       <c r="E67" s="22">
-        <v>2.2609770419990638</v>
+        <v>2.225319670082166</v>
       </c>
       <c r="F67" s="22">
-        <v>103.44052498122582</v>
+        <v>103.03558171189766</v>
       </c>
       <c r="G67" s="22">
-        <v>102.47542488315098</v>
+        <v>102.07425973452565</v>
       </c>
       <c r="H67" s="22">
-        <v>413.38597872647875</v>
+        <v>413.38399657560086</v>
       </c>
       <c r="I67" s="22">
-        <v>602.06969442324657</v>
+        <v>602.28677890016763</v>
       </c>
       <c r="J67" s="22">
-        <v>188.68371569676782</v>
+        <v>188.90278232456677</v>
       </c>
       <c r="K67" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
@@ -9040,31 +9090,31 @@
         <v>1.01267</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0278637413924998</v>
+        <v>1.027569496183204</v>
       </c>
       <c r="D68" s="21">
-        <v>0.35781715512835305</v>
+        <v>0.34409222909563486</v>
       </c>
       <c r="E68" s="22">
-        <v>0.35334033310787627</v>
+        <v>0.33978712620659729</v>
       </c>
       <c r="F68" s="22">
-        <v>103.7938653143337</v>
+        <v>103.37536883810427</v>
       </c>
       <c r="G68" s="22">
-        <v>105.1089335878663</v>
+        <v>104.68513476128304</v>
       </c>
       <c r="H68" s="22">
-        <v>413.74379588160713</v>
+        <v>413.72808880469648</v>
       </c>
       <c r="I68" s="22">
-        <v>604.70320312796184</v>
+        <v>604.89765392692493</v>
       </c>
       <c r="J68" s="22">
-        <v>190.95940724635471</v>
+        <v>191.16956512222845</v>
       </c>
       <c r="K68" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
@@ -9075,31 +9125,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C69" s="20">
-        <v>1.0277413007518783</v>
+        <v>1.027452408102024</v>
       </c>
       <c r="D69" s="21">
-        <v>7.6474525135395179</v>
+        <v>7.5846760688717678</v>
       </c>
       <c r="E69" s="22">
-        <v>7.986895575498191</v>
+        <v>7.9213327090044574</v>
       </c>
       <c r="F69" s="22">
-        <v>111.7807608898319</v>
+        <v>111.29670154710873</v>
       </c>
       <c r="G69" s="22">
-        <v>107.03007855201405</v>
+        <v>106.56659173135661</v>
       </c>
       <c r="H69" s="22">
-        <v>421.39124839514665</v>
+        <v>421.31276487356826</v>
       </c>
       <c r="I69" s="22">
-        <v>606.62434809210959</v>
+        <v>606.77911089699853</v>
       </c>
       <c r="J69" s="22">
-        <v>185.23309969696294</v>
+        <v>185.46634602343028</v>
       </c>
       <c r="K69" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
@@ -9110,31 +9160,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C70" s="20">
-        <v>1.0261969874167267</v>
+        <v>1.0259159970457883</v>
       </c>
       <c r="D70" s="21">
-        <v>43.392210131224097</v>
+        <v>43.246587679074935</v>
       </c>
       <c r="E70" s="22">
-        <v>50.521854195259053</v>
+        <v>50.352304954213551</v>
       </c>
       <c r="F70" s="22">
-        <v>162.30261508509096</v>
+        <v>161.64900650132228</v>
       </c>
       <c r="G70" s="22">
-        <v>139.39847004428293</v>
+        <v>138.83709870385567</v>
       </c>
       <c r="H70" s="22">
-        <v>464.78345852637074</v>
+        <v>464.55935255264319</v>
       </c>
       <c r="I70" s="22">
-        <v>638.99273958437857</v>
+        <v>639.04961786949764</v>
       </c>
       <c r="J70" s="22">
-        <v>174.20928105800783</v>
+        <v>174.49026531685445</v>
       </c>
       <c r="K70" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
@@ -9145,31 +9195,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C71" s="20">
-        <v>1.0250083101682501</v>
+        <v>1.0247332043795603</v>
       </c>
       <c r="D71" s="21">
-        <v>4.7637796631822038</v>
+        <v>4.716617632002758</v>
       </c>
       <c r="E71" s="22">
-        <v>4.9132911117115876</v>
+        <v>4.8646488979679212</v>
       </c>
       <c r="F71" s="22">
-        <v>167.21590619680256</v>
+        <v>166.5136553992902</v>
       </c>
       <c r="G71" s="22">
-        <v>162.12752617123388</v>
+        <v>161.44664486548982</v>
       </c>
       <c r="H71" s="22">
-        <v>469.54723818955296</v>
+        <v>469.27597018464593</v>
       </c>
       <c r="I71" s="22">
-        <v>661.72179571132949</v>
+        <v>661.6591640311317</v>
       </c>
       <c r="J71" s="22">
-        <v>192.17455752177653</v>
+        <v>192.38319384648577</v>
       </c>
       <c r="K71" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
@@ -9180,31 +9230,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C72" s="20">
-        <v>1.0247448956083498</v>
+        <v>1.0244747054597683</v>
       </c>
       <c r="D72" s="21">
-        <v>1.4594223686677592</v>
+        <v>1.4338341777169143</v>
       </c>
       <c r="E72" s="22">
-        <v>1.4681431389129018</v>
+        <v>1.4424020458693785</v>
       </c>
       <c r="F72" s="22">
-        <v>168.68404933571546</v>
+        <v>167.95605744515959</v>
       </c>
       <c r="G72" s="22">
-        <v>167.68206608266129</v>
+        <v>166.95839846393534</v>
       </c>
       <c r="H72" s="22">
-        <v>471.00666055822069</v>
+        <v>470.70980436236283</v>
       </c>
       <c r="I72" s="22">
-        <v>667.27633562275685</v>
+        <v>667.17091762957727</v>
       </c>
       <c r="J72" s="22">
-        <v>196.26967506453616</v>
+        <v>196.46111326721444</v>
       </c>
       <c r="K72" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
@@ -9215,31 +9265,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C73" s="20">
-        <v>1.0242041105598856</v>
+        <v>1.0239392715700129</v>
       </c>
       <c r="D73" s="21">
-        <v>7.1364794958034157</v>
+        <v>7.0808799286156621</v>
       </c>
       <c r="E73" s="22">
-        <v>7.4622047323714282</v>
+        <v>7.4040674738491781</v>
       </c>
       <c r="F73" s="22">
-        <v>176.14625406808688</v>
+        <v>175.36012491900877</v>
       </c>
       <c r="G73" s="22">
-        <v>168.45747007801489</v>
+        <v>167.70565546629405</v>
       </c>
       <c r="H73" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I73" s="22">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
       <c r="J73" s="22">
-        <v>189.90859956408633</v>
+        <v>190.12749034095742</v>
       </c>
       <c r="K73" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
@@ -9250,31 +9300,31 @@
         <v>1.08087</v>
       </c>
       <c r="C74" s="20">
-        <v>1.0241600981079177</v>
+        <v>1.0238983146853136</v>
       </c>
       <c r="D74" s="21">
-        <v>-4.9848201075448708</v>
+        <v>-5.0309480377732703</v>
       </c>
       <c r="E74" s="22">
-        <v>-4.6118590649614388</v>
+        <v>-4.6545357330421515</v>
       </c>
       <c r="F74" s="22">
-        <v>171.53439500312544</v>
+        <v>170.70558918596663</v>
       </c>
       <c r="G74" s="22">
-        <v>185.4063815270282</v>
+        <v>184.51055018343575</v>
       </c>
       <c r="H74" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I74" s="22">
-        <v>689.98547117466865</v>
+        <v>689.75401738685093</v>
       </c>
       <c r="J74" s="22">
-        <v>211.84233112064453</v>
+        <v>211.96333309587243</v>
       </c>
       <c r="K74" s="21">
-        <v>504.57908964764044</v>
+        <v>505.24346720341521</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
@@ -9285,31 +9335,31 @@
         <v>1.16859</v>
       </c>
       <c r="C75" s="20">
-        <v>1.0261586247408419</v>
+        <v>1.0258963172413778</v>
       </c>
       <c r="D75" s="21">
-        <v>-31.444379820233454</v>
+        <v>-31.560305003788415</v>
       </c>
       <c r="E75" s="22">
-        <v>-26.907965856488122</v>
+        <v>-27.007166759760405</v>
       </c>
       <c r="F75" s="22">
-        <v>144.62642914663732</v>
+        <v>143.69842242620624</v>
       </c>
       <c r="G75" s="22">
-        <v>169.00899883646892</v>
+        <v>167.92453946304036</v>
       </c>
       <c r="H75" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I75" s="22">
-        <v>705.03246830434284</v>
+        <v>704.7283116702439</v>
       </c>
       <c r="J75" s="22">
-        <v>226.88932825031873</v>
+        <v>226.93762737926539</v>
       </c>
       <c r="K75" s="21">
-        <v>536.02346946787395</v>
+        <v>536.80377220720356</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
@@ -9320,31 +9370,31 @@
         <v>1.2989900000000001</v>
       </c>
       <c r="C76" s="20">
-        <v>1.0293158435374137</v>
+        <v>1.0290512016293265</v>
       </c>
       <c r="D76" s="21">
-        <v>-112.72243352890169</v>
+        <v>-112.9437800419949</v>
       </c>
       <c r="E76" s="22">
-        <v>-86.776983293868071</v>
+        <v>-86.947382229266495</v>
       </c>
       <c r="F76" s="22">
-        <v>57.84944585276925</v>
+        <v>56.751040196939741</v>
       </c>
       <c r="G76" s="22">
-        <v>75.145851668288728</v>
+        <v>73.71903370542276</v>
       </c>
       <c r="H76" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I76" s="22">
-        <v>723.89175466506435</v>
+        <v>723.46658595462122</v>
       </c>
       <c r="J76" s="22">
-        <v>245.74861461104024</v>
+        <v>245.67590166364272</v>
       </c>
       <c r="K76" s="21">
-        <v>648.74590299677561</v>
+        <v>649.74755224919841</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
@@ -9355,31 +9405,31 @@
         <v>1.22841</v>
       </c>
       <c r="C77" s="20">
-        <v>1.0326041370047001</v>
+        <v>1.0323362533512053</v>
       </c>
       <c r="D77" s="21">
-        <v>-59.42690077416794</v>
+        <v>-59.589616893588399</v>
       </c>
       <c r="E77" s="22">
-        <v>-48.377089712854783</v>
+        <v>-48.509550470598903</v>
       </c>
       <c r="F77" s="22">
-        <v>9.4723561399144671</v>
+        <v>8.2414897263408378</v>
       </c>
       <c r="G77" s="22">
-        <v>11.63593700583233</v>
+        <v>10.123928394734348</v>
       </c>
       <c r="H77" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I77" s="22">
-        <v>719.80874077677595</v>
+        <v>719.46109753752114</v>
       </c>
       <c r="J77" s="22">
-        <v>241.66560072275183</v>
+        <v>241.67041324654264</v>
       </c>
       <c r="K77" s="21">
-        <v>708.17280377094357</v>
+        <v>709.33716914278682</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75">
@@ -9390,13 +9440,13 @@
         <v>1.2987200000000001</v>
       </c>
       <c r="C78" s="20">
-        <v>1.0354160636182892</v>
+        <v>1.035146144179893</v>
       </c>
       <c r="D78" s="21">
-        <v>-12.301938366029718</v>
+        <v>-10.703387537393374</v>
       </c>
       <c r="E78" s="22">
-        <v>-9.4723561399144671</v>
+        <v>-8.2414897263408378</v>
       </c>
       <c r="F78" s="22">
         <v>0</v>
@@ -9405,16 +9455,16 @@
         <v>0</v>
       </c>
       <c r="H78" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I78" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J78" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K78" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75">
@@ -9425,7 +9475,7 @@
         <v>1.32033</v>
       </c>
       <c r="C79" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0390798825065262</v>
       </c>
       <c r="D79" s="21">
         <v>0</v>
@@ -9440,16 +9490,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I79" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J79" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K79" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75">
@@ -9460,7 +9510,7 @@
         <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0426825419354826</v>
+        <v>1.0424057115260772</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -9475,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I80" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J80" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K80" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75">
@@ -9495,7 +9545,7 @@
         <v>1.25305</v>
       </c>
       <c r="C81" s="20">
-        <v>1.0455482644628087</v>
+        <v>1.0452700190355317</v>
       </c>
       <c r="D81" s="21">
         <v>0</v>
@@ -9510,16 +9560,16 @@
         <v>0</v>
       </c>
       <c r="H81" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I81" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J81" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K81" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75">
@@ -9545,16 +9595,51 @@
         <v>0</v>
       </c>
       <c r="H82" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I82" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J82" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K82" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I83" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J83" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K83" s="21">
+        <v>720.0405566801802</v>
       </c>
     </row>
   </sheetData>
@@ -9573,7 +9658,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9615,13 +9700,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9840,22 +9925,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ref="Z5" si="2">0-Y5</f>
-        <v>-24.103041534476546</v>
+        <v>-24.145505961333754</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-24.103041534476546</v>
+        <v>-24.145505961333754</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -9907,31 +9992,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="Q6" s="5">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="R6" s="5">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="S6" s="5">
-        <v>74.645646251660821</v>
+        <v>74.552344200006786</v>
       </c>
       <c r="T6" s="5">
-        <v>193.06474595334512</v>
+        <v>193.75301417002311</v>
       </c>
       <c r="U6" s="9">
-        <v>0.35691692487244348</v>
+        <v>0.35639843846084979</v>
       </c>
       <c r="V6" s="9">
-        <v>0.17499537713441549</v>
+        <v>0.17477588642982766</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -9997,32 +10082,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="R7" s="5">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="S7" s="5">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="T7" s="5">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="U7" s="9">
-        <v>0.40656306062398662</v>
+        <v>0.40558240233966614</v>
       </c>
       <c r="V7" s="9">
-        <v>0.12526732833880572</v>
+        <v>0.12500423731317034</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.17499537713441549</v>
+        <v>0.17477588642982766</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -10077,26 +10162,26 @@
         <v>25.382097087861155</v>
       </c>
       <c r="Q8" s="5">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="R8" s="5">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
       <c r="S8" s="5">
-        <v>87.284176718170386</v>
+        <v>87.096304557338925</v>
       </c>
       <c r="T8" s="5">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
       <c r="U8" s="9">
-        <v>0.37217872210252356</v>
+        <v>0.3713104050093306</v>
       </c>
       <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.12526732833880572</v>
+        <v>0.12500423731317034</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -10144,22 +10229,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>565.58588458679435</v>
+        <v>564.04017688876081</v>
       </c>
       <c r="Q9" s="5">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="R9" s="5">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
       <c r="S9" s="5">
-        <v>116.87088791771112</v>
+        <v>116.70363936922752</v>
       </c>
       <c r="T9" s="5">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
       <c r="U9" s="9">
-        <v>0.14606887318395412</v>
+        <v>0.14613439808293288</v>
       </c>
       <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
@@ -10358,31 +10443,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>24.103041534476539</v>
+        <v>24.145505961333757</v>
       </c>
       <c r="E14" s="22">
-        <v>35.540249096088907</v>
+        <v>35.656490927438838</v>
       </c>
       <c r="F14" s="22">
-        <v>290.6752248356608</v>
+        <v>290.7914666670107</v>
       </c>
       <c r="G14" s="22">
-        <v>197.13303073129683</v>
+        <v>196.91525748289962</v>
       </c>
       <c r="H14" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I14" s="22">
-        <v>197.13303073129683</v>
+        <v>196.91525748289962</v>
       </c>
       <c r="J14" s="22">
-        <v>-12.007082975381564</v>
+        <v>-12.26732065063598</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -10407,31 +10492,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-5.1854931965022892</v>
+        <v>-5.2716777718319605</v>
       </c>
       <c r="E15" s="22">
-        <v>-6.0544241505957981</v>
+        <v>-6.155050639631936</v>
       </c>
       <c r="F15" s="22">
-        <v>284.62080068506498</v>
+        <v>284.63641602737874</v>
       </c>
       <c r="G15" s="22">
-        <v>243.77202337074445</v>
+        <v>243.78539759912934</v>
       </c>
       <c r="H15" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I15" s="22">
-        <v>248.95751656724673</v>
+        <v>249.05707537096129</v>
       </c>
       <c r="J15" s="22">
-        <v>39.817402860568336</v>
+        <v>39.874497237425686</v>
       </c>
       <c r="K15" s="21">
-        <v>5.1854931965022892</v>
+        <v>5.2716777718319605</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -10449,31 +10534,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-31.444214129549987</v>
+        <v>-31.907009546108654</v>
       </c>
       <c r="E16" s="22">
-        <v>-33.245804262536865</v>
+        <v>-33.735115452478468</v>
       </c>
       <c r="F16" s="22">
-        <v>251.37499642252811</v>
+        <v>250.90130057490029</v>
       </c>
       <c r="G16" s="22">
-        <v>237.7529853663913</v>
+        <v>237.30495909674642</v>
       </c>
       <c r="H16" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I16" s="22">
-        <v>274.38269269244358</v>
+        <v>274.48364641468703</v>
       </c>
       <c r="J16" s="22">
-        <v>65.242578985765192</v>
+        <v>65.30106828115143</v>
       </c>
       <c r="K16" s="21">
-        <v>36.629707326052277</v>
+        <v>37.178687317940614</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -10489,31 +10574,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-16.82950997081916</v>
+        <v>-17.152881476277773</v>
       </c>
       <c r="E17" s="22">
-        <v>-18.477519977623391</v>
+        <v>-18.832557258130429</v>
       </c>
       <c r="F17" s="22">
-        <v>232.89747644490473</v>
+        <v>232.06874331676985</v>
       </c>
       <c r="G17" s="22">
-        <v>212.12535052078366</v>
+        <v>211.37053210034713</v>
       </c>
       <c r="H17" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I17" s="22">
-        <v>265.58456781765511</v>
+        <v>265.70210089456555</v>
       </c>
       <c r="J17" s="22">
-        <v>56.444454110976721</v>
+        <v>56.519522761029947</v>
       </c>
       <c r="K17" s="21">
-        <v>53.459217296871437</v>
+        <v>54.331568794218384</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -10525,31 +10610,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-5.8766957102692023</v>
+        <v>-6.0728981724980429</v>
       </c>
       <c r="E18" s="22">
-        <v>-6.8048815542718879</v>
+        <v>-7.0320729185943058</v>
       </c>
       <c r="F18" s="22">
-        <v>226.09259489063282</v>
+        <v>225.03667039817554</v>
       </c>
       <c r="G18" s="22">
-        <v>195.2535649475505</v>
+        <v>194.3416685558644</v>
       </c>
       <c r="H18" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I18" s="22">
-        <v>254.58947795469115</v>
+        <v>254.74613552258083</v>
       </c>
       <c r="J18" s="22">
-        <v>45.449364248012756</v>
+        <v>45.563557389045229</v>
       </c>
       <c r="K18" s="21">
-        <v>59.33591300714064</v>
+        <v>60.404466966716427</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -10561,31 +10646,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-11.760469206806921</v>
+        <v>-11.875033346368102</v>
       </c>
       <c r="E19" s="22">
-        <v>-13.253921028272687</v>
+        <v>-13.383033568913246</v>
       </c>
       <c r="F19" s="22">
-        <v>212.83867386236014</v>
+        <v>211.6536368292623</v>
       </c>
       <c r="G19" s="22">
-        <v>188.85601209154939</v>
+        <v>187.80450503134102</v>
       </c>
       <c r="H19" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I19" s="22">
-        <v>259.95239430549697</v>
+        <v>260.08400534442558</v>
       </c>
       <c r="J19" s="22">
-        <v>50.812280598818575</v>
+        <v>50.901427210889977</v>
       </c>
       <c r="K19" s="21">
-        <v>71.096382213947564</v>
+        <v>72.279500313084526</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -10597,31 +10682,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-10.889416968511746</v>
+        <v>-11.039209160872952</v>
       </c>
       <c r="E20" s="22">
-        <v>-12.204856390253241</v>
+        <v>-12.372743449903558</v>
       </c>
       <c r="F20" s="22">
-        <v>200.6338174721069</v>
+        <v>199.28089337935873</v>
       </c>
       <c r="G20" s="22">
-        <v>179.00950462496323</v>
+        <v>177.80239869093145</v>
       </c>
       <c r="H20" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I20" s="22">
-        <v>260.99530380742254</v>
+        <v>261.12110816488894</v>
       </c>
       <c r="J20" s="22">
-        <v>51.855190100744153</v>
+        <v>51.938530031353338</v>
       </c>
       <c r="K20" s="21">
-        <v>81.985799182459317</v>
+        <v>83.318709473957483</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -10633,31 +10718,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-18.003801463950214</v>
+        <v>-18.019561120825671</v>
       </c>
       <c r="E21" s="22">
-        <v>-19.493705364996931</v>
+        <v>-19.510769211673907</v>
       </c>
       <c r="F21" s="22">
-        <v>181.14011210710996</v>
+        <v>179.77012416768483</v>
       </c>
       <c r="G21" s="22">
-        <v>167.29557333876355</v>
+        <v>166.03029357754869</v>
       </c>
       <c r="H21" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I21" s="22">
-        <v>267.28517398517306</v>
+        <v>267.36856417233184</v>
       </c>
       <c r="J21" s="22">
-        <v>58.145060278494668</v>
+        <v>58.185986038796244</v>
       </c>
       <c r="K21" s="21">
-        <v>99.989600646409528</v>
+        <v>101.33827059478315</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -10669,31 +10754,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-24.38900567343811</v>
+        <v>-24.318952430294821</v>
       </c>
       <c r="E22" s="22">
-        <v>-25.443379312132897</v>
+        <v>-25.370297561232288</v>
       </c>
       <c r="F22" s="22">
-        <v>155.69673279497707</v>
+        <v>154.39982660645254</v>
       </c>
       <c r="G22" s="22">
-        <v>149.2446601879532</v>
+        <v>148.00149779188115</v>
       </c>
       <c r="H22" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I22" s="22">
-        <v>273.62326650780085</v>
+        <v>273.65872081695909</v>
       </c>
       <c r="J22" s="22">
-        <v>64.483152801122458</v>
+        <v>64.47614268342349</v>
       </c>
       <c r="K22" s="21">
-        <v>124.37860631984763</v>
+        <v>125.65722302507797</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -10705,31 +10790,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-22.716136637262188</v>
+        <v>-22.459613483371744</v>
       </c>
       <c r="E23" s="22">
-        <v>-23.361137647715616</v>
+        <v>-23.0973307863838</v>
       </c>
       <c r="F23" s="22">
-        <v>132.33559514726144</v>
+        <v>131.30249582006874</v>
       </c>
       <c r="G23" s="22">
-        <v>128.68180936524556</v>
+        <v>127.67723391047664</v>
       </c>
       <c r="H23" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I23" s="22">
-        <v>275.77655232235537</v>
+        <v>275.79407041892637</v>
       </c>
       <c r="J23" s="22">
-        <v>66.63643861567698</v>
+        <v>66.611492285390767</v>
       </c>
       <c r="K23" s="21">
-        <v>147.09474295710982</v>
+        <v>148.11683650844972</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -10742,31 +10827,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-16.063047246410047</v>
+        <v>-16.027368642764582</v>
       </c>
       <c r="E24" s="22">
-        <v>-16.436315982369663</v>
+        <v>-16.399808289007954</v>
       </c>
       <c r="F24" s="22">
-        <v>115.89927916489178</v>
+        <v>114.90268753106079</v>
       </c>
       <c r="G24" s="22">
-        <v>113.26720653505708</v>
+        <v>112.2932474972304</v>
       </c>
       <c r="H24" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I24" s="22">
-        <v>276.42499673857697</v>
+        <v>276.43745264844472</v>
       </c>
       <c r="J24" s="22">
-        <v>67.284883031898573</v>
+        <v>67.254874514909119</v>
       </c>
       <c r="K24" s="21">
-        <v>163.15779020351985</v>
+        <v>164.14420515121429</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -10778,31 +10863,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-29.906955749825276</v>
+        <v>-29.608809018808817</v>
       </c>
       <c r="E25" s="22">
-        <v>-28.734584694297922</v>
+        <v>-28.448125498471192</v>
       </c>
       <c r="F25" s="22">
-        <v>87.164694470593858</v>
+        <v>86.454562032589592</v>
       </c>
       <c r="G25" s="22">
-        <v>90.721014004994089</v>
+        <v>89.98190816351925</v>
       </c>
       <c r="H25" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I25" s="22">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="J25" s="22">
-        <v>74.645646251660821</v>
+        <v>74.552344200006786</v>
       </c>
       <c r="K25" s="21">
-        <v>193.06474595334512</v>
+        <v>193.75301417002311</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -10814,31 +10899,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-66.217761436191921</v>
+        <v>-65.837554335884732</v>
       </c>
       <c r="E26" s="22">
-        <v>-58.27386778037166</v>
+        <v>-57.939272683649619</v>
       </c>
       <c r="F26" s="22">
-        <v>28.890826690222198</v>
+        <v>28.515289348939973</v>
       </c>
       <c r="G26" s="22">
-        <v>32.82922418463329</v>
+        <v>32.402493592987469</v>
       </c>
       <c r="H26" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I26" s="22">
-        <v>292.11173157417034</v>
+        <v>291.99306209889534</v>
       </c>
       <c r="J26" s="22">
-        <v>82.971617867491943</v>
+        <v>82.810483965359737</v>
       </c>
       <c r="K26" s="21">
-        <v>259.28250738953705</v>
+        <v>259.59056850590787</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -10850,13 +10935,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-34.886251044977108</v>
+        <v>-34.432782194631997</v>
       </c>
       <c r="E27" s="22">
-        <v>-28.890826690222198</v>
+        <v>-28.515289348939973</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -10865,16 +10950,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I27" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J27" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K27" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -10886,7 +10971,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -10901,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I28" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J28" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K28" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -10922,7 +11007,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -10937,16 +11022,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I29" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J29" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K29" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -10958,7 +11043,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -10973,16 +11058,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I30" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J30" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K30" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -10994,7 +11079,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -11009,16 +11094,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I31" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J31" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K31" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -11030,7 +11115,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -11045,16 +11130,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I32" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J32" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K32" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -11081,16 +11166,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I33" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J33" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K33" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -11117,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I34" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J34" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K34" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -11154,16 +11239,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I35" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J35" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K35" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -11190,16 +11275,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I36" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J36" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K36" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -11226,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I37" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J37" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K37" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -11262,16 +11347,16 @@
         <v>8.5555045580028403E-3</v>
       </c>
       <c r="H38" s="22">
-        <v>209.14866921123638</v>
+        <v>209.19113363809359</v>
       </c>
       <c r="I38" s="22">
-        <v>294.17731393907212</v>
+        <v>294.03190620509787</v>
       </c>
       <c r="J38" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K38" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -11298,16 +11383,16 @@
         <v>8.2439606879804145E-2</v>
       </c>
       <c r="H39" s="22">
-        <v>209.22253831117848</v>
+        <v>209.26500273803569</v>
       </c>
       <c r="I39" s="22">
-        <v>294.25119804139393</v>
+        <v>294.10579030741968</v>
       </c>
       <c r="J39" s="22">
-        <v>85.028659730215452</v>
+        <v>84.840787569383991</v>
       </c>
       <c r="K39" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -11334,16 +11419,16 @@
         <v>11.073701039471924</v>
       </c>
       <c r="H40" s="22">
-        <v>220.2192914171483</v>
+        <v>220.26175584400551</v>
       </c>
       <c r="I40" s="22">
-        <v>305.24245947398606</v>
+        <v>305.09705174001181</v>
       </c>
       <c r="J40" s="22">
-        <v>85.023168056837761</v>
+        <v>84.835295896006301</v>
       </c>
       <c r="K40" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -11370,16 +11455,16 @@
         <v>18.256665057539632</v>
       </c>
       <c r="H41" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I41" s="22">
-        <v>312.42542349205377</v>
+        <v>312.28001575807951</v>
       </c>
       <c r="J41" s="22">
-        <v>85.242232275518688</v>
+        <v>85.054360114687228</v>
       </c>
       <c r="K41" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -11406,16 +11491,16 @@
         <v>19.31704629582477</v>
       </c>
       <c r="H42" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I42" s="22">
-        <v>313.69907954345859</v>
+        <v>313.55367180948434</v>
       </c>
       <c r="J42" s="22">
-        <v>86.515888326923516</v>
+        <v>86.328016166092056</v>
       </c>
       <c r="K42" s="21">
-        <v>294.38203324763384</v>
+        <v>294.23662551365959</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -11442,16 +11527,16 @@
         <v>11.647549309575558</v>
       </c>
       <c r="H43" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I43" s="22">
-        <v>314.83349500880718</v>
+        <v>314.68808727483292</v>
       </c>
       <c r="J43" s="22">
-        <v>87.650303792272098</v>
+        <v>87.462431631440637</v>
       </c>
       <c r="K43" s="21">
-        <v>303.18594569923164</v>
+        <v>303.04053796525739</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -11478,16 +11563,16 @@
         <v>9.9914726733259922</v>
       </c>
       <c r="H44" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I44" s="22">
-        <v>314.39624236642305</v>
+        <v>314.2508346324488</v>
       </c>
       <c r="J44" s="22">
-        <v>87.213051149887974</v>
+        <v>87.025178989056514</v>
       </c>
       <c r="K44" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -11514,16 +11599,16 @@
         <v>11.205665104964165</v>
       </c>
       <c r="H45" s="22">
-        <v>228.92924822760713</v>
+        <v>228.97171265446434</v>
       </c>
       <c r="I45" s="22">
-        <v>315.61043479806125</v>
+        <v>315.465027064087</v>
       </c>
       <c r="J45" s="22">
-        <v>86.681186570454116</v>
+        <v>86.493314409622656</v>
       </c>
       <c r="K45" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -11550,16 +11635,16 @@
         <v>13.685908300986778</v>
       </c>
       <c r="H46" s="22">
-        <v>231.54125890759914</v>
+        <v>231.58372333445635</v>
       </c>
       <c r="I46" s="22">
-        <v>318.09067799408388</v>
+        <v>317.94527026010962</v>
       </c>
       <c r="J46" s="22">
-        <v>86.549419086484733</v>
+        <v>86.361546925653272</v>
       </c>
       <c r="K46" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -11586,16 +11671,16 @@
         <v>16.558886039800385</v>
       </c>
       <c r="H47" s="22">
-        <v>234.48667653762507</v>
+        <v>234.52914096448228</v>
       </c>
       <c r="I47" s="22">
-        <v>320.96365573289745</v>
+        <v>320.8182479989232</v>
       </c>
       <c r="J47" s="22">
-        <v>86.476979195272378</v>
+        <v>86.289107034440917</v>
       </c>
       <c r="K47" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -11622,16 +11707,16 @@
         <v>17.10110478058246</v>
       </c>
       <c r="H48" s="22">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="I48" s="22">
-        <v>321.50587447367957</v>
+        <v>321.36046673970532</v>
       </c>
       <c r="J48" s="22">
-        <v>86.983663679140022</v>
+        <v>86.795791518308562</v>
       </c>
       <c r="K48" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -11657,16 +11742,16 @@
         <v>16.9407039091877</v>
       </c>
       <c r="H49" s="22">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="I49" s="22">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
       <c r="J49" s="22">
-        <v>87.284176718170386</v>
+        <v>87.096304557338925</v>
       </c>
       <c r="K49" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -11677,31 +11762,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>24.131842106469303</v>
+        <v>23.945916750898242</v>
       </c>
       <c r="E50" s="22">
-        <v>21.725523161141293</v>
+        <v>21.558137447241748</v>
       </c>
       <c r="F50" s="22">
-        <v>35.219683562275343</v>
+        <v>35.052297848375801</v>
       </c>
       <c r="G50" s="22">
-        <v>39.120615713632958</v>
+        <v>38.934690358061907</v>
       </c>
       <c r="H50" s="22">
-        <v>258.65405290100887</v>
+        <v>258.510591972295</v>
       </c>
       <c r="I50" s="22">
-        <v>343.98629931715521</v>
+        <v>343.65496622760992</v>
       </c>
       <c r="J50" s="22">
-        <v>85.332246416146347</v>
+        <v>85.144374255314915</v>
       </c>
       <c r="K50" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -11712,31 +11797,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>8.9572863859085938</v>
+        <v>8.8155044487501062</v>
       </c>
       <c r="E51" s="22">
-        <v>7.7769749046325174</v>
+        <v>7.653875729312368</v>
       </c>
       <c r="F51" s="22">
-        <v>42.99665846690786</v>
+        <v>42.706173577688169</v>
       </c>
       <c r="G51" s="22">
-        <v>49.522261322430467</v>
+        <v>49.187689541573903</v>
       </c>
       <c r="H51" s="22">
-        <v>267.61133928691748</v>
+        <v>267.32609642104512</v>
       </c>
       <c r="I51" s="22">
-        <v>354.38794492595275</v>
+        <v>353.90796541112189</v>
       </c>
       <c r="J51" s="22">
-        <v>86.776605639035267</v>
+        <v>86.581868990076771</v>
       </c>
       <c r="K51" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -11747,31 +11832,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>43.49597365374413</v>
+        <v>43.508977958994763</v>
       </c>
       <c r="E52" s="22">
-        <v>41.549384967993632</v>
+        <v>41.561807287572023</v>
       </c>
       <c r="F52" s="22">
-        <v>84.546043434901492</v>
+        <v>84.267980865260199</v>
       </c>
       <c r="G52" s="22">
-        <v>88.50702556982661</v>
+        <v>88.215935768797621</v>
       </c>
       <c r="H52" s="22">
-        <v>311.10731294066159</v>
+        <v>310.83507438003988</v>
       </c>
       <c r="I52" s="22">
-        <v>393.37270917334888</v>
+        <v>392.93621163834564</v>
       </c>
       <c r="J52" s="22">
-        <v>82.265396232687294</v>
+        <v>82.101137258305755</v>
       </c>
       <c r="K52" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -11782,31 +11867,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>206.50766631624629</v>
+        <v>206.3494642508343</v>
       </c>
       <c r="E53" s="22">
-        <v>248.29585946404507</v>
+        <v>248.10564416356175</v>
       </c>
       <c r="F53" s="22">
-        <v>332.84190289894656</v>
+        <v>332.37362502882195</v>
       </c>
       <c r="G53" s="22">
-        <v>276.82461064105382</v>
+        <v>276.43514393647121</v>
       </c>
       <c r="H53" s="22">
-        <v>517.61497925690787</v>
+        <v>517.18453863087416</v>
       </c>
       <c r="I53" s="22">
-        <v>581.69029424457608</v>
+        <v>581.15541980601915</v>
       </c>
       <c r="J53" s="22">
-        <v>64.075314987668207</v>
+        <v>63.970881175144996</v>
       </c>
       <c r="K53" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -11817,31 +11902,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>110.51665681167773</v>
+        <v>110.35913867029687</v>
       </c>
       <c r="E54" s="22">
-        <v>121.92385244657973</v>
+        <v>121.75007575823757</v>
       </c>
       <c r="F54" s="22">
-        <v>454.76575534552626</v>
+        <v>454.12370078705953</v>
       </c>
       <c r="G54" s="22">
-        <v>412.21787127539881</v>
+        <v>411.63588734142223</v>
       </c>
       <c r="H54" s="22">
-        <v>628.13163606858564</v>
+        <v>627.54367730117099</v>
       </c>
       <c r="I54" s="22">
-        <v>717.08355487892106</v>
+        <v>716.35616321097018</v>
       </c>
       <c r="J54" s="22">
-        <v>88.951918810335428</v>
+        <v>88.812485909799193</v>
       </c>
       <c r="K54" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -11852,31 +11937,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>38.368407580461941</v>
+        <v>38.112269076877965</v>
       </c>
       <c r="E55" s="22">
-        <v>38.729756205862643</v>
+        <v>38.471205423479027</v>
       </c>
       <c r="F55" s="22">
-        <v>493.49551155138892</v>
+        <v>492.59490621053857</v>
       </c>
       <c r="G55" s="22">
-        <v>488.89119842861442</v>
+        <v>487.99899573559424</v>
       </c>
       <c r="H55" s="22">
-        <v>666.5000436490476</v>
+        <v>665.65594637804895</v>
       </c>
       <c r="I55" s="22">
-        <v>793.75688203213667</v>
+        <v>792.71927160514224</v>
       </c>
       <c r="J55" s="22">
-        <v>127.25683838308908</v>
+        <v>127.06332522709329</v>
       </c>
       <c r="K55" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -11887,31 +11972,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>17.975828027191955</v>
+        <v>17.770915882639247</v>
       </c>
       <c r="E56" s="22">
-        <v>17.750923822362623</v>
+        <v>17.548575431916863</v>
       </c>
       <c r="F56" s="22">
-        <v>511.24643537375152</v>
+        <v>510.14348164245541</v>
       </c>
       <c r="G56" s="22">
-        <v>517.7239277099369</v>
+        <v>516.6069995548653</v>
       </c>
       <c r="H56" s="22">
-        <v>684.47587167623954</v>
+        <v>683.42686226068815</v>
       </c>
       <c r="I56" s="22">
-        <v>822.58961131345916</v>
+        <v>821.3272754244133</v>
       </c>
       <c r="J56" s="22">
-        <v>138.11373963721962</v>
+        <v>137.90041316372515</v>
       </c>
       <c r="K56" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -11922,31 +12007,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>29.697171075497362</v>
+        <v>29.547023640922774</v>
       </c>
       <c r="E57" s="22">
-        <v>31.015322272059908</v>
+        <v>30.858510329945457</v>
       </c>
       <c r="F57" s="22">
-        <v>542.26175764581149</v>
+        <v>541.0019919724009</v>
       </c>
       <c r="G57" s="22">
-        <v>519.21563294586451</v>
+        <v>518.00940731357389</v>
       </c>
       <c r="H57" s="22">
-        <v>714.17304275173694</v>
+        <v>712.97388590161097</v>
       </c>
       <c r="I57" s="22">
-        <v>824.08131654938677</v>
+        <v>822.72968318312189</v>
       </c>
       <c r="J57" s="22">
-        <v>109.90827379764983</v>
+        <v>109.75579728151092</v>
       </c>
       <c r="K57" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -11957,31 +12042,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>68.855829956745922</v>
+        <v>68.693991328969844</v>
       </c>
       <c r="E58" s="22">
-        <v>80.169325117299181</v>
+        <v>79.980895269385528</v>
       </c>
       <c r="F58" s="22">
-        <v>622.43108276311068</v>
+        <v>620.98288724178644</v>
       </c>
       <c r="G58" s="22">
-        <v>534.59360836358053</v>
+        <v>533.34978219422555</v>
       </c>
       <c r="H58" s="22">
-        <v>783.02887270848282</v>
+        <v>781.66787723058087</v>
       </c>
       <c r="I58" s="22">
-        <v>839.45929196710279</v>
+        <v>838.07005806377356</v>
       </c>
       <c r="J58" s="22">
-        <v>56.430419258619963</v>
+        <v>56.402180833192688</v>
       </c>
       <c r="K58" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -11992,31 +12077,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>10.350324740591322</v>
+        <v>10.302057447800053</v>
       </c>
       <c r="E59" s="22">
-        <v>10.675170168828782</v>
+        <v>10.62538800478568</v>
       </c>
       <c r="F59" s="22">
-        <v>633.10625293193948</v>
+        <v>631.60827524657213</v>
       </c>
       <c r="G59" s="22">
-        <v>613.84082965522055</v>
+        <v>612.38843543081896</v>
       </c>
       <c r="H59" s="22">
-        <v>793.37919744907413</v>
+        <v>791.96993467838092</v>
       </c>
       <c r="I59" s="22">
-        <v>918.7065132587428</v>
+        <v>917.10871130036696</v>
       </c>
       <c r="J59" s="22">
-        <v>125.32731580966868</v>
+        <v>125.13877662198604</v>
       </c>
       <c r="K59" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -12027,31 +12112,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>2.2871348348376999</v>
+        <v>2.2479266885731368</v>
       </c>
       <c r="E60" s="22">
-        <v>2.30080159631984</v>
+        <v>2.2613591619953897</v>
       </c>
       <c r="F60" s="22">
-        <v>635.40705452825932</v>
+        <v>633.86963440856755</v>
       </c>
       <c r="G60" s="22">
-        <v>631.63273662436143</v>
+        <v>630.10444878018063</v>
       </c>
       <c r="H60" s="22">
-        <v>795.66633228391186</v>
+        <v>794.21786136695403</v>
       </c>
       <c r="I60" s="22">
-        <v>936.49842022788368</v>
+        <v>934.82472464972864</v>
       </c>
       <c r="J60" s="22">
-        <v>140.83208794397183</v>
+        <v>140.60686328277461</v>
       </c>
       <c r="K60" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -12062,31 +12147,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>4.4417630974220028</v>
+        <v>4.3869907432035165</v>
       </c>
       <c r="E61" s="22">
-        <v>4.6444953180551085</v>
+        <v>4.5872230283928648</v>
       </c>
       <c r="F61" s="22">
-        <v>640.0515498463144</v>
+        <v>638.45685743696038</v>
       </c>
       <c r="G61" s="22">
-        <v>612.11329969552276</v>
+        <v>610.58821560983711</v>
       </c>
       <c r="H61" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I61" s="22">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
       <c r="J61" s="22">
-        <v>116.87088791771112</v>
+        <v>116.70363936922752</v>
       </c>
       <c r="K61" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -12097,31 +12182,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-11.163226795279959</v>
+        <v>-11.206297911386907</v>
       </c>
       <c r="E62" s="22">
-        <v>-10.328001327893233</v>
+        <v>-10.367849890724052</v>
       </c>
       <c r="F62" s="22">
-        <v>629.72354851842113</v>
+        <v>628.0890075462363</v>
       </c>
       <c r="G62" s="22">
-        <v>680.64929188710585</v>
+        <v>678.88256558650039</v>
       </c>
       <c r="H62" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I62" s="22">
-        <v>996.67820228590813</v>
+        <v>994.80913936743536</v>
       </c>
       <c r="J62" s="22">
-        <v>196.57010690457423</v>
+        <v>196.20428725727777</v>
       </c>
       <c r="K62" s="21">
-        <v>316.02891039880222</v>
+        <v>315.92657378093492</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -12141,22 +12226,22 @@
         <v>-39.452167990306556</v>
       </c>
       <c r="F63" s="22">
-        <v>590.27138052811461</v>
+        <v>588.63683955592978</v>
       </c>
       <c r="G63" s="22">
-        <v>689.78523257134941</v>
+        <v>687.87512433666404</v>
       </c>
       <c r="H63" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I63" s="22">
-        <v>1051.9175519619439</v>
+        <v>1049.9051071093913</v>
       </c>
       <c r="J63" s="22">
-        <v>251.80945658061</v>
+        <v>251.30025499923374</v>
       </c>
       <c r="K63" s="21">
-        <v>362.13231939059455</v>
+        <v>362.02998277272724</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -12176,22 +12261,22 @@
         <v>-101.85827080390294</v>
       </c>
       <c r="F64" s="22">
-        <v>488.41310972421167</v>
+        <v>486.77856875202684</v>
       </c>
       <c r="G64" s="22">
-        <v>634.44374540065371</v>
+        <v>632.32049302319535</v>
       </c>
       <c r="H64" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I64" s="22">
-        <v>1128.8889399828101</v>
+        <v>1126.6633509874846</v>
       </c>
       <c r="J64" s="22">
-        <v>328.78084460147625</v>
+        <v>328.058498877327</v>
       </c>
       <c r="K64" s="21">
-        <v>494.44519458215643</v>
+        <v>494.34285796428912</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -12211,22 +12296,22 @@
         <v>-50.623115085809339</v>
       </c>
       <c r="F65" s="22">
-        <v>437.78999463840233</v>
+        <v>436.15545366621751</v>
       </c>
       <c r="G65" s="22">
-        <v>537.78560731375978</v>
+        <v>535.77772083811828</v>
       </c>
       <c r="H65" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I65" s="22">
-        <v>1094.4167426984752</v>
+        <v>1092.3065196049665</v>
       </c>
       <c r="J65" s="22">
-        <v>294.30864731714132</v>
+        <v>293.70166749480893</v>
       </c>
       <c r="K65" s="21">
-        <v>556.63113538471544</v>
+        <v>556.52879876684813</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -12246,22 +12331,22 @@
         <v>-68.535327690501489</v>
       </c>
       <c r="F66" s="22">
-        <v>369.25466694790083</v>
+        <v>367.62012597571601</v>
       </c>
       <c r="G66" s="22">
-        <v>479.55842105857778</v>
+        <v>477.43561000718194</v>
       </c>
       <c r="H66" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I66" s="22">
-        <v>1125.1977572215014</v>
+        <v>1122.9726095522383</v>
       </c>
       <c r="J66" s="22">
-        <v>325.08966184016754</v>
+        <v>324.36775744208069</v>
       </c>
       <c r="K66" s="21">
-        <v>645.63933616292354</v>
+        <v>645.53699954505623</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -12281,22 +12366,22 @@
         <v>-60.981517265004292</v>
       </c>
       <c r="F67" s="22">
-        <v>308.27314968289653</v>
+        <v>306.63860871071171</v>
       </c>
       <c r="G67" s="22">
-        <v>407.02228772081878</v>
+        <v>404.864154239014</v>
       </c>
       <c r="H67" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I67" s="22">
-        <v>1133.1773505742453</v>
+        <v>1130.9168804745734</v>
       </c>
       <c r="J67" s="22">
-        <v>333.06925519291144</v>
+        <v>332.31202836441582</v>
       </c>
       <c r="K67" s="21">
-        <v>726.15506285342667</v>
+        <v>726.05272623555936</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -12316,22 +12401,22 @@
         <v>-24.127474022686147</v>
       </c>
       <c r="F68" s="22">
-        <v>284.14567566021037</v>
+        <v>282.51113468802555</v>
       </c>
       <c r="G68" s="22">
-        <v>357.70530817512565</v>
+        <v>355.64761723606159</v>
       </c>
       <c r="H68" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I68" s="22">
-        <v>1114.2339655262315</v>
+        <v>1112.0739379693</v>
       </c>
       <c r="J68" s="22">
-        <v>314.12587014489759</v>
+        <v>313.46908585914241</v>
       </c>
       <c r="K68" s="21">
-        <v>756.52865735110584</v>
+        <v>756.42632073323853</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -12351,22 +12436,22 @@
         <v>-16.195369781994554</v>
       </c>
       <c r="F69" s="22">
-        <v>267.95030587821583</v>
+        <v>266.31576490603101</v>
       </c>
       <c r="G69" s="22">
-        <v>335.75513078069832</v>
+        <v>333.70696921550217</v>
       </c>
       <c r="H69" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I69" s="22">
-        <v>1112.5773962371325</v>
+        <v>1110.4268980540689</v>
       </c>
       <c r="J69" s="22">
-        <v>312.46930085579856</v>
+        <v>311.82204594391135</v>
       </c>
       <c r="K69" s="21">
-        <v>776.82226545643414</v>
+        <v>776.71992883856683</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -12386,22 +12471,57 @@
         <v>-6.527966247638803</v>
       </c>
       <c r="F70" s="22">
-        <v>261.42233963057703</v>
+        <v>259.78779865839221</v>
       </c>
       <c r="G70" s="22">
-        <v>321.96775348901861</v>
+        <v>319.95465282767577</v>
       </c>
       <c r="H70" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I70" s="22">
-        <v>1106.8298621760446</v>
+        <v>1104.7144248968345</v>
       </c>
       <c r="J70" s="22">
-        <v>306.72176679471067</v>
+        <v>306.10957278667695</v>
       </c>
       <c r="K70" s="21">
-        <v>784.86210868702608</v>
+        <v>784.75977206915877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-1.6768054801203269</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-1.3812805141235858</v>
+      </c>
+      <c r="F71" s="22">
+        <v>258.4065181442686</v>
+      </c>
+      <c r="G71" s="22">
+        <v>313.6925927012349</v>
+      </c>
+      <c r="H71" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I71" s="22">
+        <v>1100.1291702505141</v>
+      </c>
+      <c r="J71" s="22">
+        <v>301.52431814035651</v>
+      </c>
+      <c r="K71" s="21">
+        <v>786.43657754927915</v>
       </c>
     </row>
   </sheetData>
@@ -12420,7 +12540,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12468,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12687,22 +12807,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0056743465124249</v>
+        <v>-3.0136208812590795</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-3.0056743465124249</v>
+        <v>-3.0136208812590795</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -12754,31 +12874,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="Q6" s="5">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="R6" s="5">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="S6" s="5">
-        <v>11.383169355006938</v>
+        <v>11.370490729632934</v>
       </c>
       <c r="T6" s="5">
-        <v>22.37035212590262</v>
+        <v>22.455572845137382</v>
       </c>
       <c r="U6" s="9">
-        <v>0.39704831867686768</v>
+        <v>0.39649618465301878</v>
       </c>
       <c r="V6" s="9">
-        <v>0.19207956697892992</v>
+        <v>0.19185828660319904</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -12844,32 +12964,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="R7" s="5">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="S7" s="5">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="T7" s="5">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="U7" s="9">
-        <v>0.46593161976067698</v>
+        <v>0.46511513184064601</v>
       </c>
       <c r="V7" s="9">
-        <v>0.14092775697418336</v>
+        <v>0.14072127524152522</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.19207956697892992</v>
+        <v>0.19185828660319904</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -12924,26 +13044,26 @@
         <v>1.6879618273276691</v>
       </c>
       <c r="Q8" s="5">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="R8" s="5">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
       <c r="S8" s="5">
-        <v>13.520322446542625</v>
+        <v>13.500610214928557</v>
       </c>
       <c r="T8" s="5">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
       <c r="U8" s="9">
-        <v>0.44537092209700496</v>
+        <v>0.44460520206620852</v>
       </c>
       <c r="V8" s="9">
         <v>0.10297744786565266</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.14092775697418336</v>
+        <v>0.14072127524152522</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -12991,22 +13111,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>143.63277580565705</v>
+        <v>143.24737155600297</v>
       </c>
       <c r="Q9" s="5">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="R9" s="5">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
       <c r="S9" s="5">
-        <v>26.31652275689558</v>
+        <v>26.285962913926141</v>
       </c>
       <c r="T9" s="5">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
       <c r="U9" s="9">
-        <v>0.15125288602673245</v>
+        <v>0.15140570731460512</v>
       </c>
       <c r="V9" s="9">
         <v>8.4185988221880725E-2</v>
@@ -13205,31 +13325,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>3.0056743465124236</v>
+        <v>3.0136208812590786</v>
       </c>
       <c r="E14" s="22">
-        <v>4.4319060241413517</v>
+        <v>4.4503165841060275</v>
       </c>
       <c r="F14" s="22">
-        <v>40.38164307699158</v>
+        <v>40.400053636956251</v>
       </c>
       <c r="G14" s="22">
-        <v>27.386426518384923</v>
+        <v>27.357704321337661</v>
       </c>
       <c r="H14" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I14" s="22">
-        <v>27.386426518384923</v>
+        <v>27.357704321337661</v>
       </c>
       <c r="J14" s="22">
-        <v>-1.2830548005146376</v>
+        <v>-1.3197235323085543</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -13254,31 +13374,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-0.2999295487448751</v>
+        <v>-0.30743792163991257</v>
       </c>
       <c r="E15" s="22">
-        <v>-0.35018861940135798</v>
+        <v>-0.3589551672425656</v>
       </c>
       <c r="F15" s="22">
-        <v>40.031454457590222</v>
+        <v>40.041098469713688</v>
       </c>
       <c r="G15" s="22">
-        <v>34.286140113836872</v>
+        <v>34.294400017340379</v>
       </c>
       <c r="H15" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I15" s="22">
-        <v>34.58606966258175</v>
+        <v>34.601837938980289</v>
       </c>
       <c r="J15" s="22">
-        <v>5.9165883436821893</v>
+        <v>5.924410085334074</v>
       </c>
       <c r="K15" s="21">
-        <v>0.2999295487448751</v>
+        <v>0.30743792163991257</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -13296,31 +13416,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-4.4786308626859341</v>
+        <v>-4.5778684048709888</v>
       </c>
       <c r="E16" s="22">
-        <v>-4.7352331469173876</v>
+        <v>-4.8401564847812875</v>
       </c>
       <c r="F16" s="22">
-        <v>35.296221310672834</v>
+        <v>35.200941984932399</v>
       </c>
       <c r="G16" s="22">
-        <v>33.383519077847474</v>
+        <v>33.293402938768907</v>
       </c>
       <c r="H16" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I16" s="22">
-        <v>38.162079489278284</v>
+        <v>38.178709265279807</v>
       </c>
       <c r="J16" s="22">
-        <v>9.4925981703787237</v>
+        <v>9.5012814116335917</v>
       </c>
       <c r="K16" s="21">
-        <v>4.7785604114308091</v>
+        <v>4.8853063265109018</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -13336,31 +13456,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-1.7536436903045434</v>
+        <v>-1.8044289281989621</v>
       </c>
       <c r="E17" s="22">
-        <v>-1.9253671899787481</v>
+        <v>-1.9811255126743912</v>
       </c>
       <c r="F17" s="22">
-        <v>33.370854120694084</v>
+        <v>33.21981647225801</v>
       </c>
       <c r="G17" s="22">
-        <v>30.394507641669374</v>
+        <v>30.256941041097313</v>
       </c>
       <c r="H17" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I17" s="22">
-        <v>36.926711743404724</v>
+        <v>36.94667629580718</v>
       </c>
       <c r="J17" s="22">
-        <v>8.2572304245051633</v>
+        <v>8.2692484421609649</v>
       </c>
       <c r="K17" s="21">
-        <v>6.5322041017353527</v>
+        <v>6.6897352547098636</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -13372,31 +13492,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-0.36185448247805929</v>
+        <v>-0.38012650237749257</v>
       </c>
       <c r="E18" s="22">
-        <v>-0.41900704316588616</v>
+        <v>-0.44016500970066297</v>
       </c>
       <c r="F18" s="22">
-        <v>32.9518470775282</v>
+        <v>32.779651462557347</v>
       </c>
       <c r="G18" s="22">
-        <v>28.457215136153355</v>
+        <v>28.308507003064527</v>
       </c>
       <c r="H18" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I18" s="22">
-        <v>35.35127372036677</v>
+        <v>35.378368760151886</v>
       </c>
       <c r="J18" s="22">
-        <v>6.6817924014672094</v>
+        <v>6.7009409065056715</v>
       </c>
       <c r="K18" s="21">
-        <v>6.8940585842134121</v>
+        <v>7.0698617570873559</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -13408,31 +13528,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-1.0244036673779862</v>
+        <v>-1.039408843771594</v>
       </c>
       <c r="E19" s="22">
-        <v>-1.1544918038340015</v>
+        <v>-1.1714024746107312</v>
       </c>
       <c r="F19" s="22">
-        <v>31.797355273694198</v>
+        <v>31.608248987946617</v>
       </c>
       <c r="G19" s="22">
-        <v>28.214429281454336</v>
+        <v>28.04663149198479</v>
       </c>
       <c r="H19" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I19" s="22">
-        <v>36.132891533045736</v>
+        <v>36.155902092843739</v>
       </c>
       <c r="J19" s="22">
-        <v>7.463410214146176</v>
+        <v>7.4784742391975243</v>
       </c>
       <c r="K19" s="21">
-        <v>7.9184622515913983</v>
+        <v>8.1092706008589506</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -13444,31 +13564,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-0.91272740916000517</v>
+        <v>-0.93162491361969113</v>
       </c>
       <c r="E20" s="22">
-        <v>-1.0229847001412264</v>
+        <v>-1.0441650194119063</v>
       </c>
       <c r="F20" s="22">
-        <v>30.774370573552972</v>
+        <v>30.56408396853471</v>
       </c>
       <c r="G20" s="22">
-        <v>27.457508913135431</v>
+        <v>27.26988699840604</v>
       </c>
       <c r="H20" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I20" s="22">
-        <v>36.288698573886833</v>
+        <v>36.310782512884686</v>
       </c>
       <c r="J20" s="22">
-        <v>7.619217254987273</v>
+        <v>7.6333546592384707</v>
       </c>
       <c r="K20" s="21">
-        <v>8.831189660751404</v>
+        <v>9.0408955144786418</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -13480,31 +13600,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-1.9403517811045978</v>
+        <v>-1.9429000736925599</v>
       </c>
       <c r="E21" s="22">
-        <v>-2.1009255184821916</v>
+        <v>-2.1036846949257337</v>
       </c>
       <c r="F21" s="22">
-        <v>28.673445055070779</v>
+        <v>28.460399273608978</v>
       </c>
       <c r="G21" s="22">
-        <v>26.481933649511721</v>
+        <v>26.285170957127043</v>
       </c>
       <c r="H21" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I21" s="22">
-        <v>37.253475091367719</v>
+        <v>37.268966545298241</v>
       </c>
       <c r="J21" s="22">
-        <v>8.5839937724681583</v>
+        <v>8.5915386916520262</v>
       </c>
       <c r="K21" s="21">
-        <v>10.771541441856002</v>
+        <v>10.983795588171201</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -13516,31 +13636,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-3.0593227270681411</v>
+        <v>-3.0461511255786529</v>
       </c>
       <c r="E22" s="22">
-        <v>-3.1915818801829214</v>
+        <v>-3.1778408504200604</v>
       </c>
       <c r="F22" s="22">
-        <v>25.481863174887856</v>
+        <v>25.282558423188917</v>
       </c>
       <c r="G22" s="22">
-        <v>24.425894764920503</v>
+        <v>24.234849202131969</v>
       </c>
       <c r="H22" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I22" s="22">
-        <v>38.256758933844644</v>
+        <v>38.26479591588182</v>
       </c>
       <c r="J22" s="22">
-        <v>9.5872776149450836</v>
+        <v>9.5873680622356048</v>
       </c>
       <c r="K22" s="21">
-        <v>13.830864168924142</v>
+        <v>14.029946713749855</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -13552,31 +13672,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-2.7500200445342999</v>
+        <v>-2.7035696843691119</v>
       </c>
       <c r="E23" s="22">
-        <v>-2.8281039958599945</v>
+        <v>-2.780334726158344</v>
       </c>
       <c r="F23" s="22">
-        <v>22.653759179027862</v>
+        <v>22.502223697030573</v>
       </c>
       <c r="G23" s="22">
-        <v>22.028288888094902</v>
+        <v>21.880937300755559</v>
       </c>
       <c r="H23" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I23" s="22">
-        <v>38.609173101553345</v>
+        <v>38.614453698874527</v>
       </c>
       <c r="J23" s="22">
-        <v>9.9396917826537852</v>
+        <v>9.9370258452283124</v>
       </c>
       <c r="K23" s="21">
-        <v>16.580884213458443</v>
+        <v>16.733516398118965</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -13589,31 +13709,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-1.6352194947283292</v>
+        <v>-1.6297743940820615</v>
       </c>
       <c r="E24" s="22">
-        <v>-1.673218281910517</v>
+        <v>-1.6676466494920255</v>
       </c>
       <c r="F24" s="22">
-        <v>20.980540897117343</v>
+        <v>20.834577047538549</v>
       </c>
       <c r="G24" s="22">
-        <v>20.504072813343807</v>
+        <v>20.361423802788948</v>
       </c>
       <c r="H24" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I24" s="22">
-        <v>38.720176521530576</v>
+        <v>38.724714594989976</v>
       </c>
       <c r="J24" s="22">
-        <v>10.050695202631015</v>
+        <v>10.047286741343761</v>
       </c>
       <c r="K24" s="21">
-        <v>18.216103708186772</v>
+        <v>18.363290792201028</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -13625,31 +13745,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-4.1542484177158503</v>
+        <v>-4.0922820529363531</v>
       </c>
       <c r="E25" s="22">
-        <v>-3.9913993252458209</v>
+        <v>-3.931862080069517</v>
       </c>
       <c r="F25" s="22">
-        <v>16.989141571871521</v>
+        <v>16.902714967469031</v>
       </c>
       <c r="G25" s="22">
-        <v>17.682298548003878</v>
+        <v>17.592345738141766</v>
       </c>
       <c r="H25" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I25" s="22">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="J25" s="22">
-        <v>11.383169355006938</v>
+        <v>11.370490729632934</v>
       </c>
       <c r="K25" s="21">
-        <v>22.37035212590262</v>
+        <v>22.455572845137382</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -13661,31 +13781,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-13.68661003158703</v>
+        <v>-13.568901367945452</v>
       </c>
       <c r="E26" s="22">
-        <v>-12.044679343483375</v>
+        <v>-11.94109174171488</v>
       </c>
       <c r="F26" s="22">
-        <v>4.9444622283881454</v>
+        <v>4.9616232257541508</v>
       </c>
       <c r="G26" s="22">
-        <v>5.6184913193620174</v>
+        <v>5.6379917038889564</v>
       </c>
       <c r="H26" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I26" s="22">
-        <v>41.675453476851665</v>
+        <v>41.66246591697179</v>
       </c>
       <c r="J26" s="22">
-        <v>13.005972157952105</v>
+        <v>12.985038063325575</v>
       </c>
       <c r="K26" s="21">
-        <v>36.05696215748965</v>
+        <v>36.024474213082833</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -13697,13 +13817,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-5.9705370300232534</v>
+        <v>-5.9912592775626514</v>
       </c>
       <c r="E27" s="22">
-        <v>-4.9444622283881454</v>
+        <v>-4.9616232257541508</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -13712,16 +13832,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I27" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J27" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K27" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -13733,7 +13853,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -13748,16 +13868,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I28" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J28" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K28" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -13769,7 +13889,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -13784,16 +13904,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I29" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J29" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K29" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -13805,7 +13925,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -13820,16 +13940,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I30" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J30" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K30" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -13841,7 +13961,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -13856,16 +13976,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I31" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J31" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K31" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -13877,7 +13997,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -13892,16 +14012,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I32" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J32" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K32" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -13928,16 +14048,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I33" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J33" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K33" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -13964,16 +14084,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I34" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J34" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K34" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -14001,16 +14121,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I35" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J35" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K35" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -14037,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I36" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J36" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K36" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -14073,16 +14193,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I37" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J37" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K37" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -14109,16 +14229,16 @@
         <v>2.0100302408575209E-5</v>
       </c>
       <c r="H38" s="22">
-        <v>28.669501419201968</v>
+        <v>28.677447953948622</v>
       </c>
       <c r="I38" s="22">
-        <v>42.027519287815309</v>
+        <v>42.015753590947895</v>
       </c>
       <c r="J38" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K38" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -14145,16 +14265,16 @@
         <v>5.3008644830373748E-4</v>
       </c>
       <c r="H39" s="22">
-        <v>28.670011370101271</v>
+        <v>28.677957904847926</v>
       </c>
       <c r="I39" s="22">
-        <v>42.028029273961202</v>
+        <v>42.016263577093788</v>
       </c>
       <c r="J39" s="22">
-        <v>13.358017903859931</v>
+        <v>13.338305672245863</v>
       </c>
       <c r="K39" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -14181,16 +14301,16 @@
         <v>0.92675040937898789</v>
       </c>
       <c r="H40" s="22">
-        <v>29.596267004476857</v>
+        <v>29.604213539223512</v>
       </c>
       <c r="I40" s="22">
-        <v>42.954249596891891</v>
+        <v>42.942483900024477</v>
       </c>
       <c r="J40" s="22">
-        <v>13.357982592415034</v>
+        <v>13.338270360800966</v>
       </c>
       <c r="K40" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -14217,16 +14337,16 @@
         <v>1.4118644755378071</v>
       </c>
       <c r="H41" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I41" s="22">
-        <v>43.439363663050706</v>
+        <v>43.427597966183292</v>
       </c>
       <c r="J41" s="22">
-        <v>13.376315925924683</v>
+        <v>13.356603694310614</v>
       </c>
       <c r="K41" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -14253,16 +14373,16 @@
         <v>1.5078598918979371</v>
       </c>
       <c r="H42" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I42" s="22">
-        <v>43.5378608270927</v>
+        <v>43.526095130225286</v>
       </c>
       <c r="J42" s="22">
-        <v>13.474813089966677</v>
+        <v>13.455100858352608</v>
       </c>
       <c r="K42" s="21">
-        <v>42.030000935194764</v>
+        <v>42.01823523832735</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -14289,16 +14409,16 @@
         <v>0.93290029173953315</v>
       </c>
       <c r="H43" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I43" s="22">
-        <v>43.626411610413939</v>
+        <v>43.614645913546525</v>
       </c>
       <c r="J43" s="22">
-        <v>13.563363873287916</v>
+        <v>13.543651641673847</v>
       </c>
       <c r="K43" s="21">
-        <v>42.693511318674403</v>
+        <v>42.681745621806989</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -14325,16 +14445,16 @@
         <v>0.8637010019754191</v>
       </c>
       <c r="H44" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I44" s="22">
-        <v>43.591390241815077</v>
+        <v>43.579624544947663</v>
       </c>
       <c r="J44" s="22">
-        <v>13.528342504689054</v>
+        <v>13.508630273074985</v>
       </c>
       <c r="K44" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -14361,16 +14481,16 @@
         <v>0.87632786005178098</v>
       </c>
       <c r="H45" s="22">
-        <v>30.121650997800039</v>
+        <v>30.129597532546693</v>
       </c>
       <c r="I45" s="22">
-        <v>43.604017099891436</v>
+        <v>43.592251403024022</v>
       </c>
       <c r="J45" s="22">
-        <v>13.482366102091397</v>
+        <v>13.462653870477329</v>
       </c>
       <c r="K45" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -14397,16 +14517,16 @@
         <v>0.97324824344976679</v>
       </c>
       <c r="H46" s="22">
-        <v>30.228876125822254</v>
+        <v>30.236822660568908</v>
       </c>
       <c r="I46" s="22">
-        <v>43.700937483289422</v>
+        <v>43.689171786422008</v>
       </c>
       <c r="J46" s="22">
-        <v>13.472061357467169</v>
+        <v>13.4523491258531</v>
       </c>
       <c r="K46" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -14433,16 +14553,16 @@
         <v>1.0964936945370078</v>
       </c>
       <c r="H47" s="22">
-        <v>30.357273006783753</v>
+        <v>30.365219541530408</v>
       </c>
       <c r="I47" s="22">
-        <v>43.824182934376665</v>
+        <v>43.812417237509251</v>
       </c>
       <c r="J47" s="22">
-        <v>13.466909927592912</v>
+        <v>13.447197695978844</v>
       </c>
       <c r="K47" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -14469,16 +14589,16 @@
         <v>1.1302153869258449</v>
       </c>
       <c r="H48" s="22">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="I48" s="22">
-        <v>43.857904626765503</v>
+        <v>43.846138929898089</v>
       </c>
       <c r="J48" s="22">
-        <v>13.500461480538274</v>
+        <v>13.480749248924205</v>
       </c>
       <c r="K48" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -14504,16 +14624,16 @@
         <v>1.1421282428394894</v>
       </c>
       <c r="H49" s="22">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="I49" s="22">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
       <c r="J49" s="22">
-        <v>13.520322446542625</v>
+        <v>13.500610214928557</v>
       </c>
       <c r="K49" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -14524,31 +14644,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>3.0110631473926137</v>
+        <v>2.9763318609628255</v>
       </c>
       <c r="E50" s="22">
-        <v>2.7108134497034588</v>
+        <v>2.6795454112164876</v>
       </c>
       <c r="F50" s="22">
-        <v>3.6205785804890103</v>
+        <v>3.589310542002039</v>
       </c>
       <c r="G50" s="22">
-        <v>4.0215938640639726</v>
+        <v>3.9868625776341848</v>
       </c>
       <c r="H50" s="22">
-        <v>33.368506293619845</v>
+        <v>33.341721541936707</v>
       </c>
       <c r="I50" s="22">
-        <v>46.757231213994338</v>
+        <v>46.710734230697135</v>
       </c>
       <c r="J50" s="22">
-        <v>13.388724920374493</v>
+        <v>13.369012688760428</v>
       </c>
       <c r="K50" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -14559,31 +14679,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>0.68092431206184523</v>
+        <v>0.66482126800249319</v>
       </c>
       <c r="E51" s="22">
-        <v>0.59119816635425937</v>
+        <v>0.57721703812609571</v>
       </c>
       <c r="F51" s="22">
-        <v>4.2117767468432694</v>
+        <v>4.1665275801281343</v>
       </c>
       <c r="G51" s="22">
-        <v>4.8509981037116718</v>
+        <v>4.7988814709641812</v>
       </c>
       <c r="H51" s="22">
-        <v>34.049430605681692</v>
+        <v>34.006542809939198</v>
       </c>
       <c r="I51" s="22">
-        <v>47.586635453642039</v>
+        <v>47.522753124027133</v>
       </c>
       <c r="J51" s="22">
-        <v>13.537204847960346</v>
+        <v>13.516210314087935</v>
       </c>
       <c r="K51" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -14594,31 +14714,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>7.2863115388763804</v>
+        <v>7.2895794448468054</v>
       </c>
       <c r="E52" s="22">
-        <v>6.9602249977326087</v>
+        <v>6.9633466541021223</v>
       </c>
       <c r="F52" s="22">
-        <v>11.172001744575878</v>
+        <v>11.129874234230257</v>
       </c>
       <c r="G52" s="22">
-        <v>11.695410026309256</v>
+        <v>11.651308842103942</v>
       </c>
       <c r="H52" s="22">
-        <v>41.335742144558075</v>
+        <v>41.296122254786006</v>
       </c>
       <c r="I52" s="22">
-        <v>54.431047376239619</v>
+        <v>54.375180495166894</v>
       </c>
       <c r="J52" s="22">
-        <v>13.095305231681543</v>
+        <v>13.079058240380888</v>
       </c>
       <c r="K52" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -14629,31 +14749,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>75.376925485840445</v>
+        <v>75.290324576251948</v>
       </c>
       <c r="E53" s="22">
-        <v>90.629945275749009</v>
+        <v>90.525820098896176</v>
       </c>
       <c r="F53" s="22">
-        <v>101.80194702032489</v>
+        <v>101.65569433312643</v>
       </c>
       <c r="G53" s="22">
-        <v>84.668679336804203</v>
+        <v>84.547040976861254</v>
       </c>
       <c r="H53" s="22">
-        <v>116.71266763039853</v>
+        <v>116.58644683103796</v>
       </c>
       <c r="I53" s="22">
-        <v>127.40431668673457</v>
+        <v>127.2709126299242</v>
       </c>
       <c r="J53" s="22">
-        <v>10.691649056336047</v>
+        <v>10.684465798886237</v>
       </c>
       <c r="K53" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -14664,31 +14784,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>29.510445045161859</v>
+        <v>29.447376175865877</v>
       </c>
       <c r="E54" s="22">
-        <v>32.556424082302037</v>
+        <v>32.486845434740168</v>
       </c>
       <c r="F54" s="22">
-        <v>134.35837110262693</v>
+        <v>134.14253976786659</v>
       </c>
       <c r="G54" s="22">
-        <v>121.78780190226516</v>
+        <v>121.592163747185</v>
       </c>
       <c r="H54" s="22">
-        <v>146.2231126755604</v>
+        <v>146.03382300690384</v>
       </c>
       <c r="I54" s="22">
-        <v>164.52343925219552</v>
+        <v>164.31603540024796</v>
       </c>
       <c r="J54" s="22">
-        <v>18.300326576635115</v>
+        <v>18.282212393344111</v>
       </c>
       <c r="K54" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -14699,31 +14819,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>6.0366335519561423</v>
+        <v>5.9762858220456314</v>
       </c>
       <c r="E55" s="22">
-        <v>6.0934857742297055</v>
+        <v>6.0325696973216427</v>
       </c>
       <c r="F55" s="22">
-        <v>140.45185687685665</v>
+        <v>140.17510946518823</v>
       </c>
       <c r="G55" s="22">
-        <v>139.14144105219557</v>
+        <v>138.86727569387801</v>
       </c>
       <c r="H55" s="22">
-        <v>152.25974622751653</v>
+        <v>152.01010882894948</v>
       </c>
       <c r="I55" s="22">
-        <v>181.87707840212593</v>
+        <v>181.59114734694097</v>
       </c>
       <c r="J55" s="22">
-        <v>29.617332174609402</v>
+        <v>29.581038517991487</v>
       </c>
       <c r="K55" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -14734,31 +14854,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>1.9358313009107209</v>
+        <v>1.9028250831534077</v>
       </c>
       <c r="E56" s="22">
-        <v>1.911611187169286</v>
+        <v>1.8790179260306001</v>
       </c>
       <c r="F56" s="22">
-        <v>142.36346806402594</v>
+        <v>142.05412739121883</v>
       </c>
       <c r="G56" s="22">
-        <v>144.16721320439714</v>
+        <v>143.85395318526557</v>
       </c>
       <c r="H56" s="22">
-        <v>154.19557752842726</v>
+        <v>153.91293391210289</v>
       </c>
       <c r="I56" s="22">
-        <v>186.9028505543275</v>
+        <v>186.57782483832852</v>
       </c>
       <c r="J56" s="22">
-        <v>32.707273025900236</v>
+        <v>32.664890926225638</v>
       </c>
       <c r="K56" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -14769,31 +14889,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>4.1106147107202817</v>
+        <v>4.079479549959788</v>
       </c>
       <c r="E57" s="22">
-        <v>4.2930701939637403</v>
+        <v>4.2605530547882902</v>
       </c>
       <c r="F57" s="22">
-        <v>146.65653825798967</v>
+        <v>146.31468044600712</v>
       </c>
       <c r="G57" s="22">
-        <v>140.42363538202511</v>
+        <v>140.09630652705181</v>
       </c>
       <c r="H57" s="22">
-        <v>158.30619223914755</v>
+        <v>157.99241346206267</v>
       </c>
       <c r="I57" s="22">
-        <v>183.15927273195547</v>
+        <v>182.82017818011477</v>
       </c>
       <c r="J57" s="22">
-        <v>24.853080492807919</v>
+        <v>24.827764718052094</v>
       </c>
       <c r="K57" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -14804,31 +14924,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>14.512600059857027</v>
+        <v>14.461464550094032</v>
       </c>
       <c r="E58" s="22">
-        <v>16.897121902776902</v>
+        <v>16.837584470582655</v>
       </c>
       <c r="F58" s="22">
-        <v>163.55366016076658</v>
+        <v>163.15226491658979</v>
       </c>
       <c r="G58" s="22">
-        <v>140.4729676388792</v>
+        <v>140.12821729156065</v>
       </c>
       <c r="H58" s="22">
-        <v>172.81879229900457</v>
+        <v>172.45387801215671</v>
       </c>
       <c r="I58" s="22">
-        <v>183.20860498880955</v>
+        <v>182.8520889446236</v>
       </c>
       <c r="J58" s="22">
-        <v>10.389812689804984</v>
+        <v>10.398210932466895</v>
       </c>
       <c r="K58" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -14839,31 +14959,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>0.84579500274896502</v>
+        <v>0.8398855354893493</v>
       </c>
       <c r="E59" s="22">
-        <v>0.87234031864534278</v>
+        <v>0.86624538247815963</v>
       </c>
       <c r="F59" s="22">
-        <v>164.42600047941193</v>
+        <v>164.01851029906794</v>
       </c>
       <c r="G59" s="22">
-        <v>159.42251728482341</v>
+        <v>159.0274270306673</v>
       </c>
       <c r="H59" s="22">
-        <v>173.66458730175353</v>
+        <v>173.29376354764605</v>
       </c>
       <c r="I59" s="22">
-        <v>202.15815463475377</v>
+        <v>201.75129868373025</v>
       </c>
       <c r="J59" s="22">
-        <v>28.493567333000243</v>
+        <v>28.457535136084203</v>
       </c>
       <c r="K59" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -14874,31 +14994,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>8.7856076352194529E-2</v>
+        <v>8.5606623159053014E-2</v>
       </c>
       <c r="E60" s="22">
-        <v>8.8381059847689805E-2</v>
+        <v>8.6118165059506493E-2</v>
       </c>
       <c r="F60" s="22">
-        <v>164.5143815392596</v>
+        <v>164.10462846412744</v>
       </c>
       <c r="G60" s="22">
-        <v>163.5371661129164</v>
+        <v>163.12984697105051</v>
       </c>
       <c r="H60" s="22">
-        <v>173.75244337810571</v>
+        <v>173.37937017080512</v>
       </c>
       <c r="I60" s="22">
-        <v>206.27280346284675</v>
+        <v>205.85371862411347</v>
       </c>
       <c r="J60" s="22">
-        <v>32.520360084741043</v>
+        <v>32.474348453308352</v>
       </c>
       <c r="K60" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -14909,31 +15029,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>0.23777557377857525</v>
+        <v>0.23339106617176208</v>
       </c>
       <c r="E61" s="22">
-        <v>0.24862819446706252</v>
+        <v>0.24404356791108076</v>
       </c>
       <c r="F61" s="22">
-        <v>164.76300973372668</v>
+        <v>164.34867203203854</v>
       </c>
       <c r="G61" s="22">
-        <v>157.57110435884951</v>
+        <v>157.17485249784005</v>
       </c>
       <c r="H61" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I61" s="22">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
       <c r="J61" s="22">
-        <v>26.31652275689558</v>
+        <v>26.285962913926141</v>
       </c>
       <c r="K61" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -14944,31 +15064,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-0.94736813503957917</v>
+        <v>-0.9528562708400703</v>
       </c>
       <c r="E62" s="22">
-        <v>-0.87648665893176714</v>
+        <v>-0.88156417593241587</v>
       </c>
       <c r="F62" s="22">
-        <v>163.88652307479492</v>
+        <v>163.46710785610611</v>
       </c>
       <c r="G62" s="22">
-        <v>177.14002619585358</v>
+        <v>176.68669286842942</v>
       </c>
       <c r="H62" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I62" s="22">
-        <v>220.82303168082353</v>
+        <v>220.36342079233245</v>
       </c>
       <c r="J62" s="22">
-        <v>46.832812728939246</v>
+        <v>46.750659555355583</v>
       </c>
       <c r="K62" s="21">
-        <v>43.683005484969947</v>
+        <v>43.676727923903023</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -14988,22 +15108,22 @@
         <v>-6.8041134181880638</v>
       </c>
       <c r="F63" s="22">
-        <v>157.08240965660687</v>
+        <v>156.66299443791806</v>
       </c>
       <c r="G63" s="22">
-        <v>183.56493310061421</v>
+        <v>183.07480867020666</v>
       </c>
       <c r="H63" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I63" s="22">
-        <v>235.19915748494455</v>
+        <v>234.70275549347008</v>
       </c>
       <c r="J63" s="22">
-        <v>61.208938533060262</v>
+        <v>61.089994256493213</v>
       </c>
       <c r="K63" s="21">
-        <v>51.634224384330338</v>
+        <v>51.627946823263414</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -15023,22 +15143,22 @@
         <v>-29.759902460460534</v>
       </c>
       <c r="F64" s="22">
-        <v>127.32250719614633</v>
+        <v>126.90309197745752</v>
       </c>
       <c r="G64" s="22">
-        <v>165.39066362272214</v>
+        <v>164.84584744779755</v>
       </c>
       <c r="H64" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I64" s="22">
-        <v>255.6827037041661</v>
+        <v>255.13160996817459</v>
       </c>
       <c r="J64" s="22">
-        <v>81.692484752281814</v>
+        <v>81.518848731197721</v>
       </c>
       <c r="K64" s="21">
-        <v>90.292040081443972</v>
+        <v>90.285762520377048</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -15058,22 +15178,22 @@
         <v>-10.139793752290812</v>
       </c>
       <c r="F65" s="22">
-        <v>117.18271344385552</v>
+        <v>116.76329822516671</v>
       </c>
       <c r="G65" s="22">
-        <v>143.94841702156657</v>
+        <v>143.43320317277704</v>
       </c>
       <c r="H65" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I65" s="22">
-        <v>246.69628114626209</v>
+        <v>246.17478973640564</v>
       </c>
       <c r="J65" s="22">
-        <v>72.706062194377807</v>
+        <v>72.562028499428777</v>
       </c>
       <c r="K65" s="21">
-        <v>102.74786412469552</v>
+        <v>102.7415865636286</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -15093,22 +15213,22 @@
         <v>-16.42342212991672</v>
       </c>
       <c r="F66" s="22">
-        <v>100.7592913139388</v>
+        <v>100.33987609524999</v>
       </c>
       <c r="G66" s="22">
-        <v>130.85810681523861</v>
+        <v>130.31340388242307</v>
       </c>
       <c r="H66" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I66" s="22">
-        <v>254.93539772849959</v>
+        <v>254.3844172346171</v>
       </c>
       <c r="J66" s="22">
-        <v>80.945178776615307</v>
+        <v>80.771655997640238</v>
       </c>
       <c r="K66" s="21">
-        <v>124.07729091326097</v>
+        <v>124.07101335219404</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -15128,22 +15248,22 @@
         <v>-13.898653731927908</v>
       </c>
       <c r="F67" s="22">
-        <v>86.860637582010895</v>
+        <v>86.441222363322083</v>
       </c>
       <c r="G67" s="22">
-        <v>114.68470561865645</v>
+        <v>114.13093912296505</v>
       </c>
       <c r="H67" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I67" s="22">
-        <v>257.11280601379377</v>
+        <v>256.55276195703544</v>
       </c>
       <c r="J67" s="22">
-        <v>83.122587061909485</v>
+        <v>82.940000720058578</v>
       </c>
       <c r="K67" s="21">
-        <v>142.42810039513733</v>
+        <v>142.42182283407041</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -15163,22 +15283,22 @@
         <v>-3.3774902416594776</v>
       </c>
       <c r="F68" s="22">
-        <v>83.483147340351422</v>
+        <v>83.063732121662611</v>
       </c>
       <c r="G68" s="22">
-        <v>105.0952645238216</v>
+        <v>104.56727109331862</v>
       </c>
       <c r="H68" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I68" s="22">
-        <v>251.77521983437924</v>
+        <v>251.24094884280933</v>
       </c>
       <c r="J68" s="22">
-        <v>77.785000882494955</v>
+        <v>77.628187605832466</v>
       </c>
       <c r="K68" s="21">
-        <v>146.67995531055763</v>
+        <v>146.67367774949071</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -15198,22 +15318,22 @@
         <v>-1.8531247400095345</v>
       </c>
       <c r="F69" s="22">
-        <v>81.630022600341889</v>
+        <v>81.210607381653077</v>
       </c>
       <c r="G69" s="22">
-        <v>102.2864998193584</v>
+        <v>101.76095157958039</v>
       </c>
       <c r="H69" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I69" s="22">
-        <v>251.28851308538498</v>
+        <v>250.75668728454005</v>
       </c>
       <c r="J69" s="22">
-        <v>77.29829413350069</v>
+        <v>77.143926047563184</v>
       </c>
       <c r="K69" s="21">
-        <v>149.00201326602658</v>
+        <v>148.99573570495966</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -15233,22 +15353,57 @@
         <v>-0.47014935152794324</v>
       </c>
       <c r="F70" s="22">
-        <v>81.159873248813952</v>
+        <v>80.74045803012514</v>
       </c>
       <c r="G70" s="22">
-        <v>99.956499893239254</v>
+        <v>99.439948109902105</v>
       </c>
       <c r="H70" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I70" s="22">
-        <v>249.53754910060766</v>
+        <v>249.01471975620359</v>
       </c>
       <c r="J70" s="22">
-        <v>75.547330148723375</v>
+        <v>75.401958519226724</v>
       </c>
       <c r="K70" s="21">
-        <v>149.58104920736841</v>
+        <v>149.57477164630149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-5.5151607829980173E-2</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-4.5431531636377254E-2</v>
+      </c>
+      <c r="F71" s="22">
+        <v>80.695026498488758</v>
+      </c>
+      <c r="G71" s="22">
+        <v>97.95972741784044</v>
+      </c>
+      <c r="H71" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I71" s="22">
+        <v>247.5896506719719</v>
+      </c>
+      <c r="J71" s="22">
+        <v>73.97688943499503</v>
+      </c>
+      <c r="K71" s="21">
+        <v>149.62992325413146</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -971,6 +975,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +990,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1219,6 +1229,12 @@
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
               </c:numCache>
@@ -1262,7 +1278,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1502,6 +1518,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1533,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1747,6 +1769,12 @@
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
@@ -1790,7 +1818,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2030,6 +2058,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,7 +2073,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2278,6 +2312,12 @@
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
@@ -2300,11 +2340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483508224"/>
-        <c:axId val="483510144"/>
+        <c:axId val="517147264"/>
+        <c:axId val="517159168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483508224"/>
+        <c:axId val="517147264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,14 +2387,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483510144"/>
+        <c:crossAx val="517159168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483510144"/>
+        <c:axId val="517159168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483508224"/>
+        <c:crossAx val="517147264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2656,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2820,6 +2860,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,7 +2875,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3032,6 +3078,12 @@
                   <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>798.60485211015759</c:v>
                 </c:pt>
               </c:numCache>
@@ -3075,7 +3127,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3279,6 +3331,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3288,7 +3346,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3492,6 +3550,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1100.1291702505141</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1116.3002501559822</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1113.7391918934893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,7 +3598,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3738,6 +3802,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3747,7 +3817,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3951,6 +4021,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>301.52431814035651</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317.69539804582462</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>315.13433978333171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,11 +4048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485436800"/>
-        <c:axId val="485459072"/>
+        <c:axId val="518688768"/>
+        <c:axId val="518690304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485436800"/>
+        <c:axId val="518688768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,14 +4095,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485459072"/>
+        <c:crossAx val="518690304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485459072"/>
+        <c:axId val="518690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4151,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485436800"/>
+        <c:crossAx val="518688768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4288,7 +4364,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4492,6 +4568,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4501,7 +4583,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4704,6 +4786,12 @@
                   <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>173.61276123697687</c:v>
                 </c:pt>
               </c:numCache>
@@ -4747,7 +4835,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4951,6 +5039,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4960,7 +5054,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5164,6 +5258,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>247.5896506719719</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>252.6395454302473</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>251.82540118075337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,7 +5306,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5410,6 +5510,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5419,7 +5525,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5623,6 +5729,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>73.97688943499503</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.02678419327043</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.212639943776509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5644,11 +5756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505695616"/>
-        <c:axId val="511206528"/>
+        <c:axId val="312270848"/>
+        <c:axId val="312272384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505695616"/>
+        <c:axId val="312270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5691,14 +5803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511206528"/>
+        <c:crossAx val="312272384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511206528"/>
+        <c:axId val="312272384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5747,7 +5859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505695616"/>
+        <c:crossAx val="312270848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5840,22 +5952,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5883,22 +5995,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5926,22 +6038,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6254,7 +6366,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6850,7 +6962,7 @@
         <v>0.5372560236774544</v>
       </c>
       <c r="V9" s="9">
-        <v>0.11623036743162096</v>
+        <v>0.11658256234767994</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -6914,7 +7026,7 @@
         <v>0.39793050930471513</v>
       </c>
       <c r="V10" s="9">
-        <v>9.2107928430304797E-2</v>
+        <v>9.2371161110481603E-2</v>
       </c>
       <c r="X10" s="6">
         <v>43098</v>
@@ -7200,17 +7312,17 @@
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
-        <v>153.10026037530758</v>
+        <v>152.39757379984275</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
-        <v>-153.10026037530758</v>
+        <v>-152.39757379984275</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -7250,13 +7362,13 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>0.11623036743162096</v>
+        <v>0.11658256234767994</v>
       </c>
       <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
@@ -7296,7 +7408,7 @@
       <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
-        <v>9.2107928430304797E-2</v>
+        <v>9.2371161110481603E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
@@ -9639,6 +9751,76 @@
         <v>242.2498723892017</v>
       </c>
       <c r="K83" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I84" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J84" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K84" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I85" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J85" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K85" s="21">
         <v>720.0405566801802</v>
       </c>
     </row>
@@ -9658,7 +9840,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10177,7 +10359,7 @@
         <v>0.3713104050093306</v>
       </c>
       <c r="V8" s="9">
-        <v>9.161448749478418E-2</v>
+        <v>9.1479115748108075E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -10187,7 +10369,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -10251,7 +10433,7 @@
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>9.161448749478418E-2</v>
+        <v>9.1479115748108075E-2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -10477,11 +10659,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>565.58588458679435</v>
+        <v>564.04017688876081</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-565.58588458679435</v>
+        <v>-564.04017688876081</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -10523,7 +10705,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -10563,7 +10745,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>6.5682800424140098E-2</v>
+        <v>6.5670737731836848E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -12522,6 +12704,76 @@
       </c>
       <c r="K71" s="21">
         <v>786.43657754927915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-7.4506840642812007</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-5.8366697721802083</v>
+      </c>
+      <c r="F72" s="22">
+        <v>252.56984837208839</v>
+      </c>
+      <c r="G72" s="22">
+        <v>322.412988542422</v>
+      </c>
+      <c r="H72" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I72" s="22">
+        <v>1116.3002501559822</v>
+      </c>
+      <c r="J72" s="22">
+        <v>317.69539804582462</v>
+      </c>
+      <c r="K72" s="21">
+        <v>793.88726161356033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-2.0410423650172551</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-1.6117012650267728</v>
+      </c>
+      <c r="F73" s="22">
+        <v>250.95814710706162</v>
+      </c>
+      <c r="G73" s="22">
+        <v>317.8108879149118</v>
+      </c>
+      <c r="H73" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I73" s="22">
+        <v>1113.7391918934893</v>
+      </c>
+      <c r="J73" s="22">
+        <v>315.13433978333171</v>
+      </c>
+      <c r="K73" s="21">
+        <v>795.92830397857756</v>
       </c>
     </row>
   </sheetData>
@@ -12540,7 +12792,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12582,7 +12834,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -13059,7 +13311,7 @@
         <v>0.44460520206620852</v>
       </c>
       <c r="V8" s="9">
-        <v>0.10297744786565266</v>
+        <v>0.10289921272307767</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -13069,7 +13321,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -13133,7 +13385,7 @@
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.10297744786565266</v>
+        <v>0.10289921272307767</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -13359,11 +13611,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>143.63277580565705</v>
+        <v>143.24737155600297</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-143.63277580565705</v>
+        <v>-143.24737155600297</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -13405,7 +13657,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -13445,7 +13697,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>8.4185988221880725E-2</v>
+        <v>8.4214946140441116E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -15404,6 +15656,76 @@
       </c>
       <c r="K71" s="21">
         <v>149.62992325413146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-0.51656903938056609</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-0.40466658784405074</v>
+      </c>
+      <c r="F72" s="22">
+        <v>80.29035991064471</v>
+      </c>
+      <c r="G72" s="22">
+        <v>102.49305313673528</v>
+      </c>
+      <c r="H72" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I72" s="22">
+        <v>252.6395454302473</v>
+      </c>
+      <c r="J72" s="22">
+        <v>79.02678419327043</v>
+      </c>
+      <c r="K72" s="21">
+        <v>150.14649229351201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-7.406485549157811E-2</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-5.848502869698758E-2</v>
+      </c>
+      <c r="F73" s="22">
+        <v>80.231874881947718</v>
+      </c>
+      <c r="G73" s="22">
+        <v>101.60484403174978</v>
+      </c>
+      <c r="H73" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I73" s="22">
+        <v>251.82540118075337</v>
+      </c>
+      <c r="J73" s="22">
+        <v>78.212639943776509</v>
+      </c>
+      <c r="K73" s="21">
+        <v>150.22055714900358</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -119,11 +119,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -981,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +993,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1236,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1284,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1524,6 +1530,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,7 +1542,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1775,6 +1784,9 @@
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
@@ -1818,7 +1830,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2064,6 +2076,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2088,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2318,6 +2333,9 @@
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
@@ -2340,11 +2358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517147264"/>
-        <c:axId val="517159168"/>
+        <c:axId val="435696000"/>
+        <c:axId val="435697920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517147264"/>
+        <c:axId val="435696000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,14 +2405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517159168"/>
+        <c:crossAx val="435697920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517159168"/>
+        <c:axId val="435697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517147264"/>
+        <c:crossAx val="435696000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2656,7 +2674,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2866,6 +2884,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,7 +2896,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3085,6 +3106,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>916.96832409659487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3151,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3337,6 +3361,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,7 +3373,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3556,6 +3583,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1113.7391918934893</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1156.9432084028326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,7 +3628,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3808,6 +3838,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3850,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4027,6 +4060,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>315.13433978333171</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>239.97488430623775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,11 +4084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518688768"/>
-        <c:axId val="518690304"/>
+        <c:axId val="487793792"/>
+        <c:axId val="518508544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518688768"/>
+        <c:axId val="487793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,14 +4131,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518690304"/>
+        <c:crossAx val="518508544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518690304"/>
+        <c:axId val="518508544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518688768"/>
+        <c:crossAx val="487793792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4364,7 +4400,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4574,6 +4610,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,7 +4622,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4793,6 +4832,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>206.32126627124239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4835,7 +4877,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5045,6 +5087,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5054,7 +5099,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5264,6 +5309,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>251.82540118075337</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>260.50526200662438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,7 +5354,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5516,6 +5564,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5525,7 +5576,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5735,6 +5786,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>78.212639943776509</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.183995735381984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,11 +5810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312270848"/>
-        <c:axId val="312272384"/>
+        <c:axId val="100068736"/>
+        <c:axId val="100070528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="312270848"/>
+        <c:axId val="100068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5803,14 +5857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312272384"/>
+        <c:crossAx val="100070528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="312272384"/>
+        <c:axId val="100070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +5913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312270848"/>
+        <c:crossAx val="100068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5967,7 +6021,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +6064,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6053,7 +6107,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6363,10 +6417,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF85"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9824,6 +9876,41 @@
         <v>720.0405566801802</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="D86" s="21">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="E86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="F86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="G86" s="22">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="H86" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I86" s="22">
+        <v>732.48696091383636</v>
+      </c>
+      <c r="J86" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K86" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9840,7 +9927,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9882,13 +9969,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12773,6 +12860,41 @@
         <v>315.13433978333171</v>
       </c>
       <c r="K73" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>118.36347198643726</v>
+      </c>
+      <c r="E74" s="22">
+        <v>122.41542247020091</v>
+      </c>
+      <c r="F74" s="22">
+        <v>373.37356957726251</v>
+      </c>
+      <c r="G74" s="22">
+        <v>361.01490442425512</v>
+      </c>
+      <c r="H74" s="22">
+        <v>916.96832409659487</v>
+      </c>
+      <c r="I74" s="22">
+        <v>1156.9432084028326</v>
+      </c>
+      <c r="J74" s="22">
+        <v>239.97488430623775</v>
+      </c>
+      <c r="K74" s="21">
         <v>795.92830397857756</v>
       </c>
     </row>
@@ -12792,7 +12914,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12834,13 +12956,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15728,6 +15850,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>32.708505034265535</v>
+      </c>
+      <c r="E74" s="22">
+        <v>33.828219086012552</v>
+      </c>
+      <c r="F74" s="22">
+        <v>114.06009396796027</v>
+      </c>
+      <c r="G74" s="22">
+        <v>110.28470485762078</v>
+      </c>
+      <c r="H74" s="22">
+        <v>206.32126627124239</v>
+      </c>
+      <c r="I74" s="22">
+        <v>260.50526200662438</v>
+      </c>
+      <c r="J74" s="22">
+        <v>54.183995735381984</v>
+      </c>
+      <c r="K74" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -125,6 +125,10 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -735,7 +739,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -984,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1000,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1241,6 +1248,9 @@
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1284,7 +1294,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1533,6 +1543,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1555,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1788,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>732.48696091383636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,7 +1846,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2079,6 +2095,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2107,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2337,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>243.93578154473181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,11 +2380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435696000"/>
-        <c:axId val="435697920"/>
+        <c:axId val="443869440"/>
+        <c:axId val="444596224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435696000"/>
+        <c:axId val="443869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,14 +2427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435697920"/>
+        <c:crossAx val="444596224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435697920"/>
+        <c:axId val="444596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435696000"/>
+        <c:crossAx val="443869440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2674,7 +2696,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2887,6 +2909,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2896,7 +2921,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3109,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>916.96832409659487</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>945.11687376895588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,7 +3179,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3364,6 +3392,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3373,7 +3404,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3586,6 +3617,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1156.9432084028326</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1233.9924944827276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,7 +3662,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3841,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,7 +3887,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4063,6 +4100,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>239.97488430623775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>288.8756207137717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,11 +4124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487793792"/>
-        <c:axId val="518508544"/>
+        <c:axId val="444673408"/>
+        <c:axId val="444740736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487793792"/>
+        <c:axId val="444673408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,14 +4171,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518508544"/>
+        <c:crossAx val="444740736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518508544"/>
+        <c:axId val="444740736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4227,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487793792"/>
+        <c:crossAx val="444673408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,7 +4440,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4613,6 +4653,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4622,7 +4665,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4835,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>206.32126627124239</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>210.11457495856766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4877,7 +4923,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5090,6 +5136,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,7 +5148,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5312,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>260.50526200662438</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>279.23702120093338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,7 +5406,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5567,6 +5619,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5631,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5789,6 +5844,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>54.183995735381984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.122446242365726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5810,11 +5868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100068736"/>
-        <c:axId val="100070528"/>
+        <c:axId val="463481472"/>
+        <c:axId val="489632512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100068736"/>
+        <c:axId val="463481472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,14 +5915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100070528"/>
+        <c:crossAx val="489632512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100070528"/>
+        <c:axId val="489632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100068736"/>
+        <c:crossAx val="463481472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6021,7 +6079,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6122,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6107,7 +6165,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6418,7 +6476,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9911,6 +9969,41 @@
         <v>720.0405566801802</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-2.7394789909778305</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-2.4952671909951367</v>
+      </c>
+      <c r="F87" s="22">
+        <v>10.37721624437167</v>
+      </c>
+      <c r="G87" s="22">
+        <v>11.392834398208324</v>
+      </c>
+      <c r="H87" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I87" s="22">
+        <v>734.17287006936647</v>
+      </c>
+      <c r="J87" s="22">
+        <v>243.93578154473181</v>
+      </c>
+      <c r="K87" s="21">
+        <v>722.78003567115809</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9927,7 +10020,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12898,6 +12991,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>28.148549672360986</v>
+      </c>
+      <c r="E75" s="22">
+        <v>25.639237498393243</v>
+      </c>
+      <c r="F75" s="22">
+        <v>399.01280707565576</v>
+      </c>
+      <c r="G75" s="22">
+        <v>438.06419050415013</v>
+      </c>
+      <c r="H75" s="22">
+        <v>945.11687376895588</v>
+      </c>
+      <c r="I75" s="22">
+        <v>1233.9924944827276</v>
+      </c>
+      <c r="J75" s="22">
+        <v>288.8756207137717</v>
+      </c>
+      <c r="K75" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12914,7 +13042,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13012,7 +13140,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -15882,6 +16010,41 @@
         <v>54.183995735381984</v>
       </c>
       <c r="K74" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>3.7933086873252555</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3.4551528754089791</v>
+      </c>
+      <c r="F75" s="22">
+        <v>117.51524684336925</v>
+      </c>
+      <c r="G75" s="22">
+        <v>129.0164640519298</v>
+      </c>
+      <c r="H75" s="22">
+        <v>210.11457495856766</v>
+      </c>
+      <c r="I75" s="22">
+        <v>279.23702120093338</v>
+      </c>
+      <c r="J75" s="22">
+        <v>69.122446242365726</v>
+      </c>
+      <c r="K75" s="21">
         <v>150.22055714900358</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,16 +119,8 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -991,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +995,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1251,6 +1246,9 @@
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1294,7 +1292,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1546,6 +1544,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1556,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1804,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>732.48696091383636</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>734.17287006936647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1850,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2098,6 +2102,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,7 +2114,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2359,6 +2366,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>243.93578154473181</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>244.35813424587769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,11 +2390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443869440"/>
-        <c:axId val="444596224"/>
+        <c:axId val="617569280"/>
+        <c:axId val="617583360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443869440"/>
+        <c:axId val="617569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,14 +2437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444596224"/>
+        <c:crossAx val="617583360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444596224"/>
+        <c:axId val="617583360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443869440"/>
+        <c:crossAx val="617569280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2696,7 +2706,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2912,6 +2922,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +2934,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3137,6 +3150,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>945.11687376895588</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>958.07628092715584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,7 +3195,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3395,6 +3411,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,7 +3423,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3620,6 +3639,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1233.9924944827276</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1263.1917228889067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,7 +3684,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3878,6 +3900,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3887,7 +3912,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4103,6 +4128,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>288.8756207137717</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>305.11544196175089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444673408"/>
-        <c:axId val="444740736"/>
+        <c:axId val="617616512"/>
+        <c:axId val="617623936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444673408"/>
+        <c:axId val="617616512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444740736"/>
+        <c:crossAx val="617623936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444740736"/>
+        <c:axId val="617623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444673408"/>
+        <c:crossAx val="617616512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4440,7 +4468,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4656,6 +4684,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,7 +4696,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4881,6 +4912,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>210.11457495856766</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>211.29955723029914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4923,7 +4957,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5139,6 +5173,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,7 +5185,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5364,6 +5401,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>279.23702120093338</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>285.20487401919002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,7 +5446,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5622,6 +5662,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,7 +5674,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5847,6 +5890,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>69.122446242365726</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.905316788890872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5868,11 +5914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463481472"/>
-        <c:axId val="489632512"/>
+        <c:axId val="617768064"/>
+        <c:axId val="617769600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463481472"/>
+        <c:axId val="617768064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,14 +5961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489632512"/>
+        <c:crossAx val="617769600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489632512"/>
+        <c:axId val="617769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5971,7 +6017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463481472"/>
+        <c:crossAx val="617768064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6476,7 +6522,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10004,6 +10050,41 @@
         <v>722.78003567115809</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-10.306718303518862</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-9.0523360913416511</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1.3248801530300192</v>
+      </c>
+      <c r="G88" s="22">
+        <v>1.5084687958353886</v>
+      </c>
+      <c r="H88" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I88" s="22">
+        <v>734.59522277051235</v>
+      </c>
+      <c r="J88" s="22">
+        <v>244.35813424587769</v>
+      </c>
+      <c r="K88" s="21">
+        <v>733.08675397467698</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10020,7 +10101,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10062,13 +10143,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13023,6 +13104,41 @@
         <v>288.8756207137717</v>
       </c>
       <c r="K75" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>12.959407158199911</v>
+      </c>
+      <c r="E76" s="22">
+        <v>11.382178661127478</v>
+      </c>
+      <c r="F76" s="22">
+        <v>410.39498573678321</v>
+      </c>
+      <c r="G76" s="22">
+        <v>467.26341891032922</v>
+      </c>
+      <c r="H76" s="22">
+        <v>958.07628092715584</v>
+      </c>
+      <c r="I76" s="22">
+        <v>1263.1917228889067</v>
+      </c>
+      <c r="J76" s="22">
+        <v>305.11544196175089</v>
+      </c>
+      <c r="K76" s="21">
         <v>795.92830397857756</v>
       </c>
     </row>
@@ -13042,7 +13158,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13084,13 +13200,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13140,7 +13256,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -16045,6 +16161,41 @@
         <v>69.122446242365726</v>
       </c>
       <c r="K75" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>1.1849822717314793</v>
+      </c>
+      <c r="E76" s="22">
+        <v>1.0407636524161707</v>
+      </c>
+      <c r="F76" s="22">
+        <v>118.55601049578543</v>
+      </c>
+      <c r="G76" s="22">
+        <v>134.9843168701864</v>
+      </c>
+      <c r="H76" s="22">
+        <v>211.29955723029914</v>
+      </c>
+      <c r="I76" s="22">
+        <v>285.20487401919002</v>
+      </c>
+      <c r="J76" s="22">
+        <v>73.905316788890872</v>
+      </c>
+      <c r="K76" s="21">
         <v>150.22055714900358</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -731,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -986,6 +986,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +998,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1249,6 +1252,9 @@
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1292,7 +1298,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1547,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1565,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1808,6 +1817,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>734.17287006936647</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>734.59522277051235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,7 +1862,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2105,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,7 +2129,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2369,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>244.35813424587769</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>244.28865753065276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,11 +2408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617569280"/>
-        <c:axId val="617583360"/>
+        <c:axId val="486653952"/>
+        <c:axId val="486655488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617569280"/>
+        <c:axId val="486653952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,14 +2455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617583360"/>
+        <c:crossAx val="486655488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617583360"/>
+        <c:axId val="486655488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617569280"/>
+        <c:crossAx val="486653952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,7 +2724,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2925,6 +2943,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,7 +2955,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3153,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>958.07628092715584</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>981.77805809313656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3195,7 +3219,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3414,6 +3438,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3450,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3642,6 +3669,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1263.1917228889067</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1265.3723870028507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3714,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3903,6 +3933,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,7 +3945,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4131,6 +4164,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>305.11544196175089</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>283.59432890971414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,11 +4188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617616512"/>
-        <c:axId val="617623936"/>
+        <c:axId val="503011200"/>
+        <c:axId val="503012736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617616512"/>
+        <c:axId val="503011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617623936"/>
+        <c:crossAx val="503012736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617623936"/>
+        <c:axId val="503012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617616512"/>
+        <c:crossAx val="503011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4468,7 +4504,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4687,6 +4723,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4696,7 +4735,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4915,6 +4954,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>211.29955723029914</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>214.23048770829848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4957,7 +4999,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5176,6 +5218,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5185,7 +5230,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5404,6 +5449,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>285.20487401919002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>281.91872730679034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,7 +5494,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5665,6 +5713,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,7 +5725,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,6 +5944,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>73.905316788890872</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.688239598491862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,11 +5968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617768064"/>
-        <c:axId val="617769600"/>
+        <c:axId val="555021440"/>
+        <c:axId val="555022976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617768064"/>
+        <c:axId val="555021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5961,14 +6015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617769600"/>
+        <c:crossAx val="555022976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617769600"/>
+        <c:axId val="555022976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,7 +6071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617768064"/>
+        <c:crossAx val="555021440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6125,7 +6179,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6168,7 +6222,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6211,7 +6265,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6522,7 +6576,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10085,6 +10139,41 @@
         <v>733.08675397467698</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-1.318203589887289</v>
+      </c>
+      <c r="E89" s="22">
+        <v>-1.2136701774992764</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0.11120997553074274</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.12078849072320562</v>
+      </c>
+      <c r="H89" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I89" s="22">
+        <v>734.52574605528741</v>
+      </c>
+      <c r="J89" s="22">
+        <v>244.28865753065276</v>
+      </c>
+      <c r="K89" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10101,7 +10190,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13142,6 +13231,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>23.701777165980769</v>
+      </c>
+      <c r="E77" s="22">
+        <v>21.822228615341412</v>
+      </c>
+      <c r="F77" s="22">
+        <v>432.21721435212464</v>
+      </c>
+      <c r="G77" s="22">
+        <v>469.44408302427314</v>
+      </c>
+      <c r="H77" s="22">
+        <v>981.77805809313656</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1265.3723870028507</v>
+      </c>
+      <c r="J77" s="22">
+        <v>283.59432890971414</v>
+      </c>
+      <c r="K77" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13158,7 +13282,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16199,6 +16323,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>2.9309304779993259</v>
+      </c>
+      <c r="E77" s="22">
+        <v>2.6985079852313496</v>
+      </c>
+      <c r="F77" s="22">
+        <v>121.25451848101677</v>
+      </c>
+      <c r="G77" s="22">
+        <v>131.69817015778676</v>
+      </c>
+      <c r="H77" s="22">
+        <v>214.23048770829848</v>
+      </c>
+      <c r="I77" s="22">
+        <v>281.91872730679034</v>
+      </c>
+      <c r="J77" s="22">
+        <v>67.688239598491862</v>
+      </c>
+      <c r="K77" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -731,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -989,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,7 +1001,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1256,6 +1259,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>492.16591731121503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1304,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1556,6 +1562,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1574,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1820,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>734.59522277051235</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>734.52574605528741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1874,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2120,6 +2132,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2144,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2387,6 +2402,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>244.28865753065276</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>244.28147781463247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,11 +2426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486653952"/>
-        <c:axId val="486655488"/>
+        <c:axId val="390675840"/>
+        <c:axId val="393180672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486653952"/>
+        <c:axId val="390675840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,14 +2473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486655488"/>
+        <c:crossAx val="393180672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486655488"/>
+        <c:axId val="393180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486653952"/>
+        <c:crossAx val="390675840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2724,7 +2742,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2946,6 +2964,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,7 +2976,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3177,6 +3198,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>981.77805809313656</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1028.0677741950865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,7 +3243,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3441,6 +3465,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,7 +3477,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3672,6 +3699,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1265.3723870028507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1283.7581597462274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3744,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3936,6 +3966,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,7 +3978,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4167,6 +4200,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>283.59432890971414</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255.69038555114093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,11 +4224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503011200"/>
-        <c:axId val="503012736"/>
+        <c:axId val="477201536"/>
+        <c:axId val="477203456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503011200"/>
+        <c:axId val="477201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,14 +4271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503012736"/>
+        <c:crossAx val="477203456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503012736"/>
+        <c:axId val="477203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503011200"/>
+        <c:crossAx val="477201536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4504,7 +4540,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4726,6 +4762,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4735,7 +4774,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4957,6 +4996,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>214.23048770829848</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>222.22995241702472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,7 +5041,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5221,6 +5263,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5230,7 +5275,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5452,6 +5497,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>281.91872730679034</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>282.09000030238212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5494,7 +5542,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5716,6 +5764,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,7 +5776,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5947,6 +5998,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>67.688239598491862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.860047885357403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,11 +6022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555021440"/>
-        <c:axId val="555022976"/>
+        <c:axId val="537161728"/>
+        <c:axId val="537163264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555021440"/>
+        <c:axId val="537161728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,14 +6069,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555022976"/>
+        <c:crossAx val="537163264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555022976"/>
+        <c:axId val="537163264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6071,7 +6125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555021440"/>
+        <c:crossAx val="537161728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6576,7 +6630,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7258,6 +7312,16 @@
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
         <v>-18.350992705669857</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-18.350992705669857</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -7294,6 +7358,30 @@
         <v>12.737939751259454</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="R11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="S11" s="5">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="T11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.50702092015186617</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.92869255584543E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -7314,6 +7402,16 @@
         <f t="shared" si="5"/>
         <v>-255.17901000780921</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-255.17901000780921</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -7370,6 +7468,16 @@
         <f t="shared" si="5"/>
         <v>-51.512876965237467</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>51.863107777656694</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-51.863107777656694</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -7426,6 +7534,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -7482,6 +7600,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -7532,6 +7660,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
+        <v>-152.39757379984275</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
         <v>-152.39757379984275</v>
       </c>
     </row>
@@ -7580,8 +7718,18 @@
       <c r="AC16" s="1">
         <v>667.91817463193593</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43217</v>
       </c>
@@ -7620,8 +7768,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>9.2371161110481603E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43251</v>
       </c>
@@ -7656,8 +7810,12 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.92869255584543E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43280</v>
       </c>
@@ -7693,7 +7851,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43312</v>
       </c>
@@ -7729,7 +7887,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43343</v>
       </c>
@@ -7765,7 +7923,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43371</v>
       </c>
@@ -7801,7 +7959,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43404</v>
       </c>
@@ -7837,7 +7995,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43434</v>
       </c>
@@ -7874,7 +8032,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43462</v>
       </c>
@@ -7910,7 +8068,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43496</v>
       </c>
@@ -7946,7 +8104,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43524</v>
       </c>
@@ -7982,7 +8140,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43553</v>
       </c>
@@ -8018,7 +8176,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43585</v>
       </c>
@@ -8054,7 +8212,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43616</v>
       </c>
@@ -8090,7 +8248,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43644</v>
       </c>
@@ -8126,7 +8284,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43677</v>
       </c>
@@ -10171,6 +10329,41 @@
         <v>244.28865753065276</v>
       </c>
       <c r="K89" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="D90" s="21">
+        <v>1.928828786580346</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1.888102417436246</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1.9993123929669887</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2.042437561283287</v>
+      </c>
+      <c r="H90" s="22">
+        <v>492.16591731121503</v>
+      </c>
+      <c r="I90" s="22">
+        <v>736.44739512584749</v>
+      </c>
+      <c r="J90" s="22">
+        <v>244.28147781463247</v>
+      </c>
+      <c r="K90" s="21">
         <v>734.40495756456426</v>
       </c>
     </row>
@@ -10190,7 +10383,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10779,7 +10972,7 @@
         <v>0.14613439808293288</v>
       </c>
       <c r="V9" s="9">
-        <v>6.5682800424140098E-2</v>
+        <v>6.5670737731836848E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -10821,6 +11014,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1113.7391918934893</v>
+      </c>
+      <c r="S10" s="5">
+        <v>315.13433978333171</v>
+      </c>
+      <c r="T10" s="5">
+        <v>795.92830397857756</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.39460609204996772</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.10920178480959164</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -10831,6 +11048,16 @@
         <f>-Y10</f>
         <v>-185.03707217220185</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>185.03707217220185</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
+        <v>-185.03707217220185</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -10877,6 +11104,16 @@
         <f>-Y11</f>
         <v>-24.103041534476546</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>24.145505961333754</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="3"/>
+        <v>-24.145505961333754</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -10923,6 +11160,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -10969,6 +11216,16 @@
         <f>-Y13</f>
         <v>-25.382097087861155</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>25.382097087861155</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="3"/>
+        <v>-25.382097087861155</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -11015,6 +11272,16 @@
         <f>-Y14</f>
         <v>-564.04017688876081</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>564.04017688876081</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="3"/>
+        <v>-564.04017688876081</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -11056,6 +11323,16 @@
       </c>
       <c r="Z15" s="1">
         <v>915.30849147938511</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -11097,8 +11374,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>6.5670737731836848E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1113.7391918934893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -11133,8 +11416,12 @@
         <v>54.331568794218384</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>0.10920178480959164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -11170,7 +11457,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -11206,7 +11493,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -11242,7 +11529,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -11278,7 +11565,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -11314,7 +11601,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -11351,7 +11638,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -11387,7 +11674,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -11423,7 +11710,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -11459,7 +11746,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -11495,7 +11782,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -11531,7 +11818,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -11567,7 +11854,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -11603,7 +11890,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -11639,7 +11926,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -13263,6 +13550,41 @@
         <v>283.59432890971414</v>
       </c>
       <c r="K77" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>46.289716101949821</v>
+      </c>
+      <c r="E78" s="22">
+        <v>45.312329161927053</v>
+      </c>
+      <c r="F78" s="22">
+        <v>477.52954351405168</v>
+      </c>
+      <c r="G78" s="22">
+        <v>487.8298557676498</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1028.0677741950865</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1283.7581597462274</v>
+      </c>
+      <c r="J78" s="22">
+        <v>255.69038555114093</v>
+      </c>
+      <c r="K78" s="21">
         <v>795.92830397857756</v>
       </c>
     </row>
@@ -13282,7 +13604,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13871,7 +14193,7 @@
         <v>0.15140570731460512</v>
       </c>
       <c r="V9" s="9">
-        <v>8.4185988221880725E-2</v>
+        <v>8.4214946140441116E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -13913,6 +14235,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="R10" s="5">
+        <v>251.82540118075337</v>
+      </c>
+      <c r="S10" s="5">
+        <v>78.212639943776509</v>
+      </c>
+      <c r="T10" s="5">
+        <v>150.22055714900358</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.45050052419256387</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.14156375156582657</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -13923,6 +14269,16 @@
         <f>-Y10</f>
         <v>-25.663806972387135</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>25.663806972387135</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="2">-AB10</f>
+        <v>-25.663806972387135</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -13969,6 +14325,16 @@
         <f>-Y11</f>
         <v>-3.0056743465124249</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3.0136208812590795</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.0136208812590795</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -14015,6 +14381,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -14061,6 +14437,16 @@
         <f>-Y13</f>
         <v>-1.6879618273276691</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.6879618273276691</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6879618273276691</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -14107,6 +14493,16 @@
         <f>-Y14</f>
         <v>-143.24737155600297</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>143.24737155600297</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="2"/>
+        <v>-143.24737155600297</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -14148,6 +14544,16 @@
       </c>
       <c r="Z15" s="1">
         <v>199.89872415090301</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -14189,8 +14595,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>8.4214946140441116E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>251.82540118075337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -14225,8 +14637,12 @@
         <v>6.6897352547098636</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>0.14156375156582657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -14262,7 +14678,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -14298,7 +14714,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -14334,7 +14750,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -14370,7 +14786,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -14406,7 +14822,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -14443,7 +14859,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -14479,7 +14895,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -14515,7 +14931,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -14551,7 +14967,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -14587,7 +15003,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -14623,7 +15039,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -14659,7 +15075,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -14695,7 +15111,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -14731,7 +15147,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -16355,6 +16771,41 @@
         <v>67.688239598491862</v>
       </c>
       <c r="K77" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>7.9994647087262383</v>
+      </c>
+      <c r="E78" s="22">
+        <v>7.8305595394600838</v>
+      </c>
+      <c r="F78" s="22">
+        <v>129.08507802047686</v>
+      </c>
+      <c r="G78" s="22">
+        <v>131.86944315337854</v>
+      </c>
+      <c r="H78" s="22">
+        <v>222.22995241702472</v>
+      </c>
+      <c r="I78" s="22">
+        <v>282.09000030238212</v>
+      </c>
+      <c r="J78" s="22">
+        <v>59.860047885357403</v>
+      </c>
+      <c r="K78" s="21">
         <v>150.22055714900358</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -731,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -992,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1004,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1262,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>492.16591731121503</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>507.5142572355013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1310,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1565,6 +1571,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1583,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1832,6 +1841,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>734.52574605528741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>736.44739512584749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,7 +1886,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2135,6 +2147,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2159,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2405,6 +2420,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>244.28147781463247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>244.1512426053547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,11 +2444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390675840"/>
-        <c:axId val="393180672"/>
+        <c:axId val="91098496"/>
+        <c:axId val="105329408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390675840"/>
+        <c:axId val="91098496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,14 +2491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393180672"/>
+        <c:crossAx val="105329408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393180672"/>
+        <c:axId val="105329408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390675840"/>
+        <c:crossAx val="91098496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2742,7 +2760,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2967,6 +2985,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +2997,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3201,6 +3222,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1028.0677741950865</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1098.482223004449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,7 +3267,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3468,6 +3492,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,7 +3504,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3702,6 +3729,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1283.7581597462274</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1323.0663340910844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,7 +3774,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3969,6 +3999,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,7 +4011,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4203,6 +4236,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>255.69038555114093</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>224.5841110866354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,11 +4260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477201536"/>
-        <c:axId val="477203456"/>
+        <c:axId val="521567232"/>
+        <c:axId val="521569408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477201536"/>
+        <c:axId val="521567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,14 +4307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477203456"/>
+        <c:crossAx val="521569408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477203456"/>
+        <c:axId val="521569408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4363,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477201536"/>
+        <c:crossAx val="521567232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4540,7 +4576,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4765,6 +4801,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4774,7 +4813,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4999,6 +5038,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>222.22995241702472</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>237.2380908528302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +5083,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5266,6 +5308,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5275,7 +5320,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5500,6 +5545,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>282.09000030238212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>288.68953675593372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5542,7 +5590,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5767,6 +5815,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5776,7 +5827,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6001,6 +6052,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>59.860047885357403</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.451445903103519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,11 +6076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537161728"/>
-        <c:axId val="537163264"/>
+        <c:axId val="521741824"/>
+        <c:axId val="521743360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537161728"/>
+        <c:axId val="521741824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,14 +6123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537163264"/>
+        <c:crossAx val="521743360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537163264"/>
+        <c:axId val="521743360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,7 +6179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537161728"/>
+        <c:crossAx val="521741824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6233,7 +6287,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6276,7 +6330,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6319,7 +6373,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6630,7 +6684,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10367,6 +10421,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="D91" s="21">
+        <v>15.348339924286291</v>
+      </c>
+      <c r="E91" s="22">
+        <v>16.047530843121077</v>
+      </c>
+      <c r="F91" s="22">
+        <v>18.046843236088066</v>
+      </c>
+      <c r="G91" s="22">
+        <v>17.260542276291709</v>
+      </c>
+      <c r="H91" s="22">
+        <v>507.5142572355013</v>
+      </c>
+      <c r="I91" s="22">
+        <v>751.665499840856</v>
+      </c>
+      <c r="J91" s="22">
+        <v>244.1512426053547</v>
+      </c>
+      <c r="K91" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10383,7 +10472,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13588,6 +13677,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>70.414448809362455</v>
+      </c>
+      <c r="E79" s="22">
+        <v>73.622166608494567</v>
+      </c>
+      <c r="F79" s="22">
+        <v>551.15171012254621</v>
+      </c>
+      <c r="G79" s="22">
+        <v>527.13803011250684</v>
+      </c>
+      <c r="H79" s="22">
+        <v>1098.482223004449</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1323.0663340910844</v>
+      </c>
+      <c r="J79" s="22">
+        <v>224.5841110866354</v>
+      </c>
+      <c r="K79" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13604,7 +13728,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16809,6 +16933,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>15.008138435805467</v>
+      </c>
+      <c r="E79" s="22">
+        <v>15.691831535821196</v>
+      </c>
+      <c r="F79" s="22">
+        <v>144.77690955629805</v>
+      </c>
+      <c r="G79" s="22">
+        <v>138.46897960693013</v>
+      </c>
+      <c r="H79" s="22">
+        <v>237.2380908528302</v>
+      </c>
+      <c r="I79" s="22">
+        <v>288.68953675593372</v>
+      </c>
+      <c r="J79" s="22">
+        <v>51.451445903103519</v>
+      </c>
+      <c r="K79" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="15" windowWidth="17280" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="4860" yWindow="15" windowWidth="15600" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,6 +117,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -731,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -995,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1011,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1268,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>507.5142572355013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>516.24907214557675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1320,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1574,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1596,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1844,6 +1857,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>736.44739512584749</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>751.665499840856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +1902,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2150,6 +2166,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,7 +2178,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2423,6 +2442,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>244.1512426053547</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>244.5648762523258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,11 +2466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91098496"/>
-        <c:axId val="105329408"/>
+        <c:axId val="487062144"/>
+        <c:axId val="487260544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91098496"/>
+        <c:axId val="487062144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,14 +2513,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105329408"/>
+        <c:crossAx val="487260544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105329408"/>
+        <c:axId val="487260544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91098496"/>
+        <c:crossAx val="487062144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2760,7 +2782,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2988,6 +3010,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +3022,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3225,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1098.482223004449</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1135.9040565646148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,7 +3295,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3495,6 +3523,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,7 +3535,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3732,6 +3763,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1323.0663340910844</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1373.1205648472592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +3808,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4002,6 +4036,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,7 +4048,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4239,6 +4276,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>224.5841110866354</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>237.21650828264433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4260,11 +4300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521567232"/>
-        <c:axId val="521569408"/>
+        <c:axId val="487290752"/>
+        <c:axId val="487292288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521567232"/>
+        <c:axId val="487290752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,14 +4347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521569408"/>
+        <c:crossAx val="487292288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521569408"/>
+        <c:axId val="487292288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,7 +4403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521567232"/>
+        <c:crossAx val="487290752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4576,7 +4616,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4804,6 +4844,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,7 +4856,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5041,6 +5084,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>237.2380908528302</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>243.05271630763554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,7 +5129,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5311,6 +5357,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5320,7 +5369,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5548,6 +5597,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>288.68953675593372</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>297.82244897776945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,7 +5642,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5818,6 +5870,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,7 +5882,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6055,6 +6110,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>51.451445903103519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>54.769732670133919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,11 +6134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521741824"/>
-        <c:axId val="521743360"/>
+        <c:axId val="501168768"/>
+        <c:axId val="520708480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521741824"/>
+        <c:axId val="501168768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6123,14 +6181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521743360"/>
+        <c:crossAx val="520708480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521743360"/>
+        <c:axId val="520708480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521741824"/>
+        <c:crossAx val="501168768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6287,7 +6345,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6388,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6431,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6684,7 +6742,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10456,6 +10514,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.7348149100754835</v>
+      </c>
+      <c r="E92" s="22">
+        <v>8.9189920968759715</v>
+      </c>
+      <c r="F92" s="22">
+        <v>26.965835332964037</v>
+      </c>
+      <c r="G92" s="22">
+        <v>26.408990833338333</v>
+      </c>
+      <c r="H92" s="22">
+        <v>516.24907214557675</v>
+      </c>
+      <c r="I92" s="22">
+        <v>760.81394839790255</v>
+      </c>
+      <c r="J92" s="22">
+        <v>244.5648762523258</v>
+      </c>
+      <c r="K92" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10472,7 +10565,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13712,6 +13805,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>37.421833560165815</v>
+      </c>
+      <c r="E80" s="22">
+        <v>38.210888405744434</v>
+      </c>
+      <c r="F80" s="22">
+        <v>589.36259852829062</v>
+      </c>
+      <c r="G80" s="22">
+        <v>577.1922608686815</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1135.9040565646148</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1373.1205648472592</v>
+      </c>
+      <c r="J80" s="22">
+        <v>237.21650828264433</v>
+      </c>
+      <c r="K80" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13728,7 +13856,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13776,7 +13904,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -16968,6 +17096,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>5.8146254548053369</v>
+      </c>
+      <c r="E80" s="22">
+        <v>5.9372292385820558</v>
+      </c>
+      <c r="F80" s="22">
+        <v>150.71413879488011</v>
+      </c>
+      <c r="G80" s="22">
+        <v>147.60189182876584</v>
+      </c>
+      <c r="H80" s="22">
+        <v>243.05271630763554</v>
+      </c>
+      <c r="I80" s="22">
+        <v>297.82244897776945</v>
+      </c>
+      <c r="J80" s="22">
+        <v>54.769732670133919</v>
+      </c>
+      <c r="K80" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -123,7 +123,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1002,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1014,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1278,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>516.24907214557675</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1326,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1587,6 +1593,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1605,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1860,6 +1869,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>751.665499840856</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>760.81394839790255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,7 +1914,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2169,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2193,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2445,6 +2460,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>244.5648762523258</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243.4776137717007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,11 +2484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487062144"/>
-        <c:axId val="487260544"/>
+        <c:axId val="500841856"/>
+        <c:axId val="533935232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487062144"/>
+        <c:axId val="500841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,14 +2531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487260544"/>
+        <c:crossAx val="533935232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487260544"/>
+        <c:axId val="533935232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,7 +2587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487062144"/>
+        <c:crossAx val="500841856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2782,7 +2800,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3013,6 +3031,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,7 +3043,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3253,6 +3274,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1135.9040565646148</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,7 +3319,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3526,6 +3550,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,7 +3562,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3766,6 +3793,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1373.1205648472592</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1392.6767646560147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,7 +3838,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4039,6 +4069,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,7 +4081,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4279,6 +4312,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>237.21650828264433</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>213.45340830998339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,11 +4336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487290752"/>
-        <c:axId val="487292288"/>
+        <c:axId val="554355712"/>
+        <c:axId val="566522624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487290752"/>
+        <c:axId val="554355712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,14 +4383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487292288"/>
+        <c:crossAx val="566522624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487292288"/>
+        <c:axId val="566522624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4439,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487290752"/>
+        <c:crossAx val="554355712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4616,7 +4652,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4847,6 +4883,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,7 +4895,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5087,6 +5126,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>243.05271630763554</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5129,7 +5171,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5360,6 +5402,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5369,7 +5414,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5600,6 +5645,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>297.82244897776945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>298.98761775676576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,7 +5690,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5873,6 +5921,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5882,7 +5933,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6113,6 +6164,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>54.769732670133919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>48.692938593924282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,11 +6188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501168768"/>
-        <c:axId val="520708480"/>
+        <c:axId val="683872640"/>
+        <c:axId val="683874944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501168768"/>
+        <c:axId val="683872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,14 +6235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520708480"/>
+        <c:crossAx val="683874944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520708480"/>
+        <c:axId val="683874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6237,7 +6291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501168768"/>
+        <c:crossAx val="683872640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6345,7 +6399,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,7 +6442,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6431,7 +6485,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6742,7 +6796,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10549,6 +10603,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="D93" s="21">
+        <v>20.090836523021526</v>
+      </c>
+      <c r="E93" s="22">
+        <v>21.395308481115116</v>
+      </c>
+      <c r="F93" s="22">
+        <v>48.361143814079156</v>
+      </c>
+      <c r="G93" s="22">
+        <v>45.412564875734745</v>
+      </c>
+      <c r="H93" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I93" s="22">
+        <v>779.81752244029894</v>
+      </c>
+      <c r="J93" s="22">
+        <v>243.4776137717007</v>
+      </c>
+      <c r="K93" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10565,7 +10654,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13840,6 +13929,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>43.319299781416376</v>
+      </c>
+      <c r="E81" s="22">
+        <v>46.131965732102678</v>
+      </c>
+      <c r="F81" s="22">
+        <v>635.4945642603933</v>
+      </c>
+      <c r="G81" s="22">
+        <v>596.74846067743704</v>
+      </c>
+      <c r="H81" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1392.6767646560147</v>
+      </c>
+      <c r="J81" s="22">
+        <v>213.45340830998339</v>
+      </c>
+      <c r="K81" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13856,7 +13980,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13898,13 +14022,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -17131,6 +17255,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>7.2419628552059425</v>
+      </c>
+      <c r="E81" s="22">
+        <v>7.7121741107376156</v>
+      </c>
+      <c r="F81" s="22">
+        <v>158.42631290561772</v>
+      </c>
+      <c r="G81" s="22">
+        <v>148.7670606077622</v>
+      </c>
+      <c r="H81" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I81" s="22">
+        <v>298.98761775676576</v>
+      </c>
+      <c r="J81" s="22">
+        <v>48.692938593924282</v>
+      </c>
+      <c r="K81" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -123,8 +123,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,6 +676,14 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
+            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -735,7 +743,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1005,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +1025,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1283,6 +1294,9 @@
                   <c:v>516.24907214557675</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1326,7 +1340,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1596,6 +1610,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,7 +1622,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1872,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>760.81394839790255</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>779.81752244029894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,7 +1934,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2184,6 +2204,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,7 +2216,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2463,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>243.4776137717007</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>256.97665984452465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,11 +2510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500841856"/>
-        <c:axId val="533935232"/>
+        <c:axId val="440347648"/>
+        <c:axId val="440394880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500841856"/>
+        <c:axId val="440347648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,14 +2557,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533935232"/>
+        <c:crossAx val="440394880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533935232"/>
+        <c:axId val="440394880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500841856"/>
+        <c:crossAx val="440347648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,7 +2826,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3034,6 +3060,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,7 +3072,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3276,6 +3305,9 @@
                   <c:v>1135.9040565646148</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3319,7 +3351,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3553,6 +3585,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,7 +3597,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3796,6 +3831,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1392.6767646560147</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1570.0623623780184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,7 +3876,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4072,6 +4110,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,7 +4122,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4315,6 +4356,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>213.45340830998339</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390.83900603198708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,11 +4380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554355712"/>
-        <c:axId val="566522624"/>
+        <c:axId val="448347136"/>
+        <c:axId val="448382464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554355712"/>
+        <c:axId val="448347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,14 +4427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566522624"/>
+        <c:crossAx val="448382464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566522624"/>
+        <c:axId val="448382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4439,7 +4483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554355712"/>
+        <c:crossAx val="448347136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4652,7 +4696,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4886,6 +4930,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4895,7 +4942,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5128,6 +5175,9 @@
                   <c:v>243.05271630763554</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5171,7 +5221,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5405,6 +5455,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5414,7 +5467,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5648,6 +5701,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>298.98761775676576</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>343.20915447811092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5690,7 +5746,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5924,6 +5980,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5933,7 +5992,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6167,6 +6226,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>48.692938593924282</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.914475315269442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6188,11 +6250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683872640"/>
-        <c:axId val="683874944"/>
+        <c:axId val="615190912"/>
+        <c:axId val="615199488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683872640"/>
+        <c:axId val="615190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,14 +6297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683874944"/>
+        <c:crossAx val="615199488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683874944"/>
+        <c:axId val="615199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683872640"/>
+        <c:crossAx val="615190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6399,7 +6461,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6442,7 +6504,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6485,7 +6547,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6796,7 +6858,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10638,6 +10700,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-42.834888317307588</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-35.163597817452207</v>
+      </c>
+      <c r="F94" s="22">
+        <v>13.19754599662695</v>
+      </c>
+      <c r="G94" s="22">
+        <v>16.076722631251087</v>
+      </c>
+      <c r="H94" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I94" s="22">
+        <v>793.31656851312289</v>
+      </c>
+      <c r="J94" s="22">
+        <v>256.97665984452465</v>
+      </c>
+      <c r="K94" s="21">
+        <v>777.23984588187182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10654,7 +10751,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10822,7 +10919,7 @@
         <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -13962,6 +14059,41 @@
       </c>
       <c r="K81" s="21">
         <v>795.92830397857756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-27.314527429808216</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-22.422774865213285</v>
+      </c>
+      <c r="F82" s="22">
+        <v>613.07178939518008</v>
+      </c>
+      <c r="G82" s="22">
+        <v>746.81953096963264</v>
+      </c>
+      <c r="H82" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1570.0623623780184</v>
+      </c>
+      <c r="J82" s="22">
+        <v>390.83900603198708</v>
+      </c>
+      <c r="K82" s="21">
+        <v>823.24283140838577</v>
       </c>
     </row>
   </sheetData>
@@ -13980,7 +14112,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14022,7 +14154,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -14148,7 +14280,7 @@
         <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -17288,6 +17420,41 @@
       </c>
       <c r="K81" s="21">
         <v>150.22055714900358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-3.6259740166174361</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-2.9765991467602251</v>
+      </c>
+      <c r="F82" s="22">
+        <v>155.44971375885748</v>
+      </c>
+      <c r="G82" s="22">
+        <v>189.36262331248986</v>
+      </c>
+      <c r="H82" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I82" s="22">
+        <v>343.20915447811092</v>
+      </c>
+      <c r="J82" s="22">
+        <v>92.914475315269442</v>
+      </c>
+      <c r="K82" s="21">
+        <v>153.84653116562103</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -119,12 +119,12 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,14 +676,6 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -743,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1016,6 +1008,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1020,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1297,6 +1292,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1340,7 +1338,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1613,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,7 +1623,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1892,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>779.81752244029894</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>793.31656851312289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,7 +1938,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2207,6 +2211,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2223,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2489,6 +2496,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>256.97665984452465</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,11 +2520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440347648"/>
-        <c:axId val="440394880"/>
+        <c:axId val="485755520"/>
+        <c:axId val="488056704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440347648"/>
+        <c:axId val="485755520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,14 +2567,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440394880"/>
+        <c:crossAx val="488056704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440394880"/>
+        <c:axId val="488056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2623,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440347648"/>
+        <c:crossAx val="485755520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,7 +2836,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3063,6 +3073,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,7 +3085,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3308,6 +3321,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3351,7 +3367,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3588,6 +3604,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3597,7 +3616,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3834,6 +3853,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1570.0623623780184</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1673.1503837648179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +3898,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4113,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,7 +4147,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4359,6 +4384,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>390.83900603198708</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>493.92702741878657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,11 +4408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448347136"/>
-        <c:axId val="448382464"/>
+        <c:axId val="488076800"/>
+        <c:axId val="488078720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448347136"/>
+        <c:axId val="488076800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,14 +4455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448382464"/>
+        <c:crossAx val="488078720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448382464"/>
+        <c:axId val="488078720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4483,7 +4511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448347136"/>
+        <c:crossAx val="488076800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4696,7 +4724,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4933,6 +4961,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4942,7 +4973,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5178,6 +5209,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5221,7 +5255,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5458,6 +5492,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5467,7 +5504,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5704,6 +5741,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>343.20915447811092</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>369.34802384666273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,7 +5786,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5983,6 +6023,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +6035,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6229,6 +6272,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>92.914475315269442</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>119.05334468382125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,11 +6296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615190912"/>
-        <c:axId val="615199488"/>
+        <c:axId val="541444352"/>
+        <c:axId val="543671808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615190912"/>
+        <c:axId val="541444352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6297,14 +6343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615199488"/>
+        <c:crossAx val="543671808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615199488"/>
+        <c:axId val="543671808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,7 +6399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615190912"/>
+        <c:crossAx val="541444352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6857,8 +6903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6961,7 +7009,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-109.96867428250766</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -10733,6 +10781,41 @@
       </c>
       <c r="K94" s="21">
         <v>777.23984588187182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-170.74656283516708</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-123.16622027913461</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-109.96867428250766</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-152.45067284458318</v>
+      </c>
+      <c r="H95" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I95" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J95" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K95" s="21">
+        <v>947.9864087170389</v>
       </c>
     </row>
   </sheetData>
@@ -10751,7 +10834,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10793,13 +10876,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -10919,7 +11002,7 @@
         <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -14094,6 +14177,41 @@
       </c>
       <c r="K82" s="21">
         <v>823.24283140838577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-134.89968764171493</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-97.308457445820153</v>
+      </c>
+      <c r="F83" s="22">
+        <v>515.76333194935989</v>
+      </c>
+      <c r="G83" s="22">
+        <v>715.00786471471713</v>
+      </c>
+      <c r="H83" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1673.1503837648179</v>
+      </c>
+      <c r="J83" s="22">
+        <v>493.92702741878657</v>
+      </c>
+      <c r="K83" s="21">
+        <v>958.14251905010065</v>
       </c>
     </row>
   </sheetData>
@@ -14112,7 +14230,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14154,13 +14272,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14280,7 +14398,7 @@
         <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -17455,6 +17573,41 @@
       </c>
       <c r="K82" s="21">
         <v>153.84653116562103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-39.797021254570176</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-28.707158755668051</v>
+      </c>
+      <c r="F83" s="22">
+        <v>126.74255500318944</v>
+      </c>
+      <c r="G83" s="22">
+        <v>175.70447142647154</v>
+      </c>
+      <c r="H83" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I83" s="22">
+        <v>369.34802384666273</v>
+      </c>
+      <c r="J83" s="22">
+        <v>119.05334468382125</v>
+      </c>
+      <c r="K83" s="21">
+        <v>193.64355242019121</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,10 +117,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -735,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1011,6 +1007,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1019,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1295,6 +1294,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1338,7 +1340,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1614,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1628,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1896,6 +1901,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>793.31656851312289</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,7 +1946,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2214,6 +2222,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2234,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2498,6 +2509,9 @@
                   <c:v>256.97665984452465</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2520,11 +2534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485755520"/>
-        <c:axId val="488056704"/>
+        <c:axId val="493067648"/>
+        <c:axId val="494064768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485755520"/>
+        <c:axId val="493067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,14 +2581,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488056704"/>
+        <c:crossAx val="494064768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488056704"/>
+        <c:axId val="494064768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485755520"/>
+        <c:crossAx val="493067648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,7 +2850,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3076,6 +3090,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,7 +3102,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3324,6 +3341,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3367,7 +3387,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3607,6 +3627,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,7 +3639,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3856,6 +3879,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1673.1503837648179</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1712.5443870591098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,7 +3924,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4138,6 +4164,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,7 +4176,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4387,6 +4416,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>493.92702741878657</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>533.32103071307847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,11 +4440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488076800"/>
-        <c:axId val="488078720"/>
+        <c:axId val="497457024"/>
+        <c:axId val="497471872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488076800"/>
+        <c:axId val="497457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,14 +4487,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488078720"/>
+        <c:crossAx val="497471872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488078720"/>
+        <c:axId val="497471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,7 +4543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488076800"/>
+        <c:crossAx val="497457024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4724,7 +4756,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4964,6 +4996,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,7 +5008,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5212,6 +5247,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5255,7 +5293,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5495,6 +5533,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,7 +5545,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5744,6 +5785,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>369.34802384666273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>379.02862019780639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5830,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6026,6 +6070,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,7 +6082,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6275,6 +6322,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>119.05334468382125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>128.73394103496491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6296,11 +6346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541444352"/>
-        <c:axId val="543671808"/>
+        <c:axId val="607698944"/>
+        <c:axId val="607700864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541444352"/>
+        <c:axId val="607698944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6343,14 +6393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543671808"/>
+        <c:crossAx val="607700864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543671808"/>
+        <c:axId val="607700864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541444352"/>
+        <c:crossAx val="607698944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6906,7 +6956,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7009,7 +7059,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-109.96867428250766</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -10794,16 +10844,16 @@
         <v>1.0544077963362068</v>
       </c>
       <c r="D95" s="21">
-        <v>-170.74656283516708</v>
+        <v>-18.295889990583905</v>
       </c>
       <c r="E95" s="22">
-        <v>-123.16622027913461</v>
+        <v>-13.19754599662695</v>
       </c>
       <c r="F95" s="22">
-        <v>-109.96867428250766</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-152.45067284458318</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>536.33990866859824</v>
@@ -10815,7 +10865,42 @@
         <v>259.19582720385745</v>
       </c>
       <c r="K95" s="21">
-        <v>947.9864087170389</v>
+        <v>795.53573587245569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.0582540618336882</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I96" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J96" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K96" s="21">
+        <v>795.53573587245569</v>
       </c>
     </row>
   </sheetData>
@@ -10834,7 +10919,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10876,13 +10961,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14212,6 +14297,41 @@
       </c>
       <c r="K83" s="21">
         <v>958.14251905010065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-198.68620792120544</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-135.83617028981223</v>
+      </c>
+      <c r="F84" s="22">
+        <v>379.92716165954766</v>
+      </c>
+      <c r="G84" s="22">
+        <v>555.71566008780383</v>
+      </c>
+      <c r="H84" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1712.5443870591098</v>
+      </c>
+      <c r="J84" s="22">
+        <v>533.32103071307847</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1156.828726971306</v>
       </c>
     </row>
   </sheetData>
@@ -14230,7 +14350,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14272,13 +14392,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -17610,6 +17730,41 @@
         <v>193.64355242019121</v>
       </c>
     </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-71.135392546027958</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-48.633266478903906</v>
+      </c>
+      <c r="F84" s="22">
+        <v>78.109288524285532</v>
+      </c>
+      <c r="G84" s="22">
+        <v>114.2496752315872</v>
+      </c>
+      <c r="H84" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I84" s="22">
+        <v>379.02862019780639</v>
+      </c>
+      <c r="J84" s="22">
+        <v>128.73394103496491</v>
+      </c>
+      <c r="K84" s="21">
+        <v>264.77894496621917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -12,9 +12,9 @@
     <sheet name="模型四 (3)MA250" sheetId="14" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型四 (1)MA250'!$O$1:$O$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型四 (1)平均线'!$O$1:$O$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'模型四 (3)MA250'!$O$1:$O$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型四 (1)MA250'!$O$1:$O$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型四 (1)平均线'!$O$1:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'模型四 (3)MA250'!$O$1:$O$64</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('模型四 (1)MA250'!J1,0,0,COUNTA('模型四 (1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型四 (1)平均线'!J1,0,0,COUNTA('模型四 (1)平均线'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('模型四 (3)MA250'!J1,0,0,COUNTA('模型四 (3)MA250'!J:J)-1)</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,6 +117,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -731,7 +735,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1010,6 +1014,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1026,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1297,6 +1304,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1340,7 +1350,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1619,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +1641,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1903,6 +1916,9 @@
                   <c:v>793.31656851312289</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1946,7 +1962,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2225,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,7 +2253,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2512,6 +2531,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2534,11 +2556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493067648"/>
-        <c:axId val="494064768"/>
+        <c:axId val="418409088"/>
+        <c:axId val="425953920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493067648"/>
+        <c:axId val="418409088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,14 +2603,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494064768"/>
+        <c:crossAx val="425953920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494064768"/>
+        <c:axId val="425953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493067648"/>
+        <c:crossAx val="418409088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2850,7 +2872,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3093,6 +3115,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,7 +3127,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3344,6 +3369,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3387,7 +3415,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3630,6 +3658,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,7 +3670,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3881,7 +3912,10 @@
                   <c:v>1673.1503837648179</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1712.5443870591098</c:v>
+                  <c:v>1712.5013708792499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1682.8920126129276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,7 +3958,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4167,6 +4201,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,7 +4213,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4418,7 +4455,10 @@
                   <c:v>493.92702741878657</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>533.32103071307847</c:v>
+                  <c:v>533.27801453321854</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>503.66865626689628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,11 +4480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497457024"/>
-        <c:axId val="497471872"/>
+        <c:axId val="441964032"/>
+        <c:axId val="441965568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497457024"/>
+        <c:axId val="441964032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,14 +4527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497471872"/>
+        <c:crossAx val="441965568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497471872"/>
+        <c:axId val="441965568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497457024"/>
+        <c:crossAx val="441964032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4756,7 +4796,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4999,6 +5039,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,7 +5051,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5250,6 +5293,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5293,7 +5339,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5536,6 +5582,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5545,7 +5594,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5787,7 +5836,10 @@
                   <c:v>369.34802384666273</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>379.02862019780639</c:v>
+                  <c:v>379.00955725045685</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>372.93260702767509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,7 +5882,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6073,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6082,7 +6137,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6324,7 +6379,10 @@
                   <c:v>119.05334468382125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>128.73394103496491</c:v>
+                  <c:v>128.71487808761538</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>122.63792786483361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,11 +6404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607698944"/>
-        <c:axId val="607700864"/>
+        <c:axId val="447155584"/>
+        <c:axId val="447186432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607698944"/>
+        <c:axId val="447155584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6393,14 +6451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607700864"/>
+        <c:crossAx val="447186432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607700864"/>
+        <c:axId val="447186432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,7 +6507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607698944"/>
+        <c:crossAx val="447155584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6549,7 +6607,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6587,12 +6645,12 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6635,7 +6693,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6956,7 +7014,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7774,6 +7832,30 @@
         <v>12.856156424569493</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>58.549224377619737</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="R12" s="5">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="S12" s="5">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="T12" s="5">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.48326783633774539</v>
+      </c>
+      <c r="V12" s="9">
+        <v>7.6764414959156646E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -8176,6 +8258,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="7">-Y19</f>
+        <v>-18.350992705669857</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -8212,6 +8304,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="7"/>
+        <v>-255.17901000780921</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -8248,6 +8350,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>51.863107777656694</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="7"/>
+        <v>-51.863107777656694</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -8284,6 +8396,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -8320,6 +8442,17 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="O23" s="3"/>
+      <c r="X23" s="6">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -8356,7 +8489,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="O24" s="3"/>
+      <c r="X24" s="6">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="7"/>
+        <v>-152.39757379984275</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -8393,6 +8535,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="6">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -8429,6 +8581,16 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>58.549224377619737</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="7"/>
+        <v>-58.549224377619737</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -8465,6 +8627,12 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>795.53573587245569</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -8501,6 +8669,10 @@
         <v>26.159229960389794</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>7.6764414959156646E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -8753,6 +8925,7 @@
         <v>63.097347809009023</v>
       </c>
       <c r="L35" s="7"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
       <c r="A36" s="15">
@@ -8789,7 +8962,6 @@
         <v>78.458147741015196</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
       <c r="A37" s="15">
@@ -10841,7 +11013,7 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C95" s="20">
-        <v>1.0544077963362068</v>
+        <v>1.054228873315364</v>
       </c>
       <c r="D95" s="21">
         <v>-18.295889990583905</v>
@@ -10900,6 +11072,41 @@
         <v>259.19582720385745</v>
       </c>
       <c r="K96" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.0632972391991562</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I97" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J97" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K97" s="21">
         <v>795.53573587245569</v>
       </c>
     </row>
@@ -10919,7 +11126,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10961,13 +11168,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11594,6 +11801,16 @@
         <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
         <v>-185.03707217220185</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>185.03707217220185</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="4">-AE10</f>
+        <v>-185.03707217220185</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -11630,6 +11847,30 @@
         <v>0</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P11" s="10">
+        <v>380.61850423587373</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1682.8920126129276</v>
+      </c>
+      <c r="S11" s="5">
+        <v>503.66865626689628</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1265.1349603314209</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.42711896228681867</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.1139839649258414</v>
+      </c>
       <c r="X11" s="6">
         <v>43830</v>
       </c>
@@ -11650,6 +11891,16 @@
         <f t="shared" si="3"/>
         <v>-24.145505961333754</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>24.145505961333754</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="4"/>
+        <v>-24.145505961333754</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -11706,6 +11957,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AD12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -11762,6 +12023,16 @@
         <f t="shared" si="3"/>
         <v>-25.382097087861155</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>25.382097087861155</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="4"/>
+        <v>-25.382097087861155</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -11818,6 +12089,16 @@
         <f t="shared" si="3"/>
         <v>-564.04017688876081</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>564.04017688876081</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="4"/>
+        <v>-564.04017688876081</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -11868,6 +12149,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11916,8 +12207,18 @@
       <c r="AC16" s="1">
         <v>1113.7391918934893</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>380.61850423587373</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="4"/>
+        <v>-380.61850423587373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -11956,8 +12257,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.10920178480959164</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1682.8920126129276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -11992,8 +12299,12 @@
         <v>60.404466966716427</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>0.1139839649258414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -12029,7 +12340,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -12065,7 +12376,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -12101,7 +12412,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -12136,8 +12447,9 @@
         <v>125.65722302507797</v>
       </c>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -12172,9 +12484,8 @@
         <v>148.11683650844972</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -12210,7 +12521,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -12246,7 +12557,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -12282,7 +12593,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -12318,7 +12629,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -12354,7 +12665,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -12390,7 +12701,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -12426,7 +12737,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -12462,7 +12773,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -12533,6 +12844,7 @@
         <v>294.02335070053988</v>
       </c>
       <c r="L33" s="7"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
       <c r="A34" s="15">
@@ -12569,7 +12881,6 @@
         <v>294.02335070053988</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
       <c r="A35" s="15">
@@ -14272,19 +14583,19 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C83" s="20">
-        <v>1.0912980399999994</v>
+        <v>1.0904455599999994</v>
       </c>
       <c r="D83" s="21">
-        <v>-134.89968764171493</v>
+        <v>-135.6804386275966</v>
       </c>
       <c r="E83" s="22">
-        <v>-97.308457445820153</v>
+        <v>-97.871643880226358</v>
       </c>
       <c r="F83" s="22">
-        <v>515.76333194935989</v>
+        <v>515.20014551495376</v>
       </c>
       <c r="G83" s="22">
-        <v>715.00786471471713</v>
+        <v>714.22711372883555</v>
       </c>
       <c r="H83" s="22">
         <v>1179.2233563460313</v>
@@ -14296,7 +14607,7 @@
         <v>493.92702741878657</v>
       </c>
       <c r="K83" s="21">
-        <v>958.14251905010065</v>
+        <v>958.92327003598234</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75">
@@ -14316,22 +14627,57 @@
         <v>-135.83617028981223</v>
       </c>
       <c r="F84" s="22">
-        <v>379.92716165954766</v>
+        <v>379.36397522514153</v>
       </c>
       <c r="G84" s="22">
-        <v>555.71566008780383</v>
+        <v>554.89189292206231</v>
       </c>
       <c r="H84" s="22">
         <v>1179.2233563460313</v>
       </c>
       <c r="I84" s="22">
-        <v>1712.5443870591098</v>
+        <v>1712.5013708792499</v>
       </c>
       <c r="J84" s="22">
-        <v>533.32103071307847</v>
+        <v>533.27801453321854</v>
       </c>
       <c r="K84" s="21">
-        <v>1156.828726971306</v>
+        <v>1157.6094779571877</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.1212557200000004</v>
+      </c>
+      <c r="D85" s="21">
+        <v>-107.52548237423326</v>
+      </c>
+      <c r="E85" s="22">
+        <v>-77.655912276283544</v>
+      </c>
+      <c r="F85" s="22">
+        <v>301.70806294885801</v>
+      </c>
+      <c r="G85" s="22">
+        <v>417.75705228150679</v>
+      </c>
+      <c r="H85" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1682.8920126129276</v>
+      </c>
+      <c r="J85" s="22">
+        <v>503.66865626689628</v>
+      </c>
+      <c r="K85" s="21">
+        <v>1265.1349603314209</v>
       </c>
     </row>
   </sheetData>
@@ -14350,10 +14696,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -14398,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15025,6 +15371,16 @@
         <f t="shared" ref="AC10:AC15" si="2">-AB10</f>
         <v>-25.663806972387135</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>25.663806972387135</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="3">-AE10</f>
+        <v>-25.663806972387135</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -15061,6 +15417,30 @@
         <v>0</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P11" s="10">
+        <v>76.68191792586461</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="R11" s="5">
+        <v>372.93260702767509</v>
+      </c>
+      <c r="S11" s="5">
+        <v>122.63792786483361</v>
+      </c>
+      <c r="T11" s="5">
+        <v>293.44546246194739</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.48997417074553751</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.13963163272748735</v>
+      </c>
       <c r="X11" s="6">
         <v>43830</v>
       </c>
@@ -15081,6 +15461,16 @@
         <f t="shared" si="2"/>
         <v>-3.0136208812590795</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>3.0136208812590795</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.0136208812590795</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -15137,6 +15527,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AD12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -15193,6 +15593,16 @@
         <f t="shared" si="2"/>
         <v>-1.6879618273276691</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1.6879618273276691</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.6879618273276691</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -15249,6 +15659,16 @@
         <f t="shared" si="2"/>
         <v>-143.24737155600297</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>143.24737155600297</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="3"/>
+        <v>-143.24737155600297</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -15299,6 +15719,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15347,8 +15777,18 @@
       <c r="AC16" s="1">
         <v>251.82540118075337</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>76.68191792586461</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="3"/>
+        <v>-76.68191792586461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -15387,8 +15827,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.14156375156582657</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>372.93260702767509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -15423,8 +15869,12 @@
         <v>7.0698617570873559</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>0.13963163272748735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -15460,7 +15910,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -15496,7 +15946,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -15532,7 +15982,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -15567,8 +16017,9 @@
         <v>14.029946713749855</v>
       </c>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -15603,9 +16054,8 @@
         <v>16.733516398118965</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -15641,7 +16091,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -15677,7 +16127,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -15713,7 +16163,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -15749,7 +16199,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -15785,7 +16235,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -15821,7 +16271,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -15857,7 +16307,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -15893,7 +16343,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -15964,6 +16414,7 @@
         <v>42.015733490645488</v>
       </c>
       <c r="L33" s="7"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
       <c r="A34" s="15">
@@ -16000,7 +16451,6 @@
         <v>42.015733490645488</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
       <c r="A35" s="15">
@@ -17703,19 +18153,19 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C83" s="20">
-        <v>1.0912980399999994</v>
+        <v>1.0904455599999994</v>
       </c>
       <c r="D83" s="21">
-        <v>-39.797021254570176</v>
+        <v>-40.143016993508311</v>
       </c>
       <c r="E83" s="22">
-        <v>-28.707158755668051</v>
+        <v>-28.956739108502653</v>
       </c>
       <c r="F83" s="22">
-        <v>126.74255500318944</v>
+        <v>126.49297465035482</v>
       </c>
       <c r="G83" s="22">
-        <v>175.70447142647154</v>
+        <v>175.3584756875334</v>
       </c>
       <c r="H83" s="22">
         <v>250.29467916284148</v>
@@ -17727,7 +18177,7 @@
         <v>119.05334468382125</v>
       </c>
       <c r="K83" s="21">
-        <v>193.64355242019121</v>
+        <v>193.98954815912936</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75">
@@ -17747,22 +18197,57 @@
         <v>-48.633266478903906</v>
       </c>
       <c r="F84" s="22">
-        <v>78.109288524285532</v>
+        <v>77.859708171450919</v>
       </c>
       <c r="G84" s="22">
-        <v>114.2496752315872</v>
+        <v>113.88461654529955</v>
       </c>
       <c r="H84" s="22">
         <v>250.29467916284148</v>
       </c>
       <c r="I84" s="22">
-        <v>379.02862019780639</v>
+        <v>379.00955725045685</v>
       </c>
       <c r="J84" s="22">
-        <v>128.73394103496491</v>
+        <v>128.71487808761538</v>
       </c>
       <c r="K84" s="21">
-        <v>264.77894496621917</v>
+        <v>265.12494070515731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.1212557200000004</v>
+      </c>
+      <c r="D85" s="21">
+        <v>-28.320521756790086</v>
+      </c>
+      <c r="E85" s="22">
+        <v>-20.45334654263208</v>
+      </c>
+      <c r="F85" s="22">
+        <v>57.406361628818843</v>
+      </c>
+      <c r="G85" s="22">
+        <v>79.487144565727732</v>
+      </c>
+      <c r="H85" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I85" s="22">
+        <v>372.93260702767509</v>
+      </c>
+      <c r="J85" s="22">
+        <v>122.63792786483361</v>
+      </c>
+      <c r="K85" s="21">
+        <v>293.44546246194739</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2556,11 +2560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418409088"/>
-        <c:axId val="425953920"/>
+        <c:axId val="451278720"/>
+        <c:axId val="452735360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="418409088"/>
+        <c:axId val="451278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,14 +2607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425953920"/>
+        <c:crossAx val="452735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425953920"/>
+        <c:axId val="452735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418409088"/>
+        <c:crossAx val="451278720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4480,11 +4484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441964032"/>
-        <c:axId val="441965568"/>
+        <c:axId val="521029504"/>
+        <c:axId val="521031040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441964032"/>
+        <c:axId val="521029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,14 +4531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441965568"/>
+        <c:crossAx val="521031040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441965568"/>
+        <c:axId val="521031040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441964032"/>
+        <c:crossAx val="521029504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,11 +6408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447155584"/>
-        <c:axId val="447186432"/>
+        <c:axId val="159763840"/>
+        <c:axId val="159765632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447155584"/>
+        <c:axId val="159763840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6451,14 +6455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447186432"/>
+        <c:crossAx val="159765632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447186432"/>
+        <c:axId val="159765632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,7 +6511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447155584"/>
+        <c:crossAx val="159763840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14738,7 +14742,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,15 +119,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1021,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1025,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1311,6 +1306,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1354,7 +1352,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1636,6 +1634,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,7 +1646,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1923,6 +1924,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1966,7 +1970,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2248,6 +2252,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2264,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2538,6 +2545,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2560,11 +2570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451278720"/>
-        <c:axId val="452735360"/>
+        <c:axId val="527241216"/>
+        <c:axId val="527243520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451278720"/>
+        <c:axId val="527241216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,14 +2617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452735360"/>
+        <c:crossAx val="527243520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452735360"/>
+        <c:axId val="527243520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451278720"/>
+        <c:crossAx val="527241216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2876,7 +2886,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3122,6 +3132,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3144,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3376,6 +3389,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3419,7 +3435,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3665,6 +3681,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3674,7 +3693,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3920,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1682.8920126129276</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1684.5031336690745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3962,7 +3984,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4208,6 +4230,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,7 +4242,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4463,6 +4488,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>503.66865626689628</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>505.27977732304316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,11 +4512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521029504"/>
-        <c:axId val="521031040"/>
+        <c:axId val="530028032"/>
+        <c:axId val="530034688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521029504"/>
+        <c:axId val="530028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,14 +4559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521031040"/>
+        <c:crossAx val="530034688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521031040"/>
+        <c:axId val="530034688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521029504"/>
+        <c:crossAx val="530028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4800,7 +4828,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5046,6 +5074,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,7 +5086,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5300,6 +5331,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5343,7 +5377,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5589,6 +5623,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5598,7 +5635,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5844,6 +5881,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>372.93260702767509</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>373.23915699877301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,7 +5926,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6132,6 +6172,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6141,7 +6184,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6387,6 +6430,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>122.63792786483361</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>122.94447783593154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6408,11 +6454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159763840"/>
-        <c:axId val="159765632"/>
+        <c:axId val="588034816"/>
+        <c:axId val="588036352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="159763840"/>
+        <c:axId val="588034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,14 +6501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159765632"/>
+        <c:crossAx val="588036352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159765632"/>
+        <c:axId val="588036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6511,7 +6557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159763840"/>
+        <c:crossAx val="588034816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6619,7 +6665,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6662,7 +6708,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6705,7 +6751,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,7 +7064,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11114,6 +11160,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.0659416127348635</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I98" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J98" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K98" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11130,7 +11211,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11172,13 +11253,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14682,6 +14763,41 @@
       </c>
       <c r="K85" s="21">
         <v>1265.1349603314209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-104.6133854876724</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-75.262511322229386</v>
+      </c>
+      <c r="F86" s="22">
+        <v>226.44555162662863</v>
+      </c>
+      <c r="G86" s="22">
+        <v>314.75478784998126</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1684.5031336690745</v>
+      </c>
+      <c r="J86" s="22">
+        <v>505.27977732304316</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1369.7483458190932</v>
       </c>
     </row>
   </sheetData>
@@ -14700,10 +14816,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -14742,13 +14858,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -18254,6 +18370,41 @@
         <v>293.44546246194739</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-27.177846178676024</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-19.552688656438239</v>
+      </c>
+      <c r="F86" s="22">
+        <v>37.853672972380608</v>
+      </c>
+      <c r="G86" s="22">
+        <v>52.615848358149599</v>
+      </c>
+      <c r="H86" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I86" s="22">
+        <v>373.23915699877301</v>
+      </c>
+      <c r="J86" s="22">
+        <v>122.94447783593154</v>
+      </c>
+      <c r="K86" s="21">
+        <v>320.62330864062341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,6 +117,18 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业指数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -731,7 +743,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1016,6 +1028,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1040,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1309,6 +1324,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1352,7 +1370,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1637,6 +1655,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,7 +1667,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1927,6 +1948,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1970,7 +1994,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2255,6 +2279,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,7 +2291,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2548,6 +2575,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2570,11 +2600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527241216"/>
-        <c:axId val="527243520"/>
+        <c:axId val="88081920"/>
+        <c:axId val="88109824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527241216"/>
+        <c:axId val="88081920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,14 +2647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527243520"/>
+        <c:crossAx val="88109824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527243520"/>
+        <c:axId val="88109824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527241216"/>
+        <c:crossAx val="88081920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2916,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3135,6 +3165,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,7 +3177,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3392,6 +3425,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3435,7 +3471,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3684,6 +3720,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,7 +3732,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3942,6 +3981,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1684.5031336690745</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1727.8063165066346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,7 +4026,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4233,6 +4275,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,7 +4287,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4491,6 +4536,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>505.27977732304316</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>548.58296016060331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,11 +4560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530028032"/>
-        <c:axId val="530034688"/>
+        <c:axId val="516609920"/>
+        <c:axId val="551084032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530028032"/>
+        <c:axId val="516609920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,14 +4607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530034688"/>
+        <c:crossAx val="551084032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530034688"/>
+        <c:axId val="551084032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,7 +4663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530028032"/>
+        <c:crossAx val="516609920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4828,7 +4876,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5077,6 +5125,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,7 +5137,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5334,6 +5385,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5377,7 +5431,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5626,6 +5680,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5635,7 +5692,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5884,6 +5941,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>373.23915699877301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>380.47791488128138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5926,7 +5986,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6175,6 +6235,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6184,7 +6247,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6433,6 +6496,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>122.94447783593154</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>130.1832357184399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6454,11 +6520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588034816"/>
-        <c:axId val="588036352"/>
+        <c:axId val="88124416"/>
+        <c:axId val="88126208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="588034816"/>
+        <c:axId val="88124416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6501,14 +6567,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588036352"/>
+        <c:crossAx val="88126208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588036352"/>
+        <c:axId val="88126208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6557,7 +6623,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588034816"/>
+        <c:crossAx val="88124416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7064,7 +7130,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11195,6 +11261,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.0709083815925535</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I99" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J99" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K99" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11211,7 +11312,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11253,13 +11354,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14798,6 +14899,41 @@
       </c>
       <c r="K86" s="21">
         <v>1369.7483458190932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1721302800000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-259.38663683868128</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-164.04312952655326</v>
+      </c>
+      <c r="F87" s="22">
+        <v>62.40242210007537</v>
+      </c>
+      <c r="G87" s="22">
+        <v>98.671333848860172</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1727.8063165066346</v>
+      </c>
+      <c r="J87" s="22">
+        <v>548.58296016060331</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1629.1349826577743</v>
       </c>
     </row>
   </sheetData>
@@ -14815,8 +14951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF86"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14864,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14919,7 +15057,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-29.253044522265498</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -18403,6 +18541,41 @@
       </c>
       <c r="K86" s="21">
         <v>320.62330864062341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1721302800000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-106.10981276970936</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-67.106717494646105</v>
+      </c>
+      <c r="F87" s="22">
+        <v>-29.253044522265498</v>
+      </c>
+      <c r="G87" s="22">
+        <v>-46.255206529051428</v>
+      </c>
+      <c r="H87" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I87" s="22">
+        <v>380.47791488128138</v>
+      </c>
+      <c r="J87" s="22">
+        <v>130.1832357184399</v>
+      </c>
+      <c r="K87" s="21">
+        <v>426.73312141033279</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,18 +117,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA250</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -743,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1031,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1031,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1327,6 +1318,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,7 +1364,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1658,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1664,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1951,6 +1948,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1994,7 +1994,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2282,6 +2282,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2294,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2578,6 +2581,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2600,11 +2606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88081920"/>
-        <c:axId val="88109824"/>
+        <c:axId val="367080960"/>
+        <c:axId val="367084672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88081920"/>
+        <c:axId val="367080960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,14 +2653,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88109824"/>
+        <c:crossAx val="367084672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88109824"/>
+        <c:axId val="367084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2709,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88081920"/>
+        <c:crossAx val="367080960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,7 +2922,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3168,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,7 +3186,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3428,6 +3437,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3471,7 +3483,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3723,6 +3735,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,7 +3747,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3984,6 +3999,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1727.8063165066346</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1725.4194238613068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,7 +4044,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4278,6 +4296,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,7 +4308,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4539,6 +4560,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>548.58296016060331</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>546.19606751527544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516609920"/>
-        <c:axId val="551084032"/>
+        <c:axId val="636221312"/>
+        <c:axId val="636222848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516609920"/>
+        <c:axId val="636221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,14 +4631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551084032"/>
+        <c:crossAx val="636222848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551084032"/>
+        <c:axId val="636222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516609920"/>
+        <c:crossAx val="636221312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4876,7 +4900,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5128,6 +5152,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5137,7 +5164,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5388,6 +5415,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5431,7 +5461,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5683,6 +5713,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5692,7 +5725,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5943,7 +5976,10 @@
                   <c:v>373.23915699877301</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>380.47791488128138</c:v>
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5986,7 +6022,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6238,6 +6274,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6247,7 +6286,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6498,7 +6537,10 @@
                   <c:v>122.94447783593154</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>130.1832357184399</c:v>
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6520,11 +6562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88124416"/>
-        <c:axId val="88126208"/>
+        <c:axId val="111954560"/>
+        <c:axId val="111956352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88124416"/>
+        <c:axId val="111954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,14 +6609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88126208"/>
+        <c:crossAx val="111956352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88126208"/>
+        <c:axId val="111956352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6623,7 +6665,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88124416"/>
+        <c:crossAx val="111954560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6731,7 +6773,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6774,7 +6816,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,7 +6859,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7172,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11296,6 +11338,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.0770359795396409</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I100" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J100" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K100" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11311,8 +11388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF87"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11354,13 +11433,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11415,7 +11494,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-43.93282989039696</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -14934,6 +15013,41 @@
       </c>
       <c r="K87" s="21">
         <v>1629.1349826577743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-164.0710404112192</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-106.33525199047233</v>
+      </c>
+      <c r="F88" s="22">
+        <v>-43.93282989039696</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-67.786599207686891</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1725.4194238613068</v>
+      </c>
+      <c r="J88" s="22">
+        <v>546.19606751527544</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1793.2060230689935</v>
       </c>
     </row>
   </sheetData>
@@ -14954,7 +15068,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15002,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15057,7 +15171,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-29.253044522265498</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -18554,28 +18668,63 @@
         <v>1.1721302800000002</v>
       </c>
       <c r="D87" s="21">
-        <v>-106.10981276970936</v>
+        <v>-59.854606240657944</v>
       </c>
       <c r="E87" s="22">
-        <v>-67.106717494646105</v>
+        <v>-37.853672972380608</v>
       </c>
       <c r="F87" s="22">
-        <v>-29.253044522265498</v>
+        <v>0</v>
       </c>
       <c r="G87" s="22">
-        <v>-46.255206529051428</v>
+        <v>0</v>
       </c>
       <c r="H87" s="22">
         <v>250.29467916284148</v>
       </c>
       <c r="I87" s="22">
-        <v>380.47791488128138</v>
+        <v>380.47791488128132</v>
       </c>
       <c r="J87" s="22">
-        <v>130.1832357184399</v>
+        <v>130.18323571843985</v>
       </c>
       <c r="K87" s="21">
-        <v>426.73312141033279</v>
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I88" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J88" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K88" s="21">
+        <v>380.47791488128132</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -731,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1022,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1034,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1321,6 +1324,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1364,7 +1370,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1655,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,7 +1673,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1951,6 +1960,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1994,7 +2006,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2285,6 +2297,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,7 +2309,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2584,6 +2599,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2606,11 +2624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367080960"/>
-        <c:axId val="367084672"/>
+        <c:axId val="451120512"/>
+        <c:axId val="451123840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367080960"/>
+        <c:axId val="451120512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,14 +2671,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367084672"/>
+        <c:crossAx val="451123840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367084672"/>
+        <c:axId val="451123840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367080960"/>
+        <c:crossAx val="451120512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,7 +2940,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3177,6 +3195,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,7 +3207,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3440,6 +3461,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3483,7 +3507,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3738,6 +3762,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3747,7 +3774,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4001,7 +4028,10 @@
                   <c:v>1727.8063165066346</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1725.4194238613068</c:v>
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,7 +4074,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4299,6 +4329,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,7 +4341,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4562,7 +4595,10 @@
                   <c:v>548.58296016060331</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>546.19606751527544</c:v>
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +4620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="636221312"/>
-        <c:axId val="636222848"/>
+        <c:axId val="502269440"/>
+        <c:axId val="502271360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="636221312"/>
+        <c:axId val="502269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,14 +4667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636222848"/>
+        <c:crossAx val="502271360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="636222848"/>
+        <c:axId val="502271360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636221312"/>
+        <c:crossAx val="502269440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4900,7 +4936,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5155,6 +5191,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5164,7 +5203,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5418,6 +5457,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5461,7 +5503,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5716,6 +5758,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,7 +5770,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5979,6 +6024,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6022,7 +6070,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6277,6 +6325,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6286,7 +6337,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6540,6 +6591,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6562,11 +6616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111954560"/>
-        <c:axId val="111956352"/>
+        <c:axId val="532898176"/>
+        <c:axId val="532899712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111954560"/>
+        <c:axId val="532898176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6609,14 +6663,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111956352"/>
+        <c:crossAx val="532899712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111956352"/>
+        <c:axId val="532899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6665,7 +6719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111954560"/>
+        <c:crossAx val="532898176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7172,7 +7226,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11373,6 +11427,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.0809745698380564</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I101" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J101" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K101" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11391,7 +11480,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11494,7 +11583,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-43.93282989039696</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -15026,28 +15115,63 @@
         <v>1.21761052</v>
       </c>
       <c r="D88" s="21">
-        <v>-164.0710404112192</v>
+        <v>-96.284441203532296</v>
       </c>
       <c r="E88" s="22">
-        <v>-106.33525199047233</v>
+        <v>-62.40242210007537</v>
       </c>
       <c r="F88" s="22">
-        <v>-43.93282989039696</v>
+        <v>0</v>
       </c>
       <c r="G88" s="22">
-        <v>-67.786599207686891</v>
+        <v>0</v>
       </c>
       <c r="H88" s="22">
         <v>1179.2233563460313</v>
       </c>
       <c r="I88" s="22">
-        <v>1725.4194238613068</v>
+        <v>1725.4194238613065</v>
       </c>
       <c r="J88" s="22">
-        <v>546.19606751527544</v>
+        <v>546.19606751527522</v>
       </c>
       <c r="K88" s="21">
-        <v>1793.2060230689935</v>
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J89" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1725.4194238613065</v>
       </c>
     </row>
   </sheetData>
@@ -15068,7 +15192,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18727,6 +18851,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I89" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J89" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K89" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -731,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1025,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1037,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1327,6 +1330,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,7 +1376,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1664,6 +1670,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,7 +1682,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1963,6 +1972,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2006,7 +2018,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2300,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,7 +2324,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2602,6 +2617,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2624,11 +2642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451120512"/>
-        <c:axId val="451123840"/>
+        <c:axId val="573794560"/>
+        <c:axId val="577536384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451120512"/>
+        <c:axId val="573794560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,14 +2689,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451123840"/>
+        <c:crossAx val="577536384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451123840"/>
+        <c:axId val="577536384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451120512"/>
+        <c:crossAx val="573794560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,7 +2958,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3198,6 +3216,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,7 +3228,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3464,6 +3485,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3507,7 +3531,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3765,6 +3789,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +3801,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4031,6 +4058,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4074,7 +4104,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4332,6 +4362,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4374,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4598,6 +4631,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4620,11 +4656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502269440"/>
-        <c:axId val="502271360"/>
+        <c:axId val="577603840"/>
+        <c:axId val="577757184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502269440"/>
+        <c:axId val="577603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4667,14 +4703,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502271360"/>
+        <c:crossAx val="577757184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502271360"/>
+        <c:axId val="577757184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502269440"/>
+        <c:crossAx val="577603840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4936,7 +4972,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5194,6 +5230,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,7 +5242,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5460,6 +5499,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5503,7 +5545,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5761,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5770,7 +5815,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6027,6 +6072,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6070,7 +6118,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6328,6 +6376,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6337,7 +6388,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6594,6 +6645,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6616,11 +6670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532898176"/>
-        <c:axId val="532899712"/>
+        <c:axId val="658084224"/>
+        <c:axId val="658085760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532898176"/>
+        <c:axId val="658084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6663,14 +6717,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532899712"/>
+        <c:crossAx val="658085760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532899712"/>
+        <c:axId val="658085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6719,7 +6773,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532898176"/>
+        <c:crossAx val="658084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6827,7 +6881,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6870,7 +6924,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6913,7 +6967,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7226,7 +7280,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11462,6 +11516,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.0853151779448618</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I102" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J102" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K102" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11480,7 +11569,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15174,6 +15263,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0</v>
+      </c>
+      <c r="F90" s="22">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J90" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15192,7 +15316,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18886,6 +19010,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0</v>
+      </c>
+      <c r="F90" s="22">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I90" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J90" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K90" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,8 +119,20 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业指数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -731,7 +743,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1028,6 +1040,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1052,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1333,6 +1348,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1376,7 +1394,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1673,6 +1691,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1703,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1975,6 +1996,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2018,7 +2042,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2315,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,7 +2351,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2620,6 +2647,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2642,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573794560"/>
-        <c:axId val="577536384"/>
+        <c:axId val="341526400"/>
+        <c:axId val="438996352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573794560"/>
+        <c:axId val="341526400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,14 +2719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577536384"/>
+        <c:crossAx val="438996352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577536384"/>
+        <c:axId val="438996352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573794560"/>
+        <c:crossAx val="341526400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2958,7 +2988,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3219,6 +3249,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,7 +3261,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3488,6 +3521,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3531,7 +3567,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3792,6 +3828,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,7 +3840,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4061,6 +4100,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4104,7 +4146,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4365,6 +4407,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,7 +4419,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4634,6 +4679,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4656,11 +4704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577603840"/>
-        <c:axId val="577757184"/>
+        <c:axId val="485636352"/>
+        <c:axId val="485638528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577603840"/>
+        <c:axId val="485636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,14 +4751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577757184"/>
+        <c:crossAx val="485638528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577757184"/>
+        <c:axId val="485638528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,7 +4807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577603840"/>
+        <c:crossAx val="485636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4972,7 +5020,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5233,6 +5281,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,7 +5293,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5502,6 +5553,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5545,7 +5599,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5806,6 +5860,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,7 +5872,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6075,6 +6132,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6118,7 +6178,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6379,6 +6439,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6388,7 +6451,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6648,6 +6711,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6670,11 +6736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658084224"/>
-        <c:axId val="658085760"/>
+        <c:axId val="489332096"/>
+        <c:axId val="546718848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658084224"/>
+        <c:axId val="489332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6717,14 +6783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658085760"/>
+        <c:crossAx val="546718848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658085760"/>
+        <c:axId val="546718848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,7 +6839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658084224"/>
+        <c:crossAx val="489332096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6881,7 +6947,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6924,7 +6990,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6967,7 +7033,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7280,7 +7346,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11551,6 +11617,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.0902648933002479</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I103" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J103" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K103" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11569,7 +11670,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11611,13 +11712,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11667,7 +11768,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -15295,6 +15396,41 @@
         <v>546.19606751527522</v>
       </c>
       <c r="K90" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J91" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K91" s="21">
         <v>1725.4194238613065</v>
       </c>
     </row>
@@ -15316,7 +15452,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15361,10 +15497,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15414,7 +15550,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -19042,6 +19178,41 @@
         <v>130.18323571843985</v>
       </c>
       <c r="K90" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I91" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J91" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K91" s="21">
         <v>380.47791488128132</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -129,10 +129,6 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +739,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1043,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1051,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1351,6 +1350,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1394,7 +1396,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1694,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1708,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1999,6 +2004,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,7 +2050,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2342,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2362,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2650,6 +2661,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2672,11 +2686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="341526400"/>
-        <c:axId val="438996352"/>
+        <c:axId val="455338624"/>
+        <c:axId val="468407424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="341526400"/>
+        <c:axId val="455338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,14 +2733,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438996352"/>
+        <c:crossAx val="468407424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="438996352"/>
+        <c:axId val="468407424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341526400"/>
+        <c:crossAx val="455338624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,7 +3002,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3252,6 +3266,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,7 +3278,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3524,6 +3541,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3567,7 +3587,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3831,6 +3851,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,7 +3863,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4103,6 +4126,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4146,7 +4172,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4410,6 +4436,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4419,7 +4448,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4682,6 +4711,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4704,11 +4736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485636352"/>
-        <c:axId val="485638528"/>
+        <c:axId val="472478080"/>
+        <c:axId val="472479616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485636352"/>
+        <c:axId val="472478080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,14 +4783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485638528"/>
+        <c:crossAx val="472479616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485638528"/>
+        <c:axId val="472479616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4807,7 +4839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485636352"/>
+        <c:crossAx val="472478080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5020,7 +5052,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5284,6 +5316,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5293,7 +5328,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5556,6 +5591,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5599,7 +5637,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5863,6 +5901,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5872,7 +5913,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6135,6 +6176,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6178,7 +6222,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6442,6 +6486,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,7 +6498,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6714,6 +6761,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6736,11 +6786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489332096"/>
-        <c:axId val="546718848"/>
+        <c:axId val="88142976"/>
+        <c:axId val="88144512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489332096"/>
+        <c:axId val="88142976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6783,14 +6833,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546718848"/>
+        <c:crossAx val="88144512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546718848"/>
+        <c:axId val="88144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +6889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489332096"/>
+        <c:crossAx val="88142976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6947,7 +6997,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6990,7 +7040,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7033,7 +7083,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7346,7 +7396,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11652,6 +11702,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B104" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.0969903631010793</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I104" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J104" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K104" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11670,7 +11755,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11768,7 +11853,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -15431,6 +15516,41 @@
         <v>546.19606751527522</v>
       </c>
       <c r="K91" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="22">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J92" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K92" s="21">
         <v>1725.4194238613065</v>
       </c>
     </row>
@@ -15452,7 +15572,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15550,7 +15670,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -19213,6 +19333,41 @@
         <v>130.18323571843985</v>
       </c>
       <c r="K91" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="22">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I92" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J92" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K92" s="21">
         <v>380.47791488128132</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,6 +119,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -127,8 +131,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +743,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1042,6 +1046,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1058,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1353,6 +1360,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1396,7 +1406,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1699,6 +1709,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1721,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2007,6 +2020,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,7 +2066,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2353,6 +2369,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2381,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2664,6 +2683,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2686,11 +2708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455338624"/>
-        <c:axId val="468407424"/>
+        <c:axId val="446108800"/>
+        <c:axId val="446110336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455338624"/>
+        <c:axId val="446108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,14 +2755,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468407424"/>
+        <c:crossAx val="446110336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468407424"/>
+        <c:axId val="446110336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,7 +2811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455338624"/>
+        <c:crossAx val="446108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3002,7 +3024,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3269,6 +3291,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,7 +3303,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3544,6 +3569,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3587,7 +3615,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3854,6 +3882,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3894,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4129,6 +4160,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4172,7 +4206,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4439,6 +4473,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,7 +4485,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4714,6 +4751,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4736,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472478080"/>
-        <c:axId val="472479616"/>
+        <c:axId val="454572288"/>
+        <c:axId val="454603136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472478080"/>
+        <c:axId val="454572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,14 +4823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472479616"/>
+        <c:crossAx val="454603136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472479616"/>
+        <c:axId val="454603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4839,7 +4879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472478080"/>
+        <c:crossAx val="454572288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5052,7 +5092,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5319,6 +5359,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,7 +5371,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5594,6 +5637,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5637,7 +5683,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5904,6 +5950,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5913,7 +5962,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6179,6 +6228,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6222,7 +6274,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6489,6 +6541,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6498,7 +6553,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6764,6 +6819,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6786,11 +6844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88142976"/>
-        <c:axId val="88144512"/>
+        <c:axId val="93327360"/>
+        <c:axId val="93328896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88142976"/>
+        <c:axId val="93327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,14 +6891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88144512"/>
+        <c:crossAx val="93328896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88144512"/>
+        <c:axId val="93328896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +6947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88142976"/>
+        <c:crossAx val="93327360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6997,7 +7055,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7040,7 +7098,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7083,7 +7141,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7396,7 +7454,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11737,6 +11795,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B105" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.1046083681398731</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I105" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J105" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K105" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11755,7 +11848,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11797,13 +11890,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15551,6 +15644,41 @@
         <v>546.19606751527522</v>
       </c>
       <c r="K92" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J93" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K93" s="21">
         <v>1725.4194238613065</v>
       </c>
     </row>
@@ -15572,7 +15700,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15614,13 +15742,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15670,7 +15798,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -19368,6 +19496,41 @@
         <v>130.18323571843985</v>
       </c>
       <c r="K92" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I93" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J93" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K93" s="21">
         <v>380.47791488128132</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -121,18 +121,6 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +731,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1049,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1049,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1363,6 +1354,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1406,7 +1400,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1712,6 +1706,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1718,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2023,6 +2020,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2066,7 +2066,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2372,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2384,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2686,6 +2689,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2708,11 +2714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446108800"/>
-        <c:axId val="446110336"/>
+        <c:axId val="520660480"/>
+        <c:axId val="520675712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446108800"/>
+        <c:axId val="520660480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,14 +2761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446110336"/>
+        <c:crossAx val="520675712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446110336"/>
+        <c:axId val="520675712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446108800"/>
+        <c:crossAx val="520660480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2965,6 +2971,14 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
+            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3024,7 +3038,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3294,6 +3308,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,7 +3320,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3572,6 +3589,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3615,7 +3635,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3885,6 +3905,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,7 +3917,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4163,6 +4186,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4206,7 +4232,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4476,6 +4502,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,7 +4514,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4754,6 +4783,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4776,11 +4808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454572288"/>
-        <c:axId val="454603136"/>
+        <c:axId val="613686656"/>
+        <c:axId val="638841984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454572288"/>
+        <c:axId val="613686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454603136"/>
+        <c:crossAx val="638841984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454603136"/>
+        <c:axId val="638841984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +4911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454572288"/>
+        <c:crossAx val="613686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5092,7 +5124,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5362,6 +5394,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,7 +5406,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5640,6 +5675,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5683,7 +5721,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5953,6 +5991,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,7 +6003,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6231,6 +6272,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6274,7 +6318,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6544,6 +6588,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,7 +6600,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6822,6 +6869,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6844,11 +6894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93327360"/>
-        <c:axId val="93328896"/>
+        <c:axId val="655706752"/>
+        <c:axId val="690397568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93327360"/>
+        <c:axId val="655706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,14 +6941,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93328896"/>
+        <c:crossAx val="690397568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93328896"/>
+        <c:axId val="690397568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6947,7 +6997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93327360"/>
+        <c:crossAx val="655706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7055,7 +7105,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7098,7 +7148,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7141,7 +7191,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7454,7 +7504,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11830,6 +11880,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B106" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.1126600432484375</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I106" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J106" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K106" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11848,7 +11933,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15682,6 +15767,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J94" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15700,7 +15820,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15742,10 +15862,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>20</v>
@@ -15798,7 +15918,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -19531,6 +19651,41 @@
         <v>130.18323571843985</v>
       </c>
       <c r="K93" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I94" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J94" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K94" s="21">
         <v>380.47791488128132</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,6 +117,18 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业指数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -731,7 +743,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1040,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,7 +1064,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1357,6 +1372,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1400,7 +1418,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1709,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,7 +1739,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2023,6 +2044,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2066,7 +2090,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2375,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2411,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2692,6 +2719,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2714,11 +2744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520660480"/>
-        <c:axId val="520675712"/>
+        <c:axId val="468815872"/>
+        <c:axId val="468818176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520660480"/>
+        <c:axId val="468815872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +2791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520675712"/>
+        <c:crossAx val="468818176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520675712"/>
+        <c:axId val="468818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2847,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520660480"/>
+        <c:crossAx val="468815872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2971,14 +3001,6 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3038,7 +3060,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3311,6 +3333,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3345,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3592,6 +3617,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3635,7 +3663,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3908,6 +3936,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3917,7 +3948,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4189,6 +4220,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4232,7 +4266,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4505,6 +4539,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,7 +4551,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4786,6 +4823,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4808,11 +4848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613686656"/>
-        <c:axId val="638841984"/>
+        <c:axId val="468876288"/>
+        <c:axId val="471681280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613686656"/>
+        <c:axId val="468876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,14 +4895,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638841984"/>
+        <c:crossAx val="471681280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638841984"/>
+        <c:axId val="471681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4951,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613686656"/>
+        <c:crossAx val="468876288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5124,7 +5164,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5397,6 +5437,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,7 +5449,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5678,6 +5721,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5721,7 +5767,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5994,6 +6040,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6003,7 +6052,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6275,6 +6324,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6318,7 +6370,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6591,6 +6643,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6600,7 +6655,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6872,6 +6927,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6894,11 +6952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655706752"/>
-        <c:axId val="690397568"/>
+        <c:axId val="549794560"/>
+        <c:axId val="549796480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="655706752"/>
+        <c:axId val="549794560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6941,14 +6999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690397568"/>
+        <c:crossAx val="549796480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="690397568"/>
+        <c:axId val="549796480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6997,7 +7055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655706752"/>
+        <c:crossAx val="549794560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7105,7 +7163,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7148,7 +7206,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7191,7 +7249,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +7562,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11915,6 +11973,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.1186502812202088</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I107" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J107" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K107" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11933,7 +12026,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11978,10 +12071,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15799,6 +15892,41 @@
         <v>546.19606751527522</v>
       </c>
       <c r="K94" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J95" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K95" s="21">
         <v>1725.4194238613065</v>
       </c>
     </row>
@@ -15820,7 +15948,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15862,13 +15990,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -19689,6 +19817,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I95" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J95" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K95" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4cn.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -131,7 +127,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>人工智能产业指数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +739,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1055,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,7 +1063,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1375,6 +1374,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1418,7 +1420,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1730,6 +1732,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1744,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2047,6 +2052,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2090,7 +2098,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2402,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,7 +2422,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2722,6 +2733,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2744,11 +2758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468815872"/>
-        <c:axId val="468818176"/>
+        <c:axId val="474925312"/>
+        <c:axId val="486227968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468815872"/>
+        <c:axId val="474925312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,14 +2805,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468818176"/>
+        <c:crossAx val="486227968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468818176"/>
+        <c:axId val="486227968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468815872"/>
+        <c:crossAx val="474925312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3060,7 +3074,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3336,6 +3350,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,7 +3362,7 @@
               <c:f>'模型四 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3620,6 +3637,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3663,7 +3683,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3939,6 +3959,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,7 +3971,7 @@
               <c:f>'模型四 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4223,6 +4246,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4266,7 +4292,7 @@
               <c:f>'模型四 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4542,6 +4568,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4551,7 +4580,7 @@
               <c:f>'模型四 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4826,6 +4855,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4848,11 +4880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468876288"/>
-        <c:axId val="471681280"/>
+        <c:axId val="510284160"/>
+        <c:axId val="535826432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468876288"/>
+        <c:axId val="510284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471681280"/>
+        <c:crossAx val="535826432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471681280"/>
+        <c:axId val="535826432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +4983,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468876288"/>
+        <c:crossAx val="510284160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5164,7 +5196,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5440,6 +5472,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,7 +5484,7 @@
               <c:f>'模型四 (3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5724,6 +5759,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5767,7 +5805,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6043,6 +6081,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6052,7 +6093,7 @@
               <c:f>'模型四 (3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6327,6 +6368,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6370,7 +6414,7 @@
               <c:f>'模型四 (3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6646,6 +6690,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,7 +6702,7 @@
               <c:f>'模型四 (3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6930,6 +6977,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6952,11 +7002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549794560"/>
-        <c:axId val="549796480"/>
+        <c:axId val="571349632"/>
+        <c:axId val="600809856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549794560"/>
+        <c:axId val="571349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,14 +7049,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549796480"/>
+        <c:crossAx val="600809856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549796480"/>
+        <c:axId val="600809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7055,7 +7105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549794560"/>
+        <c:crossAx val="571349632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7163,7 +7213,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,7 +7256,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7249,7 +7299,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7612,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12008,6 +12058,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="108" spans="1:11" ht="12.75">
+      <c r="A108" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C108" s="20">
+        <v>1.1261140396413394</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="22">
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I108" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J108" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K108" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12026,7 +12111,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12071,10 +12156,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15927,6 +16012,41 @@
         <v>546.19606751527522</v>
       </c>
       <c r="K95" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J96" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K96" s="21">
         <v>1725.4194238613065</v>
       </c>
     </row>
@@ -15948,7 +16068,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15990,13 +16110,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -19852,6 +19972,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I96" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J96" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K96" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
